--- a/finetuning/it_datasets/qa_dataset/qa_it_jendouba_dataset.xlsx
+++ b/finetuning/it_datasets/qa_dataset/qa_it_jendouba_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA67"/>
+  <dimension ref="A1:AB67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,7 +561,12 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>question</t>
+          <t>plan</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>choices</t>
         </is>
       </c>
     </row>
@@ -659,12 +664,60 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>If you're in Jendouba and looking for a charming cafe, make sure to visit mqh~ l'hrm located at GQ5X+QFX mqh~ l'hrm. This top-rated destination is a haven for cafe lovers and offers a range of delightful options to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 36.4976753, 8.7777625.</t>
+          <t>**Café mqh** is a highly-rated café situated in Jendouba, Tunisia. Located at coordinates (36.4976753, 8.7777625), the café offers a cozy atmosphere and a variety of beverages to its customers. With a 4.0 rating based on one review, mqh is a popular spot for locals and tourists alike.</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>Where in Jendouba can you find a top-rated cafe with delightful options and an alluring charm?</t>
+          <t>Day Plan:
+Morning: Exploring the historical Bulla Regia archaeological site, marveling at its Roman ruins
+Mid-Morning: Taking a guided tour of Gare Ferroviaire de Jendouba, learning about its importance as a railway hub
+Midday: Trying local cuisine at Restaurant Mio Mondo, savoring the flavors of Jendouba
+Afternoon: Enjoying the cozy ambiance and delectable food at Cafe Restaurant in Jendouba
+Evening: Experiencing the vibrant atmosphere of Pizza Woods Lounge, indulging in delicious pizzas and crepes
+Night: Relaxing with a drink and snacks at Jasmine, enjoying its cozy ambiance and friendly atmosphere</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Restaurant in Jendouba offers a cozy ambiance and delectable food. Located at (36.4976753, 8.7777625), the cafe is a popular spot for locals and tourists alike. Open from 6 AM to 12 AM, it provides an extensive menu with a focus on coffee and light bites. The cafe's 5-star rating, based on positive customer reviews, is a testament to its exceptional service and offerings.
+Welcome to Pizza Woods Lounge in Jendouba, Tunisia! We offer a comfortable and inviting atmosphere for you to relax with friends and family. Enjoy our delicious pizzas, crepes, and other breakfast, brunch, and lunch options. We also serve a variety of beverages, including coffee, tea, and juices. Our team is dedicated to providing exceptional service and creating a memorable dining experience for all our guests. Visit us today at our convenient location at Pizza woods Lounge Jendouba, P6, Jendouba, and indulge in the ultimate culinary and social experience. We are open 24 hours a day, so come in anytime!
+Pizzeria Matador, located in Jendouba (lon: 8.7777625 ; lat: 36.4976753), is a restaurant offering a variety of dishes. With a rating of 4.0 based on 7 reviews, it has a featured image, a link to its website, and a phone number.
+Bulla Regia, an archaeological site in Jendouba, Tunisia, boasts a 4.7-star rating with 300 reviews and exhibits impressive Roman ruins. At coordinates (36.55696, 8.74538), it features well-preserved mosaics, villas, and underground structures, making it a popular tourist attraction.
+JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.
+Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. 
+Restaurant Mio Mondo, located in Jendouba (coordinates: 36.4976753, 8.7777625), is a fast food restaurant that offers a wide variety of dishes to suit all tastes. Open from 9:00 AM to 10:00 PM, this establishment has received a rating of 5.0 out of 5 based on two reviews. In addition to its excellent ratings, Restaurant Mio Mondo is also praised for its delicious food and friendly staff. Whether you are looking for a quick bite to eat or a more leisurely dining experience, Restaurant Mio Mondo is sure to have something to satisfy your cravings.
+Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).
+Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.
+Located in Enour, Jendouba, Station Louages Jendouba-bBousalem offers reliable transportation services. It operates 24 hours a day, providing convenient travel options for locals and visitors alike. With its prime location and dedication to customer satisfaction, it has earned a 5.0 rating from its customers.
+**Gare Ferroviaire de Jendouba : A Railway Station in Jendouba, Tunisia**
+A vital transport hub located at the coordinates (36.5011879, 8.7780214) in Jendouba, Gare Ferroviaire de Jendouba is the primary railway station of the city. The station boasts 3.2 out of 5 stars as per user reviews.
+Located in Jendouba, Station des Autobus #2 is a bus station that offers convenient transportation services. Its exact coordinates are (5.4744717, -3.8045517), making it easily accessible for commuters.
+Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It offers public transportation services to various destinations. The station is conveniently located at the coordinates (36.4976753, 8.7777625), making it easily accessible for travelers.
+Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -762,12 +815,60 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>If you're in Jendouba and looking for a delightful cup of coffee, visit Jendouba located at FQXQ+43Q. Perfect for cafe lovers, this top-rated destination offers a cozy ambiance and freshly brewed beverages. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 08:00-18:00, but closed on Sundays. For more details, visit their website or call them at 28 574 003.</t>
+          <t>Jendouba is a cafe located in Jendouba, Tunisia. It offers a cozy atmosphere with a rating of 4.5 based on 45 reviews. The cafe is open from 08:00-18:00 and is closed on Sundays. It specializes in coffee and tea, and the phone number is 28 574 003. The address is FQXQ+43Q Jendouba.</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>Where in Jendouba can you find a cozy and highly-rated cafe for your coffee cravings?</t>
+          <t>Day Plan:
+Morning: Explore Bulla Regia, a fascinating archaeological site showcasing impressive Roman ruins.
+Mid-Morning: Immerse yourself in Jendouba's cultural heritage at a local museum.
+Midday: Relish a delicious lunch at Le Sultan, a highly-rated restaurant known for its culinary offerings.
+Afternoon: Enjoy a leisurely stroll through Jendouba's central market, browsing vibrant stalls and discovering local crafts.
+Evening: Indulge in a tranquil spa experience at a local hotel, rejuvenating and relaxing before the evening festivities.
+Night: Experience the vibrant nightlife at Jasmine, a cozy bar lounge offering a variety of drinks and a lively atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café restaurant is a highly-rated cafe located in Jendouba, Tunisia. It offers a wide range of food and drinks, and is open from 6am to midnight, 7 days a week. The cafe is conveniently located near public transportation, and offers free Wi-Fi.
+Salon de the Jazz is a popular tea room in Jendouba, Tunisia, located at coordinates (36.4976753, 8.7777625). With a rating of 4.3 based on 15 reviews, it's a great place to relax and enjoy a cup of tea.
+Le Sultan, a highly-rated restaurant located in Jendouba, Tunisia (36.4976753, 8.7777625), boasts a 5.0-star rating. It opens daily from 6:00 AM to 11:00 PM and is owned by "Le Sultan (proprietaire)". While the provided description is currently unavailable, the restaurant is known for its culinary offerings and has received positive reviews (3). More information can be found on its Google Maps page: https://www.google.com/maps/place/Le+Sultan/data=!4m7!3m6!1s0x12fb13aefa51ebeb:0xe39630b6ce608df8!8m2!3d36.4978617!4d8.7747328!16s%2Fg%2F11j0byb6z3!19sChIJ6-tR-q4T-xIR-I1gzrYwluM?authuser=0&amp;hl=fr&amp;rclk=1.
+Bulla Regia, an archaeological site in Jendouba, Tunisia, boasts a 4.7-star rating with 300 reviews and exhibits impressive Roman ruins. At coordinates (36.55696, 8.74538), it features well-preserved mosaics, villas, and underground structures, making it a popular tourist attraction.
+JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.
+Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. 
+Restaurant Mio Mondo, located in Jendouba (coordinates: 36.4976753, 8.7777625), is a fast food restaurant that offers a wide variety of dishes to suit all tastes. Open from 9:00 AM to 10:00 PM, this establishment has received a rating of 5.0 out of 5 based on two reviews. In addition to its excellent ratings, Restaurant Mio Mondo is also praised for its delicious food and friendly staff. Whether you are looking for a quick bite to eat or a more leisurely dining experience, Restaurant Mio Mondo is sure to have something to satisfy your cravings.
+Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).
+Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.
+Societe De Transport Regional Jendouba is a transport service located in Jendouba, Tunisia. Its coordinates are (36.4976753, 8.7777625). They offer various transport services and can be contacted at 78 600 690.
+**Gare Ferroviaire de Jendouba : A Railway Station in Jendouba, Tunisia**
+A vital transport hub located at the coordinates (36.5011879, 8.7780214) in Jendouba, Gare Ferroviaire de Jendouba is the primary railway station of the city. The station boasts 3.2 out of 5 stars as per user reviews.
+Located in Jendouba, Station des Autobus #2 is a bus station that offers convenient transportation services. Its exact coordinates are (5.4744717, -3.8045517), making it easily accessible for commuters.
+Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It offers public transportation services to various destinations. The station is conveniently located at the coordinates (36.4976753, 8.7777625), making it easily accessible for travelers.
+Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -873,12 +974,59 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>If you're in Jendouba and looking for a delicious spot to satisfy your cravings, head to Pizza Woods Lounge Jendouba located at P6, Jendouba. This top-rated destination is perfect for tea time lovers and offers a range of categories to choose from, including a tea room, breakfast spot, brunch place, cafe, creperie, shisha bar, lounge bar, takeaway restaurant, pizzeria, and restaurant. With a rating of 4.5, it's a must-visit spot. It's open 24 hours a day. To get there, use these GPS coordinates: 36.4976753, 8.7777625. You can also call them at 93 012 000.</t>
+          <t>Pizza woods Lounge Jendouba is a popular hangout spot in Jendouba. It offers a wide range of food and drinks, including pizza, breakfast, brunch, coffee, crepes, shisha, cocktails, and more. The lounge is open 24 hours a day and is located at Pizza woods Lounge Jendouba, P6, Jendouba. It has received mostly positive reviews from customers, with an average rating of 4.5 out of 5 stars.</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated spot in Jendouba that caters to diverse culinary desires, including a tea room, breakfast options, and various cuisines, while also offering a 24-hour operation?</t>
+          <t>Day Plan:
+Morning: Explore the well-preserved ruins of Bulla Regia, an ancient Roman city with an amphitheater and subterranean market.
+Mid-Morning: Visit the Gare Ferroviaire de Jendouba, a train station offering services to various destinations within Tunisia.
+Midday: Try local cuisine at Restaurant SIDI ASSAM, a family restaurant open 24 hours a day.
+Afternoon: Enjoy the scenic views at JENDOUBA, an administrative center with a high rating on Google Maps.
+Evening: Participate in a guided tour of the Société de Transport Régionale Jendouba (STRJ), a transport company offering various services.
+Night: Relax with a shisha at Pizza woods Lounge Jendouba, a popular hangout spot open 24 hours a day.</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Ilyes in Jendouba is a highly rated cafe, open 24 hours a day, offering a welcoming atmosphere for locals and visitors alike. With a 5.0 rating based on 2 reviews, Cafe Ilyes has established itself as a popular destination for coffee lovers in the area. Located at GQ57+37P Cafe ilyes /mqh~ lys, Jendouba, the cafe's convenient location makes it easily accessible.
+Pizza woods Lounge Jendouba is a popular hangout spot in Jendouba. It offers a wide range of food and drinks, including pizza, breakfast, brunch, coffee, crepes, shisha, cocktails, and more. The lounge is open 24 hours a day and is located at Pizza woods Lounge Jendouba, P6, Jendouba. It has received mostly positive reviews from customers, with an average rating of 4.5 out of 5 stars.
+ALMAS is a restaurant located in Jendouba, Tunisia, offering a delightful dining experience with a 4.2-star rating from 29 reviews. The establishment is open daily from 06:00 to 00:00, except for holidays. ALMAS offers a cozy ambiance as a restaurant and salon de thé, making it a perfect spot for both casual dining and relaxing with friends. Its convenient location, at coordinates (36.4976753, 8.7777625), makes it easily accessible to visitors seeking a memorable culinary adventure in Jendouba.
+Bulla Regia is an ancient Roman city located in the Jendouba region of Tunisia. It is known for its well-preserved ruins, including an amphitheater, temples, and a subterranean market. The city is also home to several important mosaics and statues. Bulla Regia offers a glimpse into the Roman Empire's past and is a popular tourist destination.
+JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.
+Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. 
+kskrwt kftjy ftHy/sandwich kaftaji is a fast food restaurant located in Jendouba, Tunisia. It is rated 5.0 stars out of 1 reviews on Google and is known for its sandwich kaftaji. The restaurant's coordinates are (36.4976753, 8.7777625).
+Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).
+Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.
+The Société de Transport Régionale Jendouba (STRJ) is a transport company located in Jendouba, Tunisia. The company offers a variety of transport services, including bus and taxi services. The STRJ is located at coordinates (36.4976753, 8.7777625) and has a rating of 3.8 out of 5 on Google Maps. The company's website is http://www.srtj.com.tn/.
+Gare Ferroviaire de Jendouba is a train station located in Jendouba, Tunisia. It offers train services to various destinations within Tunisia, providing convenient transportation for locals and visitors alike. It is situated at the coordinates (36.5011879, 8.7780214), making it easily accessible for travelers.
+Station des Autobus #2 is a bus station located in Jendouba, Tunisia. It offers bus services to various destinations within Tunisia and neighboring countries. The station is conveniently located in the city center, making it easily accessible by foot or public transportation. It provides a comfortable waiting area for passengers, with amenities such as restrooms and a snack bar. Passengers can also find information about bus schedules and fares at the station's ticket counter. With its central location and convenient amenities, Station des Autobus #2 is a valuable resource for travelers in Jendouba.
+Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It is a central hub for public transportation in the city, offering connections to other cities and towns in the region. The station is conveniently located near the city center, making it easy for travelers to access. It features a variety of amenities, including a waiting area, ticket counters, and restrooms. The station is also wheelchair accessible.
+Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -984,16 +1132,60 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>If you're in Jendouba and looking for a great place to eat, check out ALMAS located at P6. 
-This top-rated destination is perfect for restaurant lovers and offers a range of categories to choose from, including restaurant and salon de the. 
-With a rating of 4.2, it's a must-visit spot. It's open during these hours: 06:00-00:00. 
-To get there, use these GPS coordinates: 36.4976753, 8.7777625. 
-For more details, visit their website at https://www.google.com/maps/place/ALMAS/data=!4m7!3m6!1s0x12fb125093ecee79:0xba137e878f5e7bb8!8m2!3d36.4915445!4d8.7848463!16s%2Fg%2F11b6wpmny8!19sChIJee7sk1AS-xIRuHtej4d-E7o?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 24 888 838.</t>
+          <t>ALMAS is a restaurant located in Jendouba, Tunisia, offering a delightful dining experience with a 4.2-star rating from 29 reviews. The establishment is open daily from 06:00 to 00:00, except for holidays. ALMAS offers a cozy ambiance as a restaurant and salon de thé, making it a perfect spot for both casual dining and relaxing with friends. Its convenient location, at coordinates (36.4976753, 8.7777625), makes it easily accessible to visitors seeking a memorable culinary adventure in Jendouba.</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated restaurant with a range of dining options in Jendouba?</t>
+          <t>Day Plan:
+Morning: Explore the impressive Roman ruins at Bulla Regia, a UNESCO World Heritage site.
+Mid-Morning: Savor a delicious meal at Restaurant Mio Mondo, known for its wide range of dishes and friendly atmosphere.
+Midday: Visit Gare Ferroviaire de Jendouba, the primary railway station of the city, to witness its architectural grandeur.
+Afternoon: Indulge in some retail therapy at Besh Besh foods, a local pizzeria, and take advantage of the opportunity to sample their delectable offerings.
+Evening: Head to Pizza woods Lounge Jendouba, a popular hangout spot, to socialize over food, drinks, and shisha.
+Night: Experience the lively ambiance at Cafe Oasis, a cozy café with a 4.1 rating, perfect for relaxing and enjoying refreshments.</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Oasis in Jendouba, situated at (36.4976753, 8.7777625), is a popular cafe with a 4.1 rating. Although there is no detailed description, the cafe offers a cozy atmosphere for its patrons. It opens from 7 am to 10 pm daily and has been reviewed by 7 satisfied customers. If you're seeking a place to relax and socialize over refreshments, Cafe Oasis is worth considering.
+Pizza woods Lounge Jendouba is a popular hangout spot in Jendouba. It offers a wide range of food and drinks, including pizza, breakfast, brunch, coffee, crepes, shisha, cocktails, and more. The lounge is open 24 hours a day and is located at Pizza woods Lounge Jendouba, P6, Jendouba. It has received mostly positive reviews from customers, with an average rating of 4.5 out of 5 stars.
+Located in Jendouba, COCKTAIL_FOR YOU is a highly-rated restaurant (5.0/5) specializing in restaurant cuisine. It is known for its inviting ambiance and friendly owner. With convenient contact information (phone: 54 413 444; address: GQ3J+6V5 COCKTAIL_FOR YOU, Jendouba), this restaurant is easily accessible to those seeking a memorable dining experience.
+Bulla Regia, an archaeological site in Jendouba, Tunisia, boasts a 4.7-star rating with 300 reviews and exhibits impressive Roman ruins. At coordinates (36.55696, 8.74538), it features well-preserved mosaics, villas, and underground structures, making it a popular tourist attraction.
+JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.
+Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. 
+Restaurant Mio Mondo, located in Jendouba (coordinates: 36.4976753, 8.7777625), is a fast food restaurant that offers a wide variety of dishes to suit all tastes. Open from 9:00 AM to 10:00 PM, this establishment has received a rating of 5.0 out of 5 based on two reviews. In addition to its excellent ratings, Restaurant Mio Mondo is also praised for its delicious food and friendly staff. Whether you are looking for a quick bite to eat or a more leisurely dining experience, Restaurant Mio Mondo is sure to have something to satisfy your cravings.
+Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).
+Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.
+The Société de Transport Régionale Jendouba (STRJ) is a transport company located in Jendouba, Tunisia. The company offers a variety of transport services, including bus and taxi services. The STRJ is located at coordinates (36.4976753, 8.7777625) and has a rating of 3.8 out of 5 on Google Maps. The company's website is http://www.srtj.com.tn/.
+**Gare Ferroviaire de Jendouba : A Railway Station in Jendouba, Tunisia**
+A vital transport hub located at the coordinates (36.5011879, 8.7780214) in Jendouba, Gare Ferroviaire de Jendouba is the primary railway station of the city. The station boasts 3.2 out of 5 stars as per user reviews.
+Located in Jendouba, Station des Autobus #2 is a bus station that offers convenient transportation services. Its exact coordinates are (5.4744717, -3.8045517), making it easily accessible for commuters.
+Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It is a central hub for public transportation in the city, offering connections to other cities and towns in the region. The station is conveniently located near the city center, making it easy for travelers to access. It features a variety of amenities, including a waiting area, ticket counters, and restrooms. The station is also wheelchair accessible.
+Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1095,12 +1287,59 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for a great Cafe, check out Cafe Touerg located at GQ2C+25M Cafe Touerg, Jendouba. This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 05:00-00:00. To get there, use these GPS coordinates: 36.4976753, 8.7777625. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Touerg/data=!4m7!3m6!1s0x12fb124a83713b0d:0xec98389535f6fd4b!8m2!3d36.5000919!4d8.7704342!16s%2Fg%2F11c51t6dw1!19sChIJDTtxg0oS-xIRS_32NZU4mOw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Cafe Touerg is a highly-rated cafe located in Jendouba, Tunisia. It holds a rating of 4.3 stars based on 21 reviews and is known for its cozy ambiance and top-notch coffee. Cafe Touerg opens early at 5 AM and stays open until midnight. The cafe offers a variety of coffee and tea options, as well as a selection of pastries and light snacks.</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>Where can you find Cafe Touerg, a highly-rated Cafe with a wide range of options, located in Jendouba?</t>
+          <t>Day Plan:
+Morning: Visit Bulla Regia to explore the ancient Roman ruins.
+Mid-Morning: Take a guided tour of Gare Ferroviaire de Jendouba.
+Midday: Savor local cuisine at the highly-rated La Cabane restaurant.
+Afternoon: Engage in outdoor activities like hiking at the picturesque El Feija National Park.
+Evening: Enjoy scenic views at the stunning Barrage Mellegue Dam.
+Night: Relax with a massage at a local spa in Ain Draham.</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Oasis in Jendouba, situated at (36.4976753, 8.7777625), is a popular cafe with a 4.1 rating. Although there is no detailed description, the cafe offers a cozy atmosphere for its patrons. It opens from 7 am to 10 pm daily and has been reviewed by 7 satisfied customers. If you're seeking a place to relax and socialize over refreshments, Cafe Oasis is worth considering.
+Pizza Woods Lounge Jendouba is a well-rated (4.5) restaurant located in Jendouba, Tunisia (lon: 8.7777625, lat: 36.4976753), open 24/7 and offering a variety of services such as breakfast, brunch, a lounge bar, and takeaway options.
+La cabane is a top-rated restaurant located at GQ2V+363, Jendouba, Tunisia. It offers a cozy ambiance and a diverse menu specializing in [cuisine-type] dishes. Patrons rave about the delicious food, attentive service, and pleasant atmosphere. La cabane is open from 12:00 pm to 11:00 pm and reservations are recommended to secure a table.
+Bulla Regia is an ancient Roman city located in the Jendouba region of Tunisia. It is known for its well-preserved ruins, including an amphitheater, temples, and a subterranean market. The city is also home to several important mosaics and statues. Bulla Regia offers a glimpse into the Roman Empire's past and is a popular tourist destination.
+JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.
+Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. 
+kskrwt kftjy ftHy/sandwich kaftaji is a fast food restaurant located in Jendouba, Tunisia. It is rated 5.0 stars out of 1 reviews on Google and is known for its sandwich kaftaji. The restaurant's coordinates are (36.4976753, 8.7777625).
+Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).
+Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.
+Located in Enour, Jendouba, Station Louages Jendouba-bBousalem offers reliable transportation services. It operates 24 hours a day, providing convenient travel options for locals and visitors alike. With its prime location and dedication to customer satisfaction, it has earned a 5.0 rating from its customers.
+Gare Ferroviaire de Jendouba is a train station located in Jendouba, Tunisia. It offers train services to various destinations within Tunisia, providing convenient transportation for locals and visitors alike. It is situated at the coordinates (36.5011879, 8.7780214), making it easily accessible for travelers.
+Located in Jendouba, Station des Autobus #2 is a bus station that offers convenient transportation services. Its exact coordinates are (5.4744717, -3.8045517), making it easily accessible for commuters.
+Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It is a central hub for public transportation in the city, offering connections to other cities and towns in the region. The station is conveniently located near the city center, making it easy for travelers to access. It features a variety of amenities, including a waiting area, ticket counters, and restrooms. The station is also wheelchair accessible.
+Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1206,14 +1445,60 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for a relaxing spot, check out Salon de the Jazz located at FQQH+5WF Salon de the Jazz, P6, Jendouba. 
-This top-rated destination is perfect for Salon de the lovers. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 07:00-22:00. To get there, use these GPS coordinates: 36.4976753, 8.7777625. For more details, visit their website at https://www.google.com/maps/place/Salon+de+th%C3%A9+Jazz/data=!4m7!3m6!1s0x12fb1244de282c51:0xc155a5daacec38c5!8m2!3d36.4879432!4d8.7797891!16s%2Fg%2F11f03vt3qs!19sChIJUSwo3kQS-xIRxTjsrNqlVcE?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 28 129 639.</t>
+          <t>Salon de the Jazz is a popular tea room in Jendouba, Tunisia, located at coordinates (36.4976753, 8.7777625). With a rating of 4.3 based on 15 reviews, it's a great place to relax and enjoy a cup of tea.</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>Where in Jendouba can you enjoy a relaxing ambiance at a highly-rated Salon de thé spot with a 4.3 rating?</t>
+          <t>Day Plan:
+Morning: Exploring Bulla Regia, an ancient Roman site with impressive ruins and well-preserved mosaics.
+Mid-Morning: Visiting the Mayosa Cafe Resto for a traditional Tunisian breakfast.
+Midday: Trying local cuisine at ALI BRIKA, a renowned fast food restaurant with a perfect 5.0 rating.
+Afternoon: Relaxing with a drink and snacks at Jasmine bar lounge, known for its cozy ambiance and variety of beverages.
+Evening: Enjoying scenic views at Gare Ferroviaire de Jendouba, a vital transport hub with a railway station and a 3.2 rating.
+Night: Participating in an event or activity at Gare 9 Avril Autobus, a popular bus stop with a 4.0 rating based on reviews.</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Café mqh** is a highly-rated café situated in Jendouba, Tunisia. Located at coordinates (36.4976753, 8.7777625), the café offers a cozy atmosphere and a variety of beverages to its customers. With a 4.0 rating based on one review, mqh is a popular spot for locals and tourists alike.
+Welcome to Pizza Woods Lounge in Jendouba, Tunisia! We offer a comfortable and inviting atmosphere for you to relax with friends and family. Enjoy our delicious pizzas, crepes, and other breakfast, brunch, and lunch options. We also serve a variety of beverages, including coffee, tea, and juices. Our team is dedicated to providing exceptional service and creating a memorable dining experience for all our guests. Visit us today at our convenient location at Pizza woods Lounge Jendouba, P6, Jendouba, and indulge in the ultimate culinary and social experience. We are open 24 hours a day, so come in anytime!
+Mayosa Cafe Resto is a restaurant located in Jendouba (Tunisia) with coordinates (36.4976753, 8.7777625) and a rating of 4.0.
+Bulla Regia, an archaeological site in Jendouba, Tunisia, boasts a 4.7-star rating with 300 reviews and exhibits impressive Roman ruins. At coordinates (36.55696, 8.74538), it features well-preserved mosaics, villas, and underground structures, making it a popular tourist attraction.
+JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.
+Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. 
+ALI BRIKA is a renowned fast food restaurant in ALI BRIKA, Jendouba. It's conveniently located at coordinates (36.4976753, 8.7777625). With a perfect 5.0 rating based on 2 reviews, it has consistently satisfied its customers with its delectable cuisine.
+Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).
+Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.
+Station Louages Jendouba-bBousalem, situated in Jendouba, Tunisia (GPS:36.4976753, 8.7777625), is a transportation service provider.
+**Gare Ferroviaire de Jendouba : A Railway Station in Jendouba, Tunisia**
+A vital transport hub located at the coordinates (36.5011879, 8.7780214) in Jendouba, Gare Ferroviaire de Jendouba is the primary railway station of the city. The station boasts 3.2 out of 5 stars as per user reviews.
+Located in Jendouba, Station des Autobus #2 is a bus station that offers convenient transportation services. Its exact coordinates are (5.4744717, -3.8045517), making it easily accessible for commuters.
+Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It is a central hub for public transportation in the city, offering connections to other cities and towns in the region. The station is conveniently located near the city center, making it easy for travelers to access. It features a variety of amenities, including a waiting area, ticket counters, and restrooms. The station is also wheelchair accessible.
+Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1315,12 +1600,59 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for something fun to do, check out cafe olympic located at GQ2J+RHJ, cafe olympic, Enour. This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 36.4976753, 8.7777625. For more details, visit their website at  or call them at .</t>
+          <t>Cafe Olympic is a cafe located in Jendouba, Tunisia, offering a cozy ambiance and a delightful menu. Situated at coordinates (36.4976753, 8.7777625), the cafe is conveniently accessible. With a rating of 4.4, Cafe Olympic is highly regarded by its patrons, and it is open from 07:00 to 22:00 on all days of the week.</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>Where in Jendouba can you find the top-rated Cafe Olympic, a popular destination for Cafe lovers?</t>
+          <t>Day Plan:
+Morning: Exploring Jendouba city center, including the administrative center and the main Mosque.
+Mid-Morning: Visit the archaeological site of Bulla Regia to admire its Roman ruins and learn about its history.
+Midday: Trying local cuisine at Restaurant Mio Mondo while immersing in the friendly atmosphere.
+Afternoon: Enjoying a relaxing break at the Jasmine bar lounge, indulging in its cozy ambiance and refreshing drinks.
+Evening: Shopping at CQF6+CMX, P17, Jendouba, which is near Besh Besh foods.
+Night: Experiencing the vibrant nightlife at mqh~ klsykw while savoring a variety of food and drinks.</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Given these locations:
+mqh~ klsykw is a 4 star rated cafe located in Jendouba, Tunisia. It is open daily from 06:00 AM to 00:00 AM and offers a variety of food and drinks. The cafe is located at the coordinates (36.4976753, 8.7777625) and can be contacted by phone at 21 539 739.
+Salon de the Jazz is a popular tea room in Jendouba, Tunisia, located at coordinates (36.4976753, 8.7777625). With a rating of 4.3 based on 15 reviews, it's a great place to relax and enjoy a cup of tea.
+Located in Jendouba, COCKTAIL_FOR YOU is a highly-rated restaurant (5.0/5) specializing in restaurant cuisine. It is known for its inviting ambiance and friendly owner. With convenient contact information (phone: 54 413 444; address: GQ3J+6V5 COCKTAIL_FOR YOU, Jendouba), this restaurant is easily accessible to those seeking a memorable dining experience.
+Bulla Regia, an archaeological site in Jendouba, Tunisia, boasts a 4.7-star rating with 300 reviews and exhibits impressive Roman ruins. At coordinates (36.55696, 8.74538), it features well-preserved mosaics, villas, and underground structures, making it a popular tourist attraction.
+JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.
+Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. 
+Restaurant Mio Mondo, located in Jendouba (coordinates: 36.4976753, 8.7777625), is a fast food restaurant that offers a wide variety of dishes to suit all tastes. Open from 9:00 AM to 10:00 PM, this establishment has received a rating of 5.0 out of 5 based on two reviews. In addition to its excellent ratings, Restaurant Mio Mondo is also praised for its delicious food and friendly staff. Whether you are looking for a quick bite to eat or a more leisurely dining experience, Restaurant Mio Mondo is sure to have something to satisfy your cravings.
+Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).
+Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.
+The Société de Transport Régionale Jendouba (STRJ) is a transport company located in Jendouba, Tunisia. The company offers a variety of transport services, including bus and taxi services. The STRJ is located at coordinates (36.4976753, 8.7777625) and has a rating of 3.8 out of 5 on Google Maps. The company's website is http://www.srtj.com.tn/.
+Gare Ferroviaire de Jendouba is a train station located in Jendouba, Tunisia. It offers train services to various destinations within Tunisia, providing convenient transportation for locals and visitors alike. It is situated at the coordinates (36.5011879, 8.7780214), making it easily accessible for travelers.
+Station des Autobus #2 is a bus station located in Jendouba, Tunisia. It offers bus services to various destinations within Tunisia and neighboring countries. The station is conveniently located in the city center, making it easily accessible by foot or public transportation. It provides a comfortable waiting area for passengers, with amenities such as restrooms and a snack bar. Passengers can also find information about bus schedules and fares at the station's ticket counter. With its central location and convenient amenities, Station des Autobus #2 is a valuable resource for travelers in Jendouba.
+Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It is a central hub for public transportation in the city, offering connections to other cities and towns in the region. The station is conveniently located near the city center, making it easy for travelers to access. It features a variety of amenities, including a waiting area, ticket counters, and restrooms. The station is also wheelchair accessible.
+Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1422,14 +1754,60 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for a great Cafe, check out cafe ben henda located at GQ3H+4M9 cafe ben henda, Ezghadiya Main avenue, Jendouba. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 36.4976753, 8.7777625. For more details, visit their website at link or call them at 90 245 469.</t>
+          <t>Cafe Ben Henda is a highly-rated cafe located in Jendouba, Tunisia. It offers a cozy ambiance with a rating of 4.6 out of 5 from 8 reviews. The cafe is conveniently situated at the coordinates (36.4976753, 8.7777625) on Ezghadiya Main Avenue.</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>Where in Jendouba can you find a highly rated (4.6) top destination cafe offering a range of cafe options?</t>
+          <t>Day Plan:
+Morning: Explore Bulla Regia, an archaeological site with impressive Roman ruins.
+Mid-Morning: Visit JENDOUBA, the administrative center of Jendouba, Tunisia.
+Midday: Try local cuisine at Restaurant Mio Mondo, a fast-food restaurant offering a wide variety of dishes.
+Afternoon: Relax with a cup of tea at Salon de the Jazz, a popular tea room.
+Evening: Dine at Restaurant SIDI ASSAM, a family restaurant open 24 hours a day.
+Night: Experience cultural immersion at Gare Ferroviaire de Jendouba, a railway station with a vibrant atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>Given these locations:
+mqh~ lqrwy is a 4-star rated cafe located in Jendouba, Tunisia (GQ5P+VG5). Open 24 hours a day, it is conveniently situated just off the Jendouba-Tunis highway. The cafe offers a wide range of beverages, including coffee, tea, and juice, as well as pastries and sandwiches. It is a popular spot for locals and tourists alike to relax and enjoy a bite to eat.
+Salon de the Jazz is a popular tea room in Jendouba, Tunisia, located at coordinates (36.4976753, 8.7777625). With a rating of 4.3 based on 15 reviews, it's a great place to relax and enjoy a cup of tea.
+Mayosa Cafe Resto is a restaurant located in Jendouba (Tunisia) with coordinates (36.4976753, 8.7777625) and a rating of 4.0.
+Bulla Regia, an archaeological site in Jendouba, Tunisia, boasts a 4.7-star rating with 300 reviews and exhibits impressive Roman ruins. At coordinates (36.55696, 8.74538), it features well-preserved mosaics, villas, and underground structures, making it a popular tourist attraction.
+JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.
+Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. 
+Restaurant Mio Mondo, located in Jendouba (coordinates: 36.4976753, 8.7777625), is a fast food restaurant that offers a wide variety of dishes to suit all tastes. Open from 9:00 AM to 10:00 PM, this establishment has received a rating of 5.0 out of 5 based on two reviews. In addition to its excellent ratings, Restaurant Mio Mondo is also praised for its delicious food and friendly staff. Whether you are looking for a quick bite to eat or a more leisurely dining experience, Restaurant Mio Mondo is sure to have something to satisfy your cravings.
+Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).
+Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.
+The Société de Transport Régionale Jendouba (STRJ) is a transport company located in Jendouba, Tunisia. The company offers a variety of transport services, including bus and taxi services. The STRJ is located at coordinates (36.4976753, 8.7777625) and has a rating of 3.8 out of 5 on Google Maps. The company's website is http://www.srtj.com.tn/.
+**Gare Ferroviaire de Jendouba : A Railway Station in Jendouba, Tunisia**
+A vital transport hub located at the coordinates (36.5011879, 8.7780214) in Jendouba, Gare Ferroviaire de Jendouba is the primary railway station of the city. The station boasts 3.2 out of 5 stars as per user reviews.
+Station des Autobus #2 is a bus station located in Jendouba, Tunisia. It offers bus services to various destinations within Tunisia and neighboring countries. The station is conveniently located in the city center, making it easily accessible by foot or public transportation. It provides a comfortable waiting area for passengers, with amenities such as restrooms and a snack bar. Passengers can also find information about bus schedules and fares at the station's ticket counter. With its central location and convenient amenities, Station des Autobus #2 is a valuable resource for travelers in Jendouba.
+Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It is a central hub for public transportation in the city, offering connections to other cities and towns in the region. The station is conveniently located near the city center, making it easy for travelers to access. It features a variety of amenities, including a waiting area, ticket counters, and restrooms. The station is also wheelchair accessible.
+Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1535,14 +1913,60 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for something fun to do, check out Cafe Oasis located at FQWJ+6QW Cafe Oasis, Jendouba. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 07:00-22:00. To get there, use these GPS coordinates: 36.4976753, 8.7777625. For more details, visit their website at  or call them at 96 723 905.</t>
+          <t>Cafe Oasis in Jendouba, situated at (36.4976753, 8.7777625), is a popular cafe with a 4.1 rating. Although there is no detailed description, the cafe offers a cozy atmosphere for its patrons. It opens from 7 am to 10 pm daily and has been reviewed by 7 satisfied customers. If you're seeking a place to relax and socialize over refreshments, Cafe Oasis is worth considering.</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>Where in Jendouba can you find a highly-rated destination that offers a wide variety of cafe options amidst a captivating atmosphere?</t>
+          <t>Day Plan:
+Morning: Explore the ruins of Bulla Regia, an ancient Roman city with well-preserved amphitheaters and temples.
+Mid-Morning: Visit the Le Baril Restaurant for a delightful culinary experience and cozy atmosphere.
+Midday: Try the sandwich kaftaji at kskrw kftjy ftHy/sandwich kaftaji, a fast food restaurant known for its specialty dish.
+Afternoon: Enjoy a scenic hike or picnic at (insert nearby park or outdoor location).
+Evening: Participate in a traditional Tunisian music performance at a local venue.
+Night: Experience the vibrant nightlife at Jasmine, a bar lounge with a cozy ambiance and a variety of drinks.</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Twins Coffee is a cafe located in Jendouba, Tunisia. It is open 24 hours a day and serves coffee, tea, and other beverages. The cafe has a rating of 4.3 out of 5 on Google, and it is a popular spot for locals and tourists alike.
+Pizza woods Lounge Jendouba is a popular hangout spot in Jendouba. It offers a wide range of food and drinks, including pizza, breakfast, brunch, coffee, crepes, shisha, cocktails, and more. The lounge is open 24 hours a day and is located at Pizza woods Lounge Jendouba, P6, Jendouba. It has received mostly positive reviews from customers, with an average rating of 4.5 out of 5 stars.
+Le Baril Restaurant, located in Jendouba, Tunisia, offers a delightful dining experience. Rated 5.0 with 4 reviews, it is known for its delectable cuisine and cozy atmosphere. Open daily from 09:00 to 20:00, the restaurant invites guests to savor its culinary creations and relax in its warm ambiance. Its approximate location is (36.4976753, 8.7777625).
+Bulla Regia is an ancient Roman city located in the Jendouba region of Tunisia. It is known for its well-preserved ruins, including an amphitheater, temples, and a subterranean market. The city is also home to several important mosaics and statues. Bulla Regia offers a glimpse into the Roman Empire's past and is a popular tourist destination.
+JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.
+Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. 
+kskrwt kftjy ftHy/sandwich kaftaji is a fast food restaurant located in Jendouba, Tunisia. It is rated 5.0 stars out of 1 reviews on Google and is known for its sandwich kaftaji. The restaurant's coordinates are (36.4976753, 8.7777625).
+Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).
+Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.
+Station Louages Jendouba-bBousalem, situated in Jendouba, Tunisia (GPS:36.4976753, 8.7777625), is a transportation service provider.
+**Gare Ferroviaire de Jendouba : A Railway Station in Jendouba, Tunisia**
+A vital transport hub located at the coordinates (36.5011879, 8.7780214) in Jendouba, Gare Ferroviaire de Jendouba is the primary railway station of the city. The station boasts 3.2 out of 5 stars as per user reviews.
+Station des Autobus #2 is a bus station located in Jendouba, Tunisia. It offers bus services to various destinations within Tunisia and neighboring countries. The station is conveniently located in the city center, making it easily accessible by foot or public transportation. It provides a comfortable waiting area for passengers, with amenities such as restrooms and a snack bar. Passengers can also find information about bus schedules and fares at the station's ticket counter. With its central location and convenient amenities, Station des Autobus #2 is a valuable resource for travelers in Jendouba.
+Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It is a central hub for public transportation in the city, offering connections to other cities and towns in the region. The station is conveniently located near the city center, making it easy for travelers to access. It features a variety of amenities, including a waiting area, ticket counters, and restrooms. The station is also wheelchair accessible.
+Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1644,12 +2068,60 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>If you're in Jendouba and looking for a top-rated Cafe, check out Cafe Podium located at GQ4R+HM6 Cafe Podium, Al Habib Bourguiba (Main road). This must-visit spot offers a range of Cafe options and is open 24 hours a day. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Podium/data=!4m7!3m6!1s0x12fb13a7e932d39b:0x9ff16f1cece2359c!8m2!3d36.5064029!4d8.7916427!16s%2Fg%2F11hm7snn10!19sChIJm9My6acT-xIRnDXi7Bxv8Z8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 4.5.</t>
+          <t>Cafe Podium is a highly-rated establishment in Jendouba, boasting an impressive 4.5 out of 5 rating with 6 positive reviews. Located at GQ4R+HM6 on the main road of Al Habib Bourguiba, this cafe offers an inviting ambiance and a welcoming atmosphere. While specific details of its offerings are not available, Cafe Podium is known for its quality beverages and a cozy ambiance that makes it a popular destination for locals and visitors alike.</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>If you're craving Cafe options while exploring Jendouba, where can you find a highly rated 24-hour Cafe with its own website?</t>
+          <t>Day Plan:
+Morning: Explore the archaeological site of Bulla Regia, showcasing impressive Roman ruins.
+Mid-Morning: Visit Restaurant Mio Mondo for a delightful fast food dining experience with a 5.0 rating.
+Midday: Immerse yourself in the vibrant ambiance of Cafe Ben Henda, a highly-rated cafe with a cozy atmosphere and delicious offerings.
+Afternoon: Rejuvenate with a relaxing spa treatment at a local spa or hotel.
+Evening: Indulge in a culinary adventure at La cabane, a top-rated restaurant known for its exquisite cuisine and pleasant ambiance.
+Night: Experience the lively atmosphere of Pizza woods Lounge Jendouba, a popular hangout spot offering a wide range of food, drinks, and entertainment.</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Ben Henda is a highly-rated cafe located in Jendouba, Tunisia. It offers a cozy ambiance with a rating of 4.6 out of 5 from 8 reviews. The cafe is conveniently situated at the coordinates (36.4976753, 8.7777625) on Ezghadiya Main Avenue.
+Pizza woods Lounge Jendouba is a popular hangout spot in Jendouba. It offers a wide range of food and drinks, including pizza, breakfast, brunch, coffee, crepes, shisha, cocktails, and more. The lounge is open 24 hours a day and is located at Pizza woods Lounge Jendouba, P6, Jendouba. It has received mostly positive reviews from customers, with an average rating of 4.5 out of 5 stars.
+La cabane is a top-rated restaurant located at GQ2V+363, Jendouba, Tunisia. It offers a cozy ambiance and a diverse menu specializing in [cuisine-type] dishes. Patrons rave about the delicious food, attentive service, and pleasant atmosphere. La cabane is open from 12:00 pm to 11:00 pm and reservations are recommended to secure a table.
+Bulla Regia, an archaeological site in Jendouba, Tunisia, boasts a 4.7-star rating with 300 reviews and exhibits impressive Roman ruins. At coordinates (36.55696, 8.74538), it features well-preserved mosaics, villas, and underground structures, making it a popular tourist attraction.
+JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.
+Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. 
+Restaurant Mio Mondo, located in Jendouba (coordinates: 36.4976753, 8.7777625), is a fast food restaurant that offers a wide variety of dishes to suit all tastes. Open from 9:00 AM to 10:00 PM, this establishment has received a rating of 5.0 out of 5 based on two reviews. In addition to its excellent ratings, Restaurant Mio Mondo is also praised for its delicious food and friendly staff. Whether you are looking for a quick bite to eat or a more leisurely dining experience, Restaurant Mio Mondo is sure to have something to satisfy your cravings.
+Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).
+Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.
+Societe De Transport Regional Jendouba is a transport service located in Jendouba, Tunisia. Its coordinates are (36.4976753, 8.7777625). They offer various transport services and can be contacted at 78 600 690.
+**Gare Ferroviaire de Jendouba : A Railway Station in Jendouba, Tunisia**
+A vital transport hub located at the coordinates (36.5011879, 8.7780214) in Jendouba, Gare Ferroviaire de Jendouba is the primary railway station of the city. The station boasts 3.2 out of 5 stars as per user reviews.
+Station des Autobus #2 is a bus station located in Jendouba, Tunisia. It offers bus services to various destinations within Tunisia and neighboring countries. The station is conveniently located in the city center, making it easily accessible by foot or public transportation. It provides a comfortable waiting area for passengers, with amenities such as restrooms and a snack bar. Passengers can also find information about bus schedules and fares at the station's ticket counter. With its central location and convenient amenities, Station des Autobus #2 is a valuable resource for travelers in Jendouba.
+Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It is a central hub for public transportation in the city, offering connections to other cities and towns in the region. The station is conveniently located near the city center, making it easy for travelers to access. It features a variety of amenities, including a waiting area, ticket counters, and restrooms. The station is also wheelchair accessible.
+Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1751,12 +2223,60 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for a top-rated Cafe, check out Twins Coffee located at FQXM+FQF Twins Coffee, Unnamed Road, Jendouba. With a rating of 4.3, it's a must-visit spot for Cafe lovers. It's open 24 hours a day, but closed on []. To get there, use these GPS coordinates: 36.4976753, 8.7777625.</t>
+          <t>Twins Coffee is a cafe located in Jendouba, Tunisia. It is open 24 hours a day and serves coffee, tea, and other beverages. The cafe has a rating of 4.3 out of 5 on Google, and it is a popular spot for locals and tourists alike.</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>If you're in Jendouba seeking the best-rated Cafe, where can you find Twins Coffee, renowned for its exceptional quality and 4.3 rating?</t>
+          <t>Day Plan:
+Morning: Exploring the ancient ruins of Bulla Regia
+Mid-Morning: Trying local cuisine at Restaurant Mio Mondo
+Midday: Visiting the Jendouba Administrative Center
+Afternoon: Enjoying scenic views at Station Louages Jendouba-bBousalem
+Evening: Experiencing cultural immersion at the Gare Ferroviaire de Jendouba
+Night: Relaxing with a massage at a local spa</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe saif is a cafe situated in jendouba, Tunisia. Its coordinates are (36.4976753, 8.7777625) and it's rated 4.5/5 by its customers.
+Pizza woods Lounge Jendouba is a popular hangout spot in Jendouba. It offers a wide range of food and drinks, including pizza, breakfast, brunch, coffee, crepes, shisha, cocktails, and more. The lounge is open 24 hours a day and is located at Pizza woods Lounge Jendouba, P6, Jendouba. It has received mostly positive reviews from customers, with an average rating of 4.5 out of 5 stars.
+**Restaurant mT`m slTn@**
+Nestled in Jendouba at the coordinates (36.4976753, 8.7777625), Restaurant mT`m slTn@ boasts a 4.5-star rating and features an extensive menu of delectable dishes. Whether you're seeking a casual meal or a special dining experience, Restaurant mT`m slTn@ has something to offer.
+Bulla Regia is an ancient Roman city located in the Jendouba region of Tunisia. It is known for its well-preserved ruins, including an amphitheater, temples, and a subterranean market. The city is also home to several important mosaics and statues. Bulla Regia offers a glimpse into the Roman Empire's past and is a popular tourist destination.
+JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.
+Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. 
+Restaurant Mio Mondo, located in Jendouba (coordinates: 36.4976753, 8.7777625), is a fast food restaurant that offers a wide variety of dishes to suit all tastes. Open from 9:00 AM to 10:00 PM, this establishment has received a rating of 5.0 out of 5 based on two reviews. In addition to its excellent ratings, Restaurant Mio Mondo is also praised for its delicious food and friendly staff. Whether you are looking for a quick bite to eat or a more leisurely dining experience, Restaurant Mio Mondo is sure to have something to satisfy your cravings.
+Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).
+Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.
+Station Louages Jendouba-bBousalem, situated in Jendouba, Tunisia (GPS:36.4976753, 8.7777625), is a transportation service provider.
+Gare Ferroviaire de Jendouba is a train station located in Jendouba, Tunisia. It offers train services to various destinations within Tunisia, providing convenient transportation for locals and visitors alike. It is situated at the coordinates (36.5011879, 8.7780214), making it easily accessible for travelers.
+Located in Jendouba, Station des Autobus #2 is a bus station that offers convenient transportation services. Its exact coordinates are (5.4744717, -3.8045517), making it easily accessible for commuters.
+Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It offers public transportation services to various destinations. The station is conveniently located at the coordinates (36.4976753, 8.7777625), making it easily accessible for travelers.
+Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1862,12 +2382,59 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for something fun to do, check out mqh~ klsykw located at mqh~ klsykw, Jendouba. This top-rated destination is perfect for Cafe lovers. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 36.4976753, 8.7777625. For more details, call them at 21 539 739.</t>
+          <t>mqh~ klsykw is a 4 star rated cafe located in Jendouba, Tunisia. It is open daily from 06:00 AM to 00:00 AM and offers a variety of food and drinks. The cafe is located at the coordinates (36.4976753, 8.7777625) and can be contacted by phone at 21 539 739.</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated café with a cozy atmosphere and prime location in Jendouba?</t>
+          <t>Day Plan:
+Morning: Explore Bulla Regia, an archaeological site with impressive Roman ruins.
+Mid-Morning: Visit Salon de the Jazz, a popular tea room, for a relaxing break.
+Midday: Enjoy a delicious lunch at La cabane, a top-rated restaurant with a diverse menu.
+Afternoon: Take a guided tour of Jendouba, the administrative center, to learn about its history and culture.
+Evening: Shop for souvenirs and local products at the Ennour Market.
+Night: Relax with a cup of tea and some snacks at Jasmine, a cozy bar lounge.</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Olympic is a cafe located in the city of Jendouba, Tunisia. It has a rating of 4.4 out of 5 stars based on 10 reviews and is open from 7:00 AM to 10:00 PM. Unfortunately, we do not have any information on its menu or special features at this time.
+Salon de the Jazz is a popular tea room in Jendouba, Tunisia, located at coordinates (36.4976753, 8.7777625). With a rating of 4.3 based on 15 reviews, it's a great place to relax and enjoy a cup of tea.
+La cabane is a top-rated restaurant located at GQ2V+363, Jendouba, Tunisia. It offers a cozy ambiance and a diverse menu specializing in [cuisine-type] dishes. Patrons rave about the delicious food, attentive service, and pleasant atmosphere. La cabane is open from 12:00 pm to 11:00 pm and reservations are recommended to secure a table.
+Bulla Regia, an archaeological site in Jendouba, Tunisia, boasts a 4.7-star rating with 300 reviews and exhibits impressive Roman ruins. At coordinates (36.55696, 8.74538), it features well-preserved mosaics, villas, and underground structures, making it a popular tourist attraction.
+JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.
+Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. 
+Restaurant Mio Mondo, located in Jendouba (coordinates: 36.4976753, 8.7777625), is a fast food restaurant that offers a wide variety of dishes to suit all tastes. Open from 9:00 AM to 10:00 PM, this establishment has received a rating of 5.0 out of 5 based on two reviews. In addition to its excellent ratings, Restaurant Mio Mondo is also praised for its delicious food and friendly staff. Whether you are looking for a quick bite to eat or a more leisurely dining experience, Restaurant Mio Mondo is sure to have something to satisfy your cravings.
+Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).
+Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.
+Located in Enour, Jendouba, Station Louages Jendouba-bBousalem offers reliable transportation services. It operates 24 hours a day, providing convenient travel options for locals and visitors alike. With its prime location and dedication to customer satisfaction, it has earned a 5.0 rating from its customers.
+Gare Ferroviaire de Jendouba is a train station located in Jendouba, Tunisia. It offers train services to various destinations within Tunisia, providing convenient transportation for locals and visitors alike. It is situated at the coordinates (36.5011879, 8.7780214), making it easily accessible for travelers.
+Station des Autobus #2 is a bus station located in Jendouba, Tunisia. It offers bus services to various destinations within Tunisia and neighboring countries. The station is conveniently located in the city center, making it easily accessible by foot or public transportation. It provides a comfortable waiting area for passengers, with amenities such as restrooms and a snack bar. Passengers can also find information about bus schedules and fares at the station's ticket counter. With its central location and convenient amenities, Station des Autobus #2 is a valuable resource for travelers in Jendouba.
+Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It is a central hub for public transportation in the city, offering connections to other cities and towns in the region. The station is conveniently located near the city center, making it easy for travelers to access. It features a variety of amenities, including a waiting area, ticket counters, and restrooms. The station is also wheelchair accessible.
+Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1965,14 +2532,60 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for something fun to do, check out fD lHdy'q located at fD lHdy'q, Jendouba 8100. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 36.5796825, 8.5201874. For more details, visit their website at https://www.google.com/maps/place/%D9%81%D8%B6%D8%A7%D8%A1+%D8%A7%D9%84%D8%AD%D8%AF%D8%A7%D8%A6%D9%82%E2%80%AD/data=!4m7!3m6!1s0x12fb1303b8e1a20b:0xf0d2139335da9108!8m2!3d36.5095977!4d8.7881735!16s%2Fg%2F11t6v_k0wc!19sChIJC6LhuAMT-xIRCJHaNZMT0vA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at  .</t>
+          <t>**fD lHdy'q** is a café located in Jendouba, Tunisia. It is a popular spot for locals and tourists alike, offering a variety of coffee, tea, and other beverages. The café also has a small menu of sandwiches and pastries. The café is located at (36.5796825, 8.5201874).</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>Where in Jendouba can you find a highly rated cafe, perfect for coffee enthusiasts, with a cozy ambiance and a diverse menu?</t>
+          <t>Day Plan:
+Morning: Explore the ancient ruins of Bulla Regia, a well-preserved Roman city.
+Mid-Morning: Visit the Jendouba administrative center and learn about the local history and culture.
+Midday: Enjoy a delicious lunch of local cuisine at the top-rated restaurant La cabane.
+Afternoon: Take a guided tour of the Gare Ferroviaire de Jendouba, the city's main railway station.
+Evening: Experience cultural immersion at the Salon de the Jazz, a popular tea room with live music.
+Night: Relax with a drink and snacks at Jasmine, a cozy bar lounge with a lively atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Olympic is a cafe located in Jendouba, Tunisia, offering a cozy ambiance and a delightful menu. Situated at coordinates (36.4976753, 8.7777625), the cafe is conveniently accessible. With a rating of 4.4, Cafe Olympic is highly regarded by its patrons, and it is open from 07:00 to 22:00 on all days of the week.
+Salon de the Jazz is a popular tea room in Jendouba, Tunisia, located at coordinates (36.4976753, 8.7777625). With a rating of 4.3 based on 15 reviews, it's a great place to relax and enjoy a cup of tea.
+La cabane is a top-rated restaurant located at GQ2V+363, Jendouba, Tunisia. It offers a cozy ambiance and a diverse menu specializing in [cuisine-type] dishes. Patrons rave about the delicious food, attentive service, and pleasant atmosphere. La cabane is open from 12:00 pm to 11:00 pm and reservations are recommended to secure a table.
+Bulla Regia is an ancient Roman city located in the Jendouba region of Tunisia. It is known for its well-preserved ruins, including an amphitheater, temples, and a subterranean market. The city is also home to several important mosaics and statues. Bulla Regia offers a glimpse into the Roman Empire's past and is a popular tourist destination.
+JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.
+Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. 
+ALI BRIKA is a renowned fast food restaurant in ALI BRIKA, Jendouba. It's conveniently located at coordinates (36.4976753, 8.7777625). With a perfect 5.0 rating based on 2 reviews, it has consistently satisfied its customers with its delectable cuisine.
+Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).
+Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.
+Station Louages Jendouba-bBousalem, situated in Jendouba, Tunisia (GPS:36.4976753, 8.7777625), is a transportation service provider.
+**Gare Ferroviaire de Jendouba : A Railway Station in Jendouba, Tunisia**
+A vital transport hub located at the coordinates (36.5011879, 8.7780214) in Jendouba, Gare Ferroviaire de Jendouba is the primary railway station of the city. The station boasts 3.2 out of 5 stars as per user reviews.
+Located in Jendouba, Station des Autobus #2 is a bus station that offers convenient transportation services. Its exact coordinates are (5.4744717, -3.8045517), making it easily accessible for commuters.
+Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It is a central hub for public transportation in the city, offering connections to other cities and towns in the region. The station is conveniently located near the city center, making it easy for travelers to access. It features a variety of amenities, including a waiting area, ticket counters, and restrooms. The station is also wheelchair accessible.
+Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2078,14 +2691,66 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>If you're in Jendouba and looking for a great cafe, check out cafe' kaies located at FQXF+68G cafe' kaies, P17, Jendouba. 
-This top-rated destination is perfect for Cafe lovers and offers a range of options to choose from. 
-With a rating of 4.8, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on . To get there, use these GPS coordinates: 36.4976753, 8.7777625. For more details, visit their website at or call them at 25 122 150.</t>
+          <t>Cafe' kaies is a cafe located in cafe' kaies, P17, Jendouba, Tunisia, open 24 hours a day. It has a 4.8 rating with 4 reviews.</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated and conveniently located cafe in Jendouba that offers a wide selection of options for cafe enthusiasts?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore Bulla Regia, an impressive archaeological site with well-preserved Roman ruins.
+**Mid-Morning:**
+- Visit Gare Ferroviaire de Jendouba, the city's main railway station, and learn about its rich history.
+**Midday:**
+- Enjoy local cuisine at Restaurant SIDI ASSAM, a family-run establishment with a 5.0 rating on Google.
+**Afternoon:**
+- Engage in outdoor activities like hiking or cycling at the picturesque Parc National d'El Kala, known for its diverse flora and fauna.
+**Evening:**
+- Spend some time at JENDOUBA, the city's administrative center, and take in the local atmosphere.
+**Night:**
+- Unwind with a relaxing drink at Jasmine, a cozy bar lounge with a variety of beverages and snacks.</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Given these locations:
+mqh~ klsykw is a 4 star rated cafe located in Jendouba, Tunisia. It is open daily from 06:00 AM to 00:00 AM and offers a variety of food and drinks. The cafe is located at the coordinates (36.4976753, 8.7777625) and can be contacted by phone at 21 539 739.
+Welcome to Pizza Woods Lounge in Jendouba, Tunisia! We offer a comfortable and inviting atmosphere for you to relax with friends and family. Enjoy our delicious pizzas, crepes, and other breakfast, brunch, and lunch options. We also serve a variety of beverages, including coffee, tea, and juices. Our team is dedicated to providing exceptional service and creating a memorable dining experience for all our guests. Visit us today at our convenient location at Pizza woods Lounge Jendouba, P6, Jendouba, and indulge in the ultimate culinary and social experience. We are open 24 hours a day, so come in anytime!
+"Space dream" is a restaurant located in Jendouba, Tunisia. It is a highly-rated restaurant with a 5.0 rating based on 3 reviews. Space dream offers a wide range of dishes and its menu includes international and local cuisine. The restaurant has a cozy and friendly atmosphere, making it a great place to relax and enjoy a meal with friends or family.
+Bulla Regia, an archaeological site in Jendouba, Tunisia, boasts a 4.7-star rating with 300 reviews and exhibits impressive Roman ruins. At coordinates (36.55696, 8.74538), it features well-preserved mosaics, villas, and underground structures, making it a popular tourist attraction.
+JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.
+Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. 
+Restaurant Mio Mondo, located in Jendouba (coordinates: 36.4976753, 8.7777625), is a fast food restaurant that offers a wide variety of dishes to suit all tastes. Open from 9:00 AM to 10:00 PM, this establishment has received a rating of 5.0 out of 5 based on two reviews. In addition to its excellent ratings, Restaurant Mio Mondo is also praised for its delicious food and friendly staff. Whether you are looking for a quick bite to eat or a more leisurely dining experience, Restaurant Mio Mondo is sure to have something to satisfy your cravings.
+Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).
+Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.
+Societe De Transport Regional Jendouba is a transport service located in Jendouba, Tunisia. Its coordinates are (36.4976753, 8.7777625). They offer various transport services and can be contacted at 78 600 690.
+**Gare Ferroviaire de Jendouba : A Railway Station in Jendouba, Tunisia**
+A vital transport hub located at the coordinates (36.5011879, 8.7780214) in Jendouba, Gare Ferroviaire de Jendouba is the primary railway station of the city. The station boasts 3.2 out of 5 stars as per user reviews.
+Located in Jendouba, Station des Autobus #2 is a bus station that offers convenient transportation services. Its exact coordinates are (5.4744717, -3.8045517), making it easily accessible for commuters.
+Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It is a central hub for public transportation in the city, offering connections to other cities and towns in the region. The station is conveniently located near the city center, making it easy for travelers to access. It features a variety of amenities, including a waiting area, ticket counters, and restrooms. The station is also wheelchair accessible.
+Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2183,12 +2848,60 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for a great Cafe, check out Cafe the time, conveniently located at GQ94+4MP Cafe the time, P17, Jendouba. This highly-rated destination is a must-visit spot, particularly for Cafe lovers, with a rating of 4.8 based on 4 reviews.</t>
+          <t>Nestled in the heart of Jendouba, Cafe the time is an exceptional destination for coffee enthusiasts. Located at coordinates (36.4976753, 8.7777625), the cafe boasts a cozy ambiance and a wide selection of tantalizing beverages. Its featured image showcases a glimpse of its welcoming interior, inviting visitors to indulge in its aromatic creations.</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>In Jendouba, where can you find an exceptional Cafe with a glowing reputation, conveniently located within the city?</t>
+          <t>Day Plan:
+Morning: Explore the ancient Roman city of Bulla Regia, known for its well-preserved ruins and fascinating history.
+Mid-Morning: Visit ALMAS, a highly-rated restaurant and tea room in Jendouba, for a traditional Tunisian breakfast and aromatic tea.
+Midday: Head to ALI BRIKA, a renowned fast food restaurant with a perfect 5.0 rating, to try the delectable local cuisine.
+Afternoon: Immerse yourself in the vibrant atmosphere of Jasmine, a cozy bar lounge, while sipping on a refreshing drink and savoring light snacks.
+Evening: Experience the authentic ambiance at Restaurant SIDI ASSAM, a family-run establishment open 24 hours a day, and indulge in a flavorful dinner.
+Night: Take a leisurely stroll through the streets of Jendouba, soaking in the sights and sounds of the lively city, and stop by Gare 9 Avril Autobus, a popular destination with high ratings, for a nightcap and people-watching.</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>Given these locations:
+mqh~ l'hrm is a cafe located in Jendouba, Tunisia. It offers a cozy ambiance with a rating of 4.0 stars. Its exact location is at the coordinates (36.4976753, 8.7777625), and the link to its Google Maps page is https://www.google.com/maps/place/%D9%85%D9%82%D9%87%D9%89+%D8%A7%D9%84%D8%A3%D9%87%D8%B1%D8%A7%D9%85%E2%80%AD/data=!4m7!3m6!1s0x12fb13314e54d88f:0x744723e3862ba044!8m2!3d36.5094914!4d8.7987429!16s%2Fg%2F11ghs512rx!19sChIJj9hUTjET-xIRRKArhuMjR3Q?authuser=0&amp;hl=fr&amp;rclk=1.
+Welcome to Pizza Woods Lounge in Jendouba, Tunisia! We offer a comfortable and inviting atmosphere for you to relax with friends and family. Enjoy our delicious pizzas, crepes, and other breakfast, brunch, and lunch options. We also serve a variety of beverages, including coffee, tea, and juices. Our team is dedicated to providing exceptional service and creating a memorable dining experience for all our guests. Visit us today at our convenient location at Pizza woods Lounge Jendouba, P6, Jendouba, and indulge in the ultimate culinary and social experience. We are open 24 hours a day, so come in anytime!
+ALMAS is a restaurant and tea room located in Jendouba, Tunisia. It is open from 6:00 AM to midnight and has a rating of 4.2 out of 5 stars based on 29 reviews. The restaurant's featured image shows a photo of the exterior of the building.
+Bulla Regia is an ancient Roman city located in the Jendouba region of Tunisia. It is known for its well-preserved ruins, including an amphitheater, temples, and a subterranean market. The city is also home to several important mosaics and statues. Bulla Regia offers a glimpse into the Roman Empire's past and is a popular tourist destination.
+JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.
+Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. 
+ALI BRIKA is a renowned fast food restaurant in ALI BRIKA, Jendouba. It's conveniently located at coordinates (36.4976753, 8.7777625). With a perfect 5.0 rating based on 2 reviews, it has consistently satisfied its customers with its delectable cuisine.
+Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).
+Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.
+Societe De Transport Regional Jendouba is a transport service located in Jendouba, Tunisia. Its coordinates are (36.4976753, 8.7777625). They offer various transport services and can be contacted at 78 600 690.
+**Gare Ferroviaire de Jendouba : A Railway Station in Jendouba, Tunisia**
+A vital transport hub located at the coordinates (36.5011879, 8.7780214) in Jendouba, Gare Ferroviaire de Jendouba is the primary railway station of the city. The station boasts 3.2 out of 5 stars as per user reviews.
+Located in Jendouba, Station des Autobus #2 is a bus station that offers convenient transportation services. Its exact coordinates are (5.4744717, -3.8045517), making it easily accessible for commuters.
+Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It offers public transportation services to various destinations. The station is conveniently located at the coordinates (36.4976753, 8.7777625), making it easily accessible for travelers.
+Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2286,12 +2999,60 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>If you're in Jendouba and looking for a great cafe, check out Cafe ilias. It's located at GQ66+R78 Cafe ilias, universite1, Jendouba and is a top-rated destination for cafe lovers. With a 4.8-star rating, it's a must-visit spot in the city. Cafe ilias is open during regular cafe hours, but it's always best to call ahead to confirm. For more information, visit their website or call them at the provided number.</t>
+          <t>Cafe ilias is a cafe located in Jendouba, Tunisia at the coordinates (36.4976753, 8.7777625). It has a rating of 4.8 based on 4 reviews and is open everyday. Cafe ilias serves cafe cuisine.</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>Where in Jendouba can you find a highly-rated cafe named Cafe ilias, known for its exceptional coffee and cozy atmosphere?</t>
+          <t>Day Plan:
+Morning: Explore the ancient Roman ruins of Bulla Regia
+Mid-Morning: Try local cuisine at Restaurant mT`m slTn@
+Midday: Visit the scenic spot of Jasmine bar lounge
+Afternoon: Enjoy a relaxing afternoon with a guided tour of JENDOUBA
+Evening: Participate in an event at Station Louages Jendouba-bBousalem
+Night: Explore Station Routierre de Transport en Commun de Jendouba by night</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**fD lHdy'q** is a café located in Jendouba, Tunisia. It is a popular spot for locals and tourists alike, offering a variety of coffee, tea, and other beverages. The café also has a small menu of sandwiches and pastries. The café is located at (36.5796825, 8.5201874).
+Pizza woods Lounge Jendouba is a popular hangout spot in Jendouba. It offers a wide range of food and drinks, including pizza, breakfast, brunch, coffee, crepes, shisha, cocktails, and more. The lounge is open 24 hours a day and is located at Pizza woods Lounge Jendouba, P6, Jendouba. It has received mostly positive reviews from customers, with an average rating of 4.5 out of 5 stars.
+**Restaurant mT`m slTn@**
+Nestled in Jendouba at the coordinates (36.4976753, 8.7777625), Restaurant mT`m slTn@ boasts a 4.5-star rating and features an extensive menu of delectable dishes. Whether you're seeking a casual meal or a special dining experience, Restaurant mT`m slTn@ has something to offer.
+Bulla Regia, an archaeological site in Jendouba, Tunisia, boasts a 4.7-star rating with 300 reviews and exhibits impressive Roman ruins. At coordinates (36.55696, 8.74538), it features well-preserved mosaics, villas, and underground structures, making it a popular tourist attraction.
+JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.
+Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. 
+kskrwt kftjy ftHy/sandwich kaftaji is a fast food restaurant located in Jendouba, Tunisia. It is rated 5.0 stars out of 1 reviews on Google and is known for its sandwich kaftaji. The restaurant's coordinates are (36.4976753, 8.7777625).
+Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).
+Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.
+Located in Enour, Jendouba, Station Louages Jendouba-bBousalem offers reliable transportation services. It operates 24 hours a day, providing convenient travel options for locals and visitors alike. With its prime location and dedication to customer satisfaction, it has earned a 5.0 rating from its customers.
+Gare Ferroviaire de Jendouba is a train station located in Jendouba, Tunisia. It offers train services to various destinations within Tunisia, providing convenient transportation for locals and visitors alike. It is situated at the coordinates (36.5011879, 8.7780214), making it easily accessible for travelers.
+Located in Jendouba, Station des Autobus #2 is a bus station that offers convenient transportation services. Its exact coordinates are (5.4744717, -3.8045517), making it easily accessible for commuters.
+Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It is a central hub for public transportation in the city, offering connections to other cities and towns in the region. The station is conveniently located near the city center, making it easy for travelers to access. It features a variety of amenities, including a waiting area, ticket counters, and restrooms. The station is also wheelchair accessible.
+Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2397,12 +3158,60 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for something fun to do, check out Cafe restaurant located at GQ5W+773 Cafe restaurant, P6, Jendouba. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 36.4976753, 8.7777625. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+restaurant/data=!4m7!3m6!1s0x12fb133bac02b101:0xbc9ecc5fd6579810!8m2!3d36.5081455!4d8.7956848!16s%2Fg%2F11j7brgqqf!19sChIJAbECrDsT-xIREJhX1l_Mnrw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 78 622 914.</t>
+          <t>Cafe Restaurant in Jendouba offers a cozy ambiance and delectable food. Located at (36.4976753, 8.7777625), the cafe is a popular spot for locals and tourists alike. Open from 6 AM to 12 AM, it provides an extensive menu with a focus on coffee and light bites. The cafe's 5-star rating, based on positive customer reviews, is a testament to its exceptional service and offerings.</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe with a wide selection of Cafe in Jendouba, known for its exceptional atmosphere and positive reviews?</t>
+          <t>Day Plan:
+Morning: Explore the impressive Roman ruins of Bulla Regia.
+Mid-Morning: Visit COCKTAIL_FOR YOU, a highly-rated restaurant specializing in restaurant cuisine.
+Midday: Take a guided tour of Gare Ferroviaire de Jendouba, the primary railway station of Jendouba.
+Afternoon: Relax with a spa treatment at the luxurious Hotel Les Orangers.
+Evening: Enjoy scenic views from the hillside of Jendouba.
+Night: Participate in a traditional Tunisian music and dance performance at the cultural center of Jendouba.</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Olympic is a cafe located in Jendouba, Tunisia, offering a cozy ambiance and a delightful menu. Situated at coordinates (36.4976753, 8.7777625), the cafe is conveniently accessible. With a rating of 4.4, Cafe Olympic is highly regarded by its patrons, and it is open from 07:00 to 22:00 on all days of the week.
+Welcome to Pizza Woods Lounge in Jendouba, Tunisia! We offer a comfortable and inviting atmosphere for you to relax with friends and family. Enjoy our delicious pizzas, crepes, and other breakfast, brunch, and lunch options. We also serve a variety of beverages, including coffee, tea, and juices. Our team is dedicated to providing exceptional service and creating a memorable dining experience for all our guests. Visit us today at our convenient location at Pizza woods Lounge Jendouba, P6, Jendouba, and indulge in the ultimate culinary and social experience. We are open 24 hours a day, so come in anytime!
+Located in Jendouba, COCKTAIL_FOR YOU is a highly-rated restaurant (5.0/5) specializing in restaurant cuisine. It is known for its inviting ambiance and friendly owner. With convenient contact information (phone: 54 413 444; address: GQ3J+6V5 COCKTAIL_FOR YOU, Jendouba), this restaurant is easily accessible to those seeking a memorable dining experience.
+Bulla Regia, an archaeological site in Jendouba, Tunisia, boasts a 4.7-star rating with 300 reviews and exhibits impressive Roman ruins. At coordinates (36.55696, 8.74538), it features well-preserved mosaics, villas, and underground structures, making it a popular tourist attraction.
+JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.
+Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. 
+Restaurant Mio Mondo, located in Jendouba (coordinates: 36.4976753, 8.7777625), is a fast food restaurant that offers a wide variety of dishes to suit all tastes. Open from 9:00 AM to 10:00 PM, this establishment has received a rating of 5.0 out of 5 based on two reviews. In addition to its excellent ratings, Restaurant Mio Mondo is also praised for its delicious food and friendly staff. Whether you are looking for a quick bite to eat or a more leisurely dining experience, Restaurant Mio Mondo is sure to have something to satisfy your cravings.
+Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).
+Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.
+Located in Enour, Jendouba, Station Louages Jendouba-bBousalem offers reliable transportation services. It operates 24 hours a day, providing convenient travel options for locals and visitors alike. With its prime location and dedication to customer satisfaction, it has earned a 5.0 rating from its customers.
+**Gare Ferroviaire de Jendouba : A Railway Station in Jendouba, Tunisia**
+A vital transport hub located at the coordinates (36.5011879, 8.7780214) in Jendouba, Gare Ferroviaire de Jendouba is the primary railway station of the city. The station boasts 3.2 out of 5 stars as per user reviews.
+Station des Autobus #2 is a bus station located in Jendouba, Tunisia. It offers bus services to various destinations within Tunisia and neighboring countries. The station is conveniently located in the city center, making it easily accessible by foot or public transportation. It provides a comfortable waiting area for passengers, with amenities such as restrooms and a snack bar. Passengers can also find information about bus schedules and fares at the station's ticket counter. With its central location and convenient amenities, Station des Autobus #2 is a valuable resource for travelers in Jendouba.
+Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It offers public transportation services to various destinations. The station is conveniently located at the coordinates (36.4976753, 8.7777625), making it easily accessible for travelers.
+Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2500,13 +3309,59 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for a Cafe, check out Cafe Boujnene located at GR62+9GG Cafe Boujnene, P6, Jendouba.
-This top-rated destination is perfect for Cafe lovers and with a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-00:00, but closed on []. To get there, use these GPS coordinates: 36.4976753, 8.7777625.</t>
+          <t>At the heart of Jendouba, Cafe Boujnene is a local favorite with a warm and welcoming atmosphere. Located at (36.4976753, 8.7777625), this cafe offers an exquisite blend of beverages and delectable treats. With a 4-star rating and 2 positive reviews, Cafe Boujnene has earned a reputation for its cozy ambiance and exceptional service.</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Cafe in Jendouba, known as Cafe Boujnene, with GPS coordinates 36.4976753, 8.7777625, that's perfect for Cafe enthusiasts and boasts a rating of 4.0?</t>
+          <t>Day Plan:
+Morning: Start the day by exploring the historical ruins of Bulla Regia, marveling at its well-preserved mosaics and impressive structures.
+Mid-Morning: Visit the fD lHdy'q café, a local favorite known for its delicious coffee and pastries. Immerse yourself in the local ambiance and chat with friendly locals.
+Midday: Indulge in a delightful meal at Restaurant Le Golf, known for its delectable cuisine and warm hospitality. Treat yourself to traditional Tunisian dishes and enjoy the restaurant's cozy atmosphere.
+Afternoon: Take a leisurely stroll through JENDOUBA, admiring the city's administrative center and learning about its local significance. Discover hidden gems and engage with the friendly community.
+Evening: Experience the lively ambiance of Jasmine, a popular bar lounge known for its cozy atmosphere and refreshing drinks. Sample local snacks and enjoy the vibrant energy of this gathering spot.
+Night: Head to Gare 9 Avril Autobus for a memorable evening. This bustling bus stop transforms into a hub of activity, offering a glimpse into the local nightlife and social scene. Engage with locals, enjoy street food, and soak up the vibrant atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**fD lHdy'q** is a café located in Jendouba, Tunisia. It is a popular spot for locals and tourists alike, offering a variety of coffee, tea, and other beverages. The café also has a small menu of sandwiches and pastries. The café is located at (36.5796825, 8.5201874).
+Pizza Woods Lounge Jendouba is a well-rated (4.5) restaurant located in Jendouba, Tunisia (lon: 8.7777625, lat: 36.4976753), open 24/7 and offering a variety of services such as breakfast, brunch, a lounge bar, and takeaway options.
+Restaurant Le Golf is a highly-rated restaurant located in Jendouba, Tunisia, with a rating of 4.7 out of 5 based on 3 reviews. It is known for its delicious food and excellent service, making it a popular destination for locals and tourists alike. The restaurant is conveniently located at latitude 36.5796825 and longitude 8.5201874, making it easy to find and visit.
+Bulla Regia, an archaeological site in Jendouba, Tunisia, boasts a 4.7-star rating with 300 reviews and exhibits impressive Roman ruins. At coordinates (36.55696, 8.74538), it features well-preserved mosaics, villas, and underground structures, making it a popular tourist attraction.
+JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.
+Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. 
+ALI BRIKA is a renowned fast food restaurant in ALI BRIKA, Jendouba. It's conveniently located at coordinates (36.4976753, 8.7777625). With a perfect 5.0 rating based on 2 reviews, it has consistently satisfied its customers with its delectable cuisine.
+Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).
+Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.
+The Société de Transport Régionale Jendouba (STRJ) is a transport company located in Jendouba, Tunisia. The company offers a variety of transport services, including bus and taxi services. The STRJ is located at coordinates (36.4976753, 8.7777625) and has a rating of 3.8 out of 5 on Google Maps. The company's website is http://www.srtj.com.tn/.
+Gare Ferroviaire de Jendouba is a train station located in Jendouba, Tunisia. It offers train services to various destinations within Tunisia, providing convenient transportation for locals and visitors alike. It is situated at the coordinates (36.5011879, 8.7780214), making it easily accessible for travelers.
+Station des Autobus #2 is a bus station located in Jendouba, Tunisia. It offers bus services to various destinations within Tunisia and neighboring countries. The station is conveniently located in the city center, making it easily accessible by foot or public transportation. It provides a comfortable waiting area for passengers, with amenities such as restrooms and a snack bar. Passengers can also find information about bus schedules and fares at the station's ticket counter. With its central location and convenient amenities, Station des Autobus #2 is a valuable resource for travelers in Jendouba.
+Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It is a central hub for public transportation in the city, offering connections to other cities and towns in the region. The station is conveniently located near the city center, making it easy for travelers to access. It features a variety of amenities, including a waiting area, ticket counters, and restrooms. The station is also wheelchair accessible.
+Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2608,12 +3463,59 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>If you're in jendouba and in search of a wonderful Cafe, you should definitely consider visiting Cafe moulouk, located at GR62+CVH P6, Jendouba. This highly rated spot boasts a 4.5 rating, making it a popular choice for Cafe enthusiasts. It offers a wide range of options to choose from, ensuring that there's something for everyone. To get in touch, you can call them at 24 639 644. For more information, check out their website at https://www.google.com/maps/place/Caf%C3%A9+moulouk/data=!4m7!3m6!1s0x12fb136acb193887:0xe08a5a5178f30a64!8m2!3d36.51102!4d8.802165!16s%2Fg%2F11s74m35k8!19sChIJhzgZy2oT-xIRZArzeFFaiuA?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Discover the cozy ambiance of Cafe moulouk, a popular Cafe located in Jendouba, Tunisia. Its inviting atmosphere and average rating of 4.5 entice customers to indulge in a delightful dining experience.</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>If you're exploring Jendouba and seeking a highly acclaimed Cafe, what location on GR62+CVH P6 stands out with its impressive 4.5 rating and diverse offerings?</t>
+          <t>Day Plan:
+Morning: Start your day by exploring the ancient Roman city of Bulla Regia. Immerse yourself in the ruins, including the impressive amphitheater and subterranean market.
+Mid-Morning: After exploring Bulla Regia, visit fD 'lf lyl@ w lyl@ for a delectable dining experience. Indulge in authentic Tunisian cuisine and savor the flavors of the local dishes.
+Midday: Take a break from sightseeing and relax with a gentle walk through the charming city center of Jendouba. Admire the local architecture and soak up the vibrant atmosphere.
+Afternoon: For a taste of local cuisine, head to Restaurant Mio Mondo. Known for its friendly staff and delicious food, this establishment offers a wide variety of dishes to satisfy any palate.
+Evening: Spend the evening indulging in local entertainment at Pizza woods Lounge Jendouba. Enjoy live music, delicious food, and refreshing beverages while immersing yourself in the lively nightlife scene.
+Night: End the day at Gare Ferroviaire de Jendouba to witness the bustling ambiance of the train station. Observe the comings and goings of travelers and soak in the local culture.</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Boujnene is a cafe located in Jendouba, Tunisia at coordinates (36.4976753, 8.7777625). It is open from 06:00-00:00 and has a rating of 4.0 based on 2 reviews.
+Pizza woods Lounge Jendouba is a popular hangout spot in Jendouba. It offers a wide range of food and drinks, including pizza, breakfast, brunch, coffee, crepes, shisha, cocktails, and more. The lounge is open 24 hours a day and is located at Pizza woods Lounge Jendouba, P6, Jendouba. It has received mostly positive reviews from customers, with an average rating of 4.5 out of 5 stars.
+Nestled amidst the vibrant city of Jendouba, coordinates (36.4976753, 8.7777625), fD 'lf lyl@ w lyl@ boasts a delectable dining experience with an impressive rating of 4.4. Known for its mouthwatering dishes, fD 'lf lyl@ w lyl@ invites you to savor the flavors of authentic cuisine.
+Bulla Regia is an ancient Roman city located in the Jendouba region of Tunisia. It is known for its well-preserved ruins, including an amphitheater, temples, and a subterranean market. The city is also home to several important mosaics and statues. Bulla Regia offers a glimpse into the Roman Empire's past and is a popular tourist destination.
+JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.
+Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. 
+Restaurant Mio Mondo, located in Jendouba (coordinates: 36.4976753, 8.7777625), is a fast food restaurant that offers a wide variety of dishes to suit all tastes. Open from 9:00 AM to 10:00 PM, this establishment has received a rating of 5.0 out of 5 based on two reviews. In addition to its excellent ratings, Restaurant Mio Mondo is also praised for its delicious food and friendly staff. Whether you are looking for a quick bite to eat or a more leisurely dining experience, Restaurant Mio Mondo is sure to have something to satisfy your cravings.
+Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).
+Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.
+Located in Enour, Jendouba, Station Louages Jendouba-bBousalem offers reliable transportation services. It operates 24 hours a day, providing convenient travel options for locals and visitors alike. With its prime location and dedication to customer satisfaction, it has earned a 5.0 rating from its customers.
+Gare Ferroviaire de Jendouba is a train station located in Jendouba, Tunisia. It offers train services to various destinations within Tunisia, providing convenient transportation for locals and visitors alike. It is situated at the coordinates (36.5011879, 8.7780214), making it easily accessible for travelers.
+Located in Jendouba, Station des Autobus #2 is a bus station that offers convenient transportation services. Its exact coordinates are (5.4744717, -3.8045517), making it easily accessible for commuters.
+Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It offers public transportation services to various destinations. The station is conveniently located at the coordinates (36.4976753, 8.7777625), making it easily accessible for travelers.
+Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2711,14 +3613,59 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for something fun to do, check out Cafe ilyes /mqh~ lys located at GQ57+37P Cafe ilyes /mqh~ lys, Jendouba. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on  []. To get there, use these GPS coordinates: 36.4976753, 8.7777625. For more details, visit their website at  or call them at .</t>
+          <t>Cafe Ilyes in Jendouba is a highly rated cafe, open 24 hours a day, offering a welcoming atmosphere for locals and visitors alike. With a 5.0 rating based on 2 reviews, Cafe Ilyes has established itself as a popular destination for coffee lovers in the area. Located at GQ57+37P Cafe ilyes /mqh~ lys, Jendouba, the cafe's convenient location makes it easily accessible.</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated cafe with a 5.0 rating and an extensive selection of Cafe options in Jendouba?</t>
+          <t>Day Plan:
+Morning: Exploring the archaeological site of Bulla Regia, known for its well-preserved Roman ruins.
+Mid-Morning: Trying local Jendouban cuisine at COCKTAIL_FOR YOU, a highly-rated restaurant.
+Midday: Visiting the picturesque Gare Ferroviaire de Jendouba, a train station that offers train services to various destinations within Tunisia.
+Afternoon: Enjoying the vibrant atmosphere of Jendouba by taking a stroll through the lively JENDOUBA administrative center.
+Evening: Participating in the local festivities at Gare 9 Avril Autobus, a popular bus stop with a lively atmosphere.
+Night: Relaxing with a refreshing drink at Jasmine, a cozy bar lounge known for its friendly ambiance and diverse drink options.</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>Given these locations:
+At the heart of Jendouba, Cafe Boujnene is a local favorite with a warm and welcoming atmosphere. Located at (36.4976753, 8.7777625), this cafe offers an exquisite blend of beverages and delectable treats. With a 4-star rating and 2 positive reviews, Cafe Boujnene has earned a reputation for its cozy ambiance and exceptional service.
+Pizza Woods Lounge Jendouba is a well-rated (4.5) restaurant located in Jendouba, Tunisia (lon: 8.7777625, lat: 36.4976753), open 24/7 and offering a variety of services such as breakfast, brunch, a lounge bar, and takeaway options.
+Located in Jendouba, COCKTAIL_FOR YOU is a highly-rated restaurant (5.0/5) specializing in restaurant cuisine. It is known for its inviting ambiance and friendly owner. With convenient contact information (phone: 54 413 444; address: GQ3J+6V5 COCKTAIL_FOR YOU, Jendouba), this restaurant is easily accessible to those seeking a memorable dining experience.
+Bulla Regia is an ancient Roman city located in the Jendouba region of Tunisia. It is known for its well-preserved ruins, including an amphitheater, temples, and a subterranean market. The city is also home to several important mosaics and statues. Bulla Regia offers a glimpse into the Roman Empire's past and is a popular tourist destination.
+JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.
+Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. 
+kskrwt kftjy ftHy/sandwich kaftaji is a fast food restaurant located in Jendouba, Tunisia. It is rated 5.0 stars out of 1 reviews on Google and is known for its sandwich kaftaji. The restaurant's coordinates are (36.4976753, 8.7777625).
+Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).
+Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.
+Station Louages Jendouba-bBousalem, situated in Jendouba, Tunisia (GPS:36.4976753, 8.7777625), is a transportation service provider.
+Gare Ferroviaire de Jendouba is a train station located in Jendouba, Tunisia. It offers train services to various destinations within Tunisia, providing convenient transportation for locals and visitors alike. It is situated at the coordinates (36.5011879, 8.7780214), making it easily accessible for travelers.
+Station des Autobus #2 is a bus station located in Jendouba, Tunisia. It offers bus services to various destinations within Tunisia and neighboring countries. The station is conveniently located in the city center, making it easily accessible by foot or public transportation. It provides a comfortable waiting area for passengers, with amenities such as restrooms and a snack bar. Passengers can also find information about bus schedules and fares at the station's ticket counter. With its central location and convenient amenities, Station des Autobus #2 is a valuable resource for travelers in Jendouba.
+Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It offers public transportation services to various destinations. The station is conveniently located at the coordinates (36.4976753, 8.7777625), making it easily accessible for travelers.
+Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2816,14 +3763,59 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for something fun to do, check out mqh~ lqrwy located at GQ5P+VG5 mqh~ lqrwy, Jendouba. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, please refer to the link provided. For more details, visit their website or call them at 29 444 611.</t>
+          <t>mqh~ lqrwy is a 4-star rated cafe located in Jendouba, Tunisia (GQ5P+VG5). Open 24 hours a day, it is conveniently situated just off the Jendouba-Tunis highway. The cafe offers a wide range of beverages, including coffee, tea, and juice, as well as pastries and sandwiches. It is a popular spot for locals and tourists alike to relax and enjoy a bite to eat.</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>Where in Jendouba can you find a highly-rated destination for cafe lovers, open around the clock?</t>
+          <t>Day Plan:
+Morning: Explore the ancient Roman ruins of Bulla Regia, a well-preserved archaeological site with stunning mosaics, villas, and underground structures.
+Mid-Morning: Visit Station des Autobus #2, a conveniently located bus station, and take a bus to Besh Besh foods, a pizzeria known for its delicious Italian cuisine.
+Midday: Enjoy a delightful lunch at Besh Besh foods, savoring the authentic flavors of Jendouba.
+Afternoon: Engage in outdoor activities at Park Sidi Yahya, a beautiful park with lush greenery, offering a serene escape from the hustle and bustle of the city.
+Evening: Indulge in shopping at the local market, where you can find unique souvenirs, handmade crafts, and traditional Tunisian products.
+Night: Experience cultural immersion at the Amphitheater ofDougga, an ancient Roman amphitheater, where you can witness live performances or attend cultural events under the starlit sky.</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe saif is a cafe situated in jendouba, Tunisia. Its coordinates are (36.4976753, 8.7777625) and it's rated 4.5/5 by its customers.
+Salon de the Jazz is a popular tea room in Jendouba, Tunisia, located at coordinates (36.4976753, 8.7777625). With a rating of 4.3 based on 15 reviews, it's a great place to relax and enjoy a cup of tea.
+Pizzeria la Reine jendouba is a restaurant located in jendouba (coordinates: (36.4976753, 8.7777625)) offering a 4.0 rating out of 4 reviews. It offers Italian cuisine and is open from 08:00-22:00.
+Bulla Regia, an archaeological site in Jendouba, Tunisia, boasts a 4.7-star rating with 300 reviews and exhibits impressive Roman ruins. At coordinates (36.55696, 8.74538), it features well-preserved mosaics, villas, and underground structures, making it a popular tourist attraction.
+JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.
+Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. 
+Restaurant Mio Mondo, located in Jendouba (coordinates: 36.4976753, 8.7777625), is a fast food restaurant that offers a wide variety of dishes to suit all tastes. Open from 9:00 AM to 10:00 PM, this establishment has received a rating of 5.0 out of 5 based on two reviews. In addition to its excellent ratings, Restaurant Mio Mondo is also praised for its delicious food and friendly staff. Whether you are looking for a quick bite to eat or a more leisurely dining experience, Restaurant Mio Mondo is sure to have something to satisfy your cravings.
+Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).
+Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.
+The Société de Transport Régionale Jendouba (STRJ) is a transport company located in Jendouba, Tunisia. The company offers a variety of transport services, including bus and taxi services. The STRJ is located at coordinates (36.4976753, 8.7777625) and has a rating of 3.8 out of 5 on Google Maps. The company's website is http://www.srtj.com.tn/.
+Gare Ferroviaire de Jendouba is a train station located in Jendouba, Tunisia. It offers train services to various destinations within Tunisia, providing convenient transportation for locals and visitors alike. It is situated at the coordinates (36.5011879, 8.7780214), making it easily accessible for travelers.
+Station des Autobus #2 is a bus station located in Jendouba, Tunisia. It offers bus services to various destinations within Tunisia and neighboring countries. The station is conveniently located in the city center, making it easily accessible by foot or public transportation. It provides a comfortable waiting area for passengers, with amenities such as restrooms and a snack bar. Passengers can also find information about bus schedules and fares at the station's ticket counter. With its central location and convenient amenities, Station des Autobus #2 is a valuable resource for travelers in Jendouba.
+Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It offers public transportation services to various destinations. The station is conveniently located at the coordinates (36.4976753, 8.7777625), making it easily accessible for travelers.
+Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2925,12 +3917,65 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>If you're in Jendouba and looking for a great Cafe, check out Cafe saif located at FQQP+V76 Cafe saif, Jendouba. This top-rated destination is perfect for Cafe lovers. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 36.4976753, 8.7777625. For more details, visit their website at https://www.google.com/maps/place/Cafe+saif/data=!4m7!3m6!1s0x12fb1389db04c1e7:0x203e6c05479d56fa!8m2!3d36.4896624!4d8.7856296!16s%2Fg%2F11rx_q2ym1!19sChIJ58EE24kT-xIR-ladRwVsPiA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 26 383 841.</t>
+          <t>Cafe saif is a cafe situated in jendouba, Tunisia. Its coordinates are (36.4976753, 8.7777625) and it's rated 4.5/5 by its customers.</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Cafe with a rating of 4.5 in Jendouba?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the impressive Roman ruins at Bulla Regia, a UNESCO World Heritage Site.
+**Mid-Morning:**
+- Visit the archaeological site of Thugga, another well-preserved Roman city with stunning mosaics and architecture.
+**Midday:**
+- Indulge in local cuisine at Le Sultan, a highly-rated restaurant known for its culinary offerings.
+**Afternoon:**
+- Immerse yourself in the vibrant atmosphere of Jendouba, exploring the local markets and shops for unique souvenirs and crafts.
+**Evening:**
+- Relax and unwind with a massage at a local spa or hammam, authentic to Tunisian culture.
+**Night:**
+- Enjoy a delightful dinner at Pizza Woods Lounge Jendouba, a popular restaurant offering a variety of delicious dishes and a cozy ambiance.</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Oasis in Jendouba, situated at (36.4976753, 8.7777625), is a popular cafe with a 4.1 rating. Although there is no detailed description, the cafe offers a cozy atmosphere for its patrons. It opens from 7 am to 10 pm daily and has been reviewed by 7 satisfied customers. If you're seeking a place to relax and socialize over refreshments, Cafe Oasis is worth considering.
+Pizza Woods Lounge Jendouba is a well-rated (4.5) restaurant located in Jendouba, Tunisia (lon: 8.7777625, lat: 36.4976753), open 24/7 and offering a variety of services such as breakfast, brunch, a lounge bar, and takeaway options.
+Le Sultan, a highly-rated restaurant located in Jendouba, Tunisia (36.4976753, 8.7777625), boasts a 5.0-star rating. It opens daily from 6:00 AM to 11:00 PM and is owned by "Le Sultan (proprietaire)". While the provided description is currently unavailable, the restaurant is known for its culinary offerings and has received positive reviews (3). More information can be found on its Google Maps page: https://www.google.com/maps/place/Le+Sultan/data=!4m7!3m6!1s0x12fb13aefa51ebeb:0xe39630b6ce608df8!8m2!3d36.4978617!4d8.7747328!16s%2Fg%2F11j0byb6z3!19sChIJ6-tR-q4T-xIR-I1gzrYwluM?authuser=0&amp;hl=fr&amp;rclk=1.
+Bulla Regia, an archaeological site in Jendouba, Tunisia, boasts a 4.7-star rating with 300 reviews and exhibits impressive Roman ruins. At coordinates (36.55696, 8.74538), it features well-preserved mosaics, villas, and underground structures, making it a popular tourist attraction.
+JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.
+Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. 
+kskrwt kftjy ftHy/sandwich kaftaji is a fast food restaurant located in Jendouba, Tunisia. It is rated 5.0 stars out of 1 reviews on Google and is known for its sandwich kaftaji. The restaurant's coordinates are (36.4976753, 8.7777625).
+Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).
+Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.
+Station Louages Jendouba-bBousalem, situated in Jendouba, Tunisia (GPS:36.4976753, 8.7777625), is a transportation service provider.
+Gare Ferroviaire de Jendouba is a train station located in Jendouba, Tunisia. It offers train services to various destinations within Tunisia, providing convenient transportation for locals and visitors alike. It is situated at the coordinates (36.5011879, 8.7780214), making it easily accessible for travelers.
+Located in Jendouba, Station des Autobus #2 is a bus station that offers convenient transportation services. Its exact coordinates are (5.4744717, -3.8045517), making it easily accessible for commuters.
+Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It offers public transportation services to various destinations. The station is conveniently located at the coordinates (36.4976753, 8.7777625), making it easily accessible for travelers.
+Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3028,12 +4073,59 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for something fun to do, check out mqh~ l'hrm located at GQ5X+QFX mqh~ l'hrm, Jendouba. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-00:00, but closed on . To get there, use these GPS coordinates: 36.4976753, 8.7777625. For more details, visit their website at https://www.google.com/maps/place/%D9%85%D9%82%D9%87%D9%89+%D8%A7%D9%84%D8%A3%D9%87%D8%B1%D8%A7%D9%85%E2%80%AD/data=!4m7!3m6!1s0x12fb13314e54d88f:0x744723e3862ba044!8m2!3d36.5094914!4d8.7987429!16s%2Fg%2F11ghs512rx!19sChIJj9hUTjET-xIRRKArhuMjR3Q?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>mqh~ l'hrm is a cafe located in Jendouba, Tunisia. It offers a cozy ambiance with a rating of 4.0 stars. Its exact location is at the coordinates (36.4976753, 8.7777625), and the link to its Google Maps page is https://www.google.com/maps/place/%D9%85%D9%82%D9%87%D9%89+%D8%A7%D9%84%D8%A3%D9%87%D8%B1%D8%A7%D9%85%E2%80%AD/data=!4m7!3m6!1s0x12fb13314e54d88f:0x744723e3862ba044!8m2!3d36.5094914!4d8.7987429!16s%2Fg%2F11ghs512rx!19sChIJj9hUTjET-xIRRKArhuMjR3Q?authuser=0&amp;hl=fr&amp;rclk=1.</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated destination with a range of Cafe options, perfect for Cafe lovers, located in Jendouba?</t>
+          <t>Day Plan:
+Morning: Explore the historical ruins of Bulla Regia, a well-preserved ancient Roman city.
+Mid-Morning: Visit the picturesque JENDOUBA administrative center and soak in the local ambiance.
+Midday: Indulge in a culinary adventure at Restaurant Le Golf, known for its delectable cuisine and excellent service.
+Afternoon: Experience the vibrant atmosphere of Pizza Woods Lounge Jendouba, a popular hangout spot offering a wide range of food and beverages.
+Evening: Explore the traditional Tunisian market, Station Routierre de Transport en Commun de Jendouba, for unique souvenirs and local delicacies.
+Night: Unwind and relax at Jasmine bar lounge, enjoying a cozy ambiance and refreshing drinks.</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Oasis in Jendouba, situated at (36.4976753, 8.7777625), is a popular cafe with a 4.1 rating. Although there is no detailed description, the cafe offers a cozy atmosphere for its patrons. It opens from 7 am to 10 pm daily and has been reviewed by 7 satisfied customers. If you're seeking a place to relax and socialize over refreshments, Cafe Oasis is worth considering.
+Pizza woods Lounge Jendouba is a popular hangout spot in Jendouba. It offers a wide range of food and drinks, including pizza, breakfast, brunch, coffee, crepes, shisha, cocktails, and more. The lounge is open 24 hours a day and is located at Pizza woods Lounge Jendouba, P6, Jendouba. It has received mostly positive reviews from customers, with an average rating of 4.5 out of 5 stars.
+Restaurant Le Golf is a highly-rated restaurant located in Jendouba, Tunisia, with a rating of 4.7 out of 5 based on 3 reviews. It is known for its delicious food and excellent service, making it a popular destination for locals and tourists alike. The restaurant is conveniently located at latitude 36.5796825 and longitude 8.5201874, making it easy to find and visit.
+Bulla Regia is an ancient Roman city located in the Jendouba region of Tunisia. It is known for its well-preserved ruins, including an amphitheater, temples, and a subterranean market. The city is also home to several important mosaics and statues. Bulla Regia offers a glimpse into the Roman Empire's past and is a popular tourist destination.
+JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.
+Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. 
+kskrwt kftjy ftHy/sandwich kaftaji is a fast food restaurant located in Jendouba, Tunisia. It is rated 5.0 stars out of 1 reviews on Google and is known for its sandwich kaftaji. The restaurant's coordinates are (36.4976753, 8.7777625).
+Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).
+Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.
+Located in Enour, Jendouba, Station Louages Jendouba-bBousalem offers reliable transportation services. It operates 24 hours a day, providing convenient travel options for locals and visitors alike. With its prime location and dedication to customer satisfaction, it has earned a 5.0 rating from its customers.
+Gare Ferroviaire de Jendouba is a train station located in Jendouba, Tunisia. It offers train services to various destinations within Tunisia, providing convenient transportation for locals and visitors alike. It is situated at the coordinates (36.5011879, 8.7780214), making it easily accessible for travelers.
+Station des Autobus #2 is a bus station located in Jendouba, Tunisia. It offers bus services to various destinations within Tunisia and neighboring countries. The station is conveniently located in the city center, making it easily accessible by foot or public transportation. It provides a comfortable waiting area for passengers, with amenities such as restrooms and a snack bar. Passengers can also find information about bus schedules and fares at the station's ticket counter. With its central location and convenient amenities, Station des Autobus #2 is a valuable resource for travelers in Jendouba.
+Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It offers public transportation services to various destinations. The station is conveniently located at the coordinates (36.4976753, 8.7777625), making it easily accessible for travelers.
+Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3139,12 +4231,59 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>If you're in Jendouba, explore Bulla Regia - Site Archeologique, located at Bulla Regia - Site Archeologique, C 59 Bullaregia. As a top-rated Site archeologique destination in Jendouba, it offers a range of attractions. With a 4.7 rating, it's a must-visit spot. It's open weekdays from 08:00-19:00 but remains closed on weekends. For more details, call them at 96 014 141.</t>
+          <t>Bulla Regia is an ancient Roman city located in the Jendouba region of Tunisia. It is known for its well-preserved ruins, including an amphitheater, temples, and a subterranean market. The city is also home to several important mosaics and statues. Bulla Regia offers a glimpse into the Roman Empire's past and is a popular tourist destination.</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>Which top-rated site archeologique in Jendouba is located within Bulla Regia - Site Archeologique, boasting a high 4.7 rating?</t>
+          <t>Day Plan:
+Morning: Explore Bulla Regia, an ancient Roman city with well-preserved ruins.
+Mid-Morning: Try local cuisine at Restaurant Mio Mondo, which offers a wide variety of dishes and has received exceptional reviews.
+Midday: Visit Gare 9 Avril Autobus, a popular bus stop in Jendouba, to observe daily life and interact with locals.
+Afternoon: Enjoy the cozy ambiance of Cafe moulouk, a popular cafe with a 4.5 rating, and indulge in a delightful dining experience.
+Evening: Participate in the lively atmosphere of Jasmine, a 4.2-rated bar lounge, and savor a variety of drinks and snacks.
+Night: Relax and unwind at Station des Autobus #2, a well-equipped bus station with comfortable waiting areas and amenities, offering a chance to rest and soak in the local atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Discover the cozy ambiance of Cafe moulouk, a popular Cafe located in Jendouba, Tunisia. Its inviting atmosphere and average rating of 4.5 entice customers to indulge in a delightful dining experience.
+Pizza Woods Lounge Jendouba is a well-rated (4.5) restaurant located in Jendouba, Tunisia (lon: 8.7777625, lat: 36.4976753), open 24/7 and offering a variety of services such as breakfast, brunch, a lounge bar, and takeaway options.
+Mayosa Cafe Resto is a restaurant located in Jendouba (Tunisia) with coordinates (36.4976753, 8.7777625) and a rating of 4.0.
+Bulla Regia is an ancient Roman city located in the Jendouba region of Tunisia. It is known for its well-preserved ruins, including an amphitheater, temples, and a subterranean market. The city is also home to several important mosaics and statues. Bulla Regia offers a glimpse into the Roman Empire's past and is a popular tourist destination.
+JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.
+Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. 
+Restaurant Mio Mondo, located in Jendouba (coordinates: 36.4976753, 8.7777625), is a fast food restaurant that offers a wide variety of dishes to suit all tastes. Open from 9:00 AM to 10:00 PM, this establishment has received a rating of 5.0 out of 5 based on two reviews. In addition to its excellent ratings, Restaurant Mio Mondo is also praised for its delicious food and friendly staff. Whether you are looking for a quick bite to eat or a more leisurely dining experience, Restaurant Mio Mondo is sure to have something to satisfy your cravings.
+Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).
+Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.
+Located in Enour, Jendouba, Station Louages Jendouba-bBousalem offers reliable transportation services. It operates 24 hours a day, providing convenient travel options for locals and visitors alike. With its prime location and dedication to customer satisfaction, it has earned a 5.0 rating from its customers.
+Gare Ferroviaire de Jendouba is a train station located in Jendouba, Tunisia. It offers train services to various destinations within Tunisia, providing convenient transportation for locals and visitors alike. It is situated at the coordinates (36.5011879, 8.7780214), making it easily accessible for travelers.
+Station des Autobus #2 is a bus station located in Jendouba, Tunisia. It offers bus services to various destinations within Tunisia and neighboring countries. The station is conveniently located in the city center, making it easily accessible by foot or public transportation. It provides a comfortable waiting area for passengers, with amenities such as restrooms and a snack bar. Passengers can also find information about bus schedules and fares at the station's ticket counter. With its central location and convenient amenities, Station des Autobus #2 is a valuable resource for travelers in Jendouba.
+Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It is a central hub for public transportation in the city, offering connections to other cities and towns in the region. The station is conveniently located near the city center, making it easy for travelers to access. It features a variety of amenities, including a waiting area, ticket counters, and restrooms. The station is also wheelchair accessible.
+Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3238,12 +4377,60 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>If you're in Jendouba and looking for a top-rated administrative office, check out JENDOUBA located at FQXF+5J3 JENDOUBA, P17. This must-visit spot has a rating of 4.5 and is perfect for those interested in Administration. For more details, visit their website at https://www.google.com/maps/place/JENDOUBA/data=!4m7!3m6!1s0x12fb13a0a4d83a5f:0xf631e0aa09fcf8dd!8m2!3d36.4978934!4d8.774046!16s%2Fg%2F11t2sg0q_7!19sChIJXzrYpKAT-xIR3fj8CargMfY?authuser=0&amp;hl=fr&amp;rclk=1 or call the owner, JENDOUBA, at their listed phone number.</t>
+          <t>JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated administrative office in Jendouba with a 4.5 rating, located at FQXF+5J3 JENDOUBA, P17?</t>
+          <t>Day Plan:
+Morning: Explore the well-preserved Roman ruins of Bulla Regia.
+Mid-Morning: Indulge in authentic Tunisian cuisine at fD 'lf lyl@ w lyl@, known for its mouthwatering dishes.
+Midday: Head to Restaurant Mio Mondo, a fast-food joint frequented by locals, for a quick and delicious lunch.
+Afternoon: Immerse yourself in the vibrant atmosphere of Pizza Woods Lounge, savoring their delectable pizzas and crepes.
+Evening: Take a leisurely stroll through the city of Jendouba, appreciating its blend of ancient and modern architecture.
+Night: Experience the warmth of Tunisian hospitality at Restaurant SIDI ASSAM, a family-run establishment offering a diverse menu in a cozy ambiance.</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Podium is a highly-rated establishment in Jendouba, boasting an impressive 4.5 out of 5 rating with 6 positive reviews. Located at GQ4R+HM6 on the main road of Al Habib Bourguiba, this cafe offers an inviting ambiance and a welcoming atmosphere. While specific details of its offerings are not available, Cafe Podium is known for its quality beverages and a cozy ambiance that makes it a popular destination for locals and visitors alike.
+Welcome to Pizza Woods Lounge in Jendouba, Tunisia! We offer a comfortable and inviting atmosphere for you to relax with friends and family. Enjoy our delicious pizzas, crepes, and other breakfast, brunch, and lunch options. We also serve a variety of beverages, including coffee, tea, and juices. Our team is dedicated to providing exceptional service and creating a memorable dining experience for all our guests. Visit us today at our convenient location at Pizza woods Lounge Jendouba, P6, Jendouba, and indulge in the ultimate culinary and social experience. We are open 24 hours a day, so come in anytime!
+Nestled amidst the vibrant city of Jendouba, coordinates (36.4976753, 8.7777625), fD 'lf lyl@ w lyl@ boasts a delectable dining experience with an impressive rating of 4.4. Known for its mouthwatering dishes, fD 'lf lyl@ w lyl@ invites you to savor the flavors of authentic cuisine.
+Bulla Regia is an ancient Roman city located in the Jendouba region of Tunisia. It is known for its well-preserved ruins, including an amphitheater, temples, and a subterranean market. The city is also home to several important mosaics and statues. Bulla Regia offers a glimpse into the Roman Empire's past and is a popular tourist destination.
+JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.
+Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. 
+Restaurant Mio Mondo, located in Jendouba (coordinates: 36.4976753, 8.7777625), is a fast food restaurant that offers a wide variety of dishes to suit all tastes. Open from 9:00 AM to 10:00 PM, this establishment has received a rating of 5.0 out of 5 based on two reviews. In addition to its excellent ratings, Restaurant Mio Mondo is also praised for its delicious food and friendly staff. Whether you are looking for a quick bite to eat or a more leisurely dining experience, Restaurant Mio Mondo is sure to have something to satisfy your cravings.
+Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).
+Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.
+Located in Enour, Jendouba, Station Louages Jendouba-bBousalem offers reliable transportation services. It operates 24 hours a day, providing convenient travel options for locals and visitors alike. With its prime location and dedication to customer satisfaction, it has earned a 5.0 rating from its customers.
+**Gare Ferroviaire de Jendouba : A Railway Station in Jendouba, Tunisia**
+A vital transport hub located at the coordinates (36.5011879, 8.7780214) in Jendouba, Gare Ferroviaire de Jendouba is the primary railway station of the city. The station boasts 3.2 out of 5 stars as per user reviews.
+Station des Autobus #2 is a bus station located in Jendouba, Tunisia. It offers bus services to various destinations within Tunisia and neighboring countries. The station is conveniently located in the city center, making it easily accessible by foot or public transportation. It provides a comfortable waiting area for passengers, with amenities such as restrooms and a snack bar. Passengers can also find information about bus schedules and fares at the station's ticket counter. With its central location and convenient amenities, Station des Autobus #2 is a valuable resource for travelers in Jendouba.
+Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It offers public transportation services to various destinations. The station is conveniently located at the coordinates (36.4976753, 8.7777625), making it easily accessible for travelers.
+Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3349,12 +4536,60 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for something fun to do, check out Bulla Regia - Site Archeologique located at Bulla Regia - Site Archeologique, C 59 Bullaregia,, Jendouba. This top-rated destination is perfect for Site archeologique lovers and offers a range of Site archeologique, Attraction touristique to choose from. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 08:00-19:00, but closed on . To get there, use these GPS coordinates: 36.55696, 8.74538. For more details, visit their website at https://www.google.com/maps/place/Bulla+Regia+-+Site+Arch%C3%A9ologique/data=!4m7!3m6!1s0x12fb141b52395b15:0x31c6c649e51c73c2!8m2!3d36.5597081!4d8.7542218!16s%2Fg%2F12vrw100f!19sChIJFVs5UhsU-xIRwnMc5UnGxjE?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 96 014 141.</t>
+          <t>Bulla Regia, an archaeological site in Jendouba, Tunisia, boasts a 4.7-star rating with 300 reviews and exhibits impressive Roman ruins. At coordinates (36.55696, 8.74538), it features well-preserved mosaics, villas, and underground structures, making it a popular tourist attraction.</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>Where can you visit a top-rated Site archeologique with a range of attractions, located in Jendouba?</t>
+          <t>Day Plan:
+Morning: Visit Bulla Regia, an archaeological site with impressive Roman ruins.
+Mid-Morning: Explore Gare Ferroviaire de Jendouba, the primary railway station of the city.
+Midday: Try local cuisine at Restaurant Mio Mondo, known for its delicious food and friendly staff.
+Afternoon: Engage in outdoor activities like enjoying a picnic or hiking at a nearby park or beach.
+Evening: Experience cultural immersion at the Museum of Jendouba, showcasing the city's rich history and culture.
+Night: Relax with a massage or spa treatment at a local hotel.</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Olympic is a cafe located in the city of Jendouba, Tunisia. It has a rating of 4.4 out of 5 stars based on 10 reviews and is open from 7:00 AM to 10:00 PM. Unfortunately, we do not have any information on its menu or special features at this time.
+Welcome to Pizza Woods Lounge in Jendouba, Tunisia! We offer a comfortable and inviting atmosphere for you to relax with friends and family. Enjoy our delicious pizzas, crepes, and other breakfast, brunch, and lunch options. We also serve a variety of beverages, including coffee, tea, and juices. Our team is dedicated to providing exceptional service and creating a memorable dining experience for all our guests. Visit us today at our convenient location at Pizza woods Lounge Jendouba, P6, Jendouba, and indulge in the ultimate culinary and social experience. We are open 24 hours a day, so come in anytime!
+La Tonelle, a Restaurant located at GQ3P+7X6, rue les palmiers, Jendouba 8100, Tunisia, offers a delightful dining experience. With a 5.0 rating based on 4 reviews, La Tonelle has established itself as a top-rated establishment. It opens daily from 08:00-00:00, except on Sundays.
+Bulla Regia, an archaeological site in Jendouba, Tunisia, boasts a 4.7-star rating with 300 reviews and exhibits impressive Roman ruins. At coordinates (36.55696, 8.74538), it features well-preserved mosaics, villas, and underground structures, making it a popular tourist attraction.
+JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.
+Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. 
+Restaurant Mio Mondo, located in Jendouba (coordinates: 36.4976753, 8.7777625), is a fast food restaurant that offers a wide variety of dishes to suit all tastes. Open from 9:00 AM to 10:00 PM, this establishment has received a rating of 5.0 out of 5 based on two reviews. In addition to its excellent ratings, Restaurant Mio Mondo is also praised for its delicious food and friendly staff. Whether you are looking for a quick bite to eat or a more leisurely dining experience, Restaurant Mio Mondo is sure to have something to satisfy your cravings.
+Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).
+Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.
+Station Louages Jendouba-bBousalem, situated in Jendouba, Tunisia (GPS:36.4976753, 8.7777625), is a transportation service provider.
+**Gare Ferroviaire de Jendouba : A Railway Station in Jendouba, Tunisia**
+A vital transport hub located at the coordinates (36.5011879, 8.7780214) in Jendouba, Gare Ferroviaire de Jendouba is the primary railway station of the city. The station boasts 3.2 out of 5 stars as per user reviews.
+Station des Autobus #2 is a bus station located in Jendouba, Tunisia. It offers bus services to various destinations within Tunisia and neighboring countries. The station is conveniently located in the city center, making it easily accessible by foot or public transportation. It provides a comfortable waiting area for passengers, with amenities such as restrooms and a snack bar. Passengers can also find information about bus schedules and fares at the station's ticket counter. With its central location and convenient amenities, Station des Autobus #2 is a valuable resource for travelers in Jendouba.
+Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It offers public transportation services to various destinations. The station is conveniently located at the coordinates (36.4976753, 8.7777625), making it easily accessible for travelers.
+Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3460,13 +4695,60 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for something fun to do, check out Pizza woods Lounge Jendouba located at Pizza woods Lounge Jendouba, P6, Jendouba. This top-rated destination is perfect for Salon de the lovers and offers a range of Salon de the, Restaurant servant le petit-dejeuner, Restaurant brunch, Cafe, Creperie, Bar a chicha, Bar lounge, Restaurant de plats a emporter, Pizzeria, Restaurant to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 36.4976753, 8.7777625. For more details, call them at 93 012 000.</t>
+          <t>Welcome to Pizza Woods Lounge in Jendouba, Tunisia! We offer a comfortable and inviting atmosphere for you to relax with friends and family. Enjoy our delicious pizzas, crepes, and other breakfast, brunch, and lunch options. We also serve a variety of beverages, including coffee, tea, and juices. Our team is dedicated to providing exceptional service and creating a memorable dining experience for all our guests. Visit us today at our convenient location at Pizza woods Lounge Jendouba, P6, Jendouba, and indulge in the ultimate culinary and social experience. We are open 24 hours a day, so come in anytime!</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>Where can you indulge in delicious cuisine and enjoy a pleasant social atmosphere in Jendouba, as suggested by its top-rated status and diverse dining options?</t>
+          <t>Day Plan:
+Morning: Explore historical ruins at Bulla Regia
+Mid-Morning: Try local cuisine at ALI BRIKA for a perfect 5-star dining experience
+Midday: Visit the JENDOUBA administrative center for a glimpse into the city's governance
+Afternoon: Enjoy the cozy ambiance and drinks at Jasmine bar lounge
+Evening: Immerse in the local culture at ALMAS restaurant and tea room
+Night: Relax at SIDI ASSAM restaurant for a delightful family dining ambiance</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe saif is a cafe situated in jendouba, Tunisia. Its coordinates are (36.4976753, 8.7777625) and it's rated 4.5/5 by its customers.
+Pizza woods Lounge Jendouba is a popular hangout spot in Jendouba. It offers a wide range of food and drinks, including pizza, breakfast, brunch, coffee, crepes, shisha, cocktails, and more. The lounge is open 24 hours a day and is located at Pizza woods Lounge Jendouba, P6, Jendouba. It has received mostly positive reviews from customers, with an average rating of 4.5 out of 5 stars.
+ALMAS is a restaurant and tea room located in Jendouba, Tunisia. It is open from 6:00 AM to midnight and has a rating of 4.2 out of 5 stars based on 29 reviews. The restaurant's featured image shows a photo of the exterior of the building.
+Bulla Regia, an archaeological site in Jendouba, Tunisia, boasts a 4.7-star rating with 300 reviews and exhibits impressive Roman ruins. At coordinates (36.55696, 8.74538), it features well-preserved mosaics, villas, and underground structures, making it a popular tourist attraction.
+JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.
+Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. 
+ALI BRIKA is a renowned fast food restaurant in ALI BRIKA, Jendouba. It's conveniently located at coordinates (36.4976753, 8.7777625). With a perfect 5.0 rating based on 2 reviews, it has consistently satisfied its customers with its delectable cuisine.
+Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).
+Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.
+Station Louages Jendouba-bBousalem, situated in Jendouba, Tunisia (GPS:36.4976753, 8.7777625), is a transportation service provider.
+**Gare Ferroviaire de Jendouba : A Railway Station in Jendouba, Tunisia**
+A vital transport hub located at the coordinates (36.5011879, 8.7780214) in Jendouba, Gare Ferroviaire de Jendouba is the primary railway station of the city. The station boasts 3.2 out of 5 stars as per user reviews.
+Located in Jendouba, Station des Autobus #2 is a bus station that offers convenient transportation services. Its exact coordinates are (5.4744717, -3.8045517), making it easily accessible for commuters.
+Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It offers public transportation services to various destinations. The station is conveniently located at the coordinates (36.4976753, 8.7777625), making it easily accessible for travelers.
+Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3564,14 +4846,59 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for something fun to do, check out Jasmine located at GQ3M+7XJ Jasmine, Enour, Jendouba. 
-This top-rated destination is perfect for Bar lounge lovers and offers a range of Bar lounge to choose from. 
-With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 36.498898788078, 8.78433389235. For more details, call them at 21 785 854.</t>
+          <t xml:space="preserve">Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. </t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>What highly-rated location in Jendouba, known for its exceptional Bar lounge offerings, can be found at GPS coordinates 36.498898788078, 8.78433389235?</t>
+          <t>Day Plan:
+Morning: Explore Bulla Regia, an archaeological site with Roman ruins
+Mid-Morning: Try local cuisine at Restaurant SIDI ASSAM for a traditional family dining experience
+Midday: Visit Salon de the Jazz, a popular tea room, for a relaxing tea and pastry break
+Afternoon: Relax with a scenic walk through Enour Park, enjoying the greenery and fresh air
+Evening: Shop for souvenirs and local products at Besh Besh foods Pizzeria
+Night: Enjoy a cultural immersion at Gare 9 Avril Autobus, a bus stop that offers a glimpse into the daily lives of locals</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe' kaies is a cafe located in cafe' kaies, P17, Jendouba, Tunisia, open 24 hours a day. It has a 4.8 rating with 4 reviews.
+Salon de the Jazz is a popular tea room in Jendouba, Tunisia, located at coordinates (36.4976753, 8.7777625). With a rating of 4.3 based on 15 reviews, it's a great place to relax and enjoy a cup of tea.
+Nestled amidst the vibrant city of Jendouba, coordinates (36.4976753, 8.7777625), fD 'lf lyl@ w lyl@ boasts a delectable dining experience with an impressive rating of 4.4. Known for its mouthwatering dishes, fD 'lf lyl@ w lyl@ invites you to savor the flavors of authentic cuisine.
+Bulla Regia, an archaeological site in Jendouba, Tunisia, boasts a 4.7-star rating with 300 reviews and exhibits impressive Roman ruins. At coordinates (36.55696, 8.74538), it features well-preserved mosaics, villas, and underground structures, making it a popular tourist attraction.
+JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.
+Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. 
+kskrwt kftjy ftHy/sandwich kaftaji is a fast food restaurant located in Jendouba, Tunisia. It is rated 5.0 stars out of 1 reviews on Google and is known for its sandwich kaftaji. The restaurant's coordinates are (36.4976753, 8.7777625).
+Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).
+Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.
+Located in Enour, Jendouba, Station Louages Jendouba-bBousalem offers reliable transportation services. It operates 24 hours a day, providing convenient travel options for locals and visitors alike. With its prime location and dedication to customer satisfaction, it has earned a 5.0 rating from its customers.
+Gare Ferroviaire de Jendouba is a train station located in Jendouba, Tunisia. It offers train services to various destinations within Tunisia, providing convenient transportation for locals and visitors alike. It is situated at the coordinates (36.5011879, 8.7780214), making it easily accessible for travelers.
+Located in Jendouba, Station des Autobus #2 is a bus station that offers convenient transportation services. Its exact coordinates are (5.4744717, -3.8045517), making it easily accessible for commuters.
+Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It is a central hub for public transportation in the city, offering connections to other cities and towns in the region. The station is conveniently located near the city center, making it easy for travelers to access. It features a variety of amenities, including a waiting area, ticket counters, and restrooms. The station is also wheelchair accessible.
+Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3681,12 +5008,66 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for a top-rated Restaurant, check out Mon Plaisir Jendouba located at FQPJ+R4F Mon Plaisir Jendouba, Cite el Hana avenue de l'environnement 8100, Jendouba 8100. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 05:00-00:00, but closed on []. To get there, use these GPS coordinates: 36.5796825, 8.5201874. For more details, visit their website at https://best--restaurants.blogspot.com/ or call them at 78 613 045.</t>
+          <t>Mon Plaisir Jendouba is a restaurant located in Jendouba, Tunisia, at the coordinates (36.5796825, 8.5201874). It is rated 4.1 out of 5 stars based on 88 reviews, and its main category is Restaurant. It is open from 05:00 to 00:00 every day, and its website is https://best--restaurants.blogspot.com/.</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated restaurant, Mon Plaisir Jendouba, in Jendouba, with a 4.1 rating and a convenient location?</t>
+          <t>Day Plan:
+Morning:
+- Take a guided tour of the ancient Roman ruins of Bulla Regia to immerse yourself in the region's rich history.
+Mid-Morning:
+- Visit the vibrant Jendouba market to browse local crafts and sample delicious street food.
+Midday:
+- Savor a traditional Tunisian lunch at Cafe ilias, renowned for its authentic cafe cuisine and excellent ratings.
+Afternoon:
+- Engage in outdoor activities at the picturesque Ksertwt Kftjy FtHy/Sandwich Kaftaji, indulge in a sandwich kaftaji while enjoying the local ambiance.
+Evening:
+- Explore the cozy Jasmine bar lounge for a refreshing drink and snacks, relishing the laid-back atmosphere.
+Night:
+- Experience the vibrant nightlife at Station Louages Jendouba-bBousalem, engage with locals and soak up the lively ambiance.</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe ilias is a cafe located in Jendouba, Tunisia at the coordinates (36.4976753, 8.7777625). It has a rating of 4.8 based on 4 reviews and is open everyday. Cafe ilias serves cafe cuisine.
+Welcome to Pizza Woods Lounge in Jendouba, Tunisia! We offer a comfortable and inviting atmosphere for you to relax with friends and family. Enjoy our delicious pizzas, crepes, and other breakfast, brunch, and lunch options. We also serve a variety of beverages, including coffee, tea, and juices. Our team is dedicated to providing exceptional service and creating a memorable dining experience for all our guests. Visit us today at our convenient location at Pizza woods Lounge Jendouba, P6, Jendouba, and indulge in the ultimate culinary and social experience. We are open 24 hours a day, so come in anytime!
+Pizzeria Matador, located in Jendouba (lon: 8.7777625 ; lat: 36.4976753), is a restaurant offering a variety of dishes. With a rating of 4.0 based on 7 reviews, it has a featured image, a link to its website, and a phone number.
+Bulla Regia is an ancient Roman city located in the Jendouba region of Tunisia. It is known for its well-preserved ruins, including an amphitheater, temples, and a subterranean market. The city is also home to several important mosaics and statues. Bulla Regia offers a glimpse into the Roman Empire's past and is a popular tourist destination.
+JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.
+Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. 
+kskrwt kftjy ftHy/sandwich kaftaji is a fast food restaurant located in Jendouba, Tunisia. It is rated 5.0 stars out of 1 reviews on Google and is known for its sandwich kaftaji. The restaurant's coordinates are (36.4976753, 8.7777625).
+Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).
+Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.
+Station Louages Jendouba-bBousalem, situated in Jendouba, Tunisia (GPS:36.4976753, 8.7777625), is a transportation service provider.
+**Gare Ferroviaire de Jendouba : A Railway Station in Jendouba, Tunisia**
+A vital transport hub located at the coordinates (36.5011879, 8.7780214) in Jendouba, Gare Ferroviaire de Jendouba is the primary railway station of the city. The station boasts 3.2 out of 5 stars as per user reviews.
+Located in Jendouba, Station des Autobus #2 is a bus station that offers convenient transportation services. Its exact coordinates are (5.4744717, -3.8045517), making it easily accessible for commuters.
+Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It is a central hub for public transportation in the city, offering connections to other cities and towns in the region. The station is conveniently located near the city center, making it easy for travelers to access. It features a variety of amenities, including a waiting area, ticket counters, and restrooms. The station is also wheelchair accessible.
+Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3792,12 +5173,60 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>In Jendouba, visit Pizza woods Lounge Jendouba at P6, Jendouba for an enjoyable time. Ideal for Salon de the enthusiasts, it offers a range of options like Salon de the, Restaurant servant le petit-dejeuner, Restaurant brunch, Cafe, Creperie, Bar a chicha, Bar lounge, Restaurant de plats a emporter, Pizzeria, Restaurant. Rated 4.5, it's a popular spot. It's open 24 hours a day. For more details, call 93 012 000 or visit their website.</t>
+          <t>Pizza Woods Lounge Jendouba is a well-rated (4.5) restaurant located in Jendouba, Tunisia (lon: 8.7777625, lat: 36.4976753), open 24/7 and offering a variety of services such as breakfast, brunch, a lounge bar, and takeaway options.</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>Where in Jendouba can you enjoy a range of dining and relaxation options at a popular spot open around the clock?</t>
+          <t>Day Plan:
+Morning: Explore the ancient Roman ruins of Bulla Regia, a UNESCO World Heritage site.
+Mid-Morning: Enjoy breakfast and a refreshing beverage at Pizza Woods Lounge, known for its delicious and varied menu.
+Midday: Visit the Jendouba Museum, where you can learn about the history, culture, and art of the region.
+Afternoon: Take a stroll through the picturesque Parc d'Ennour, a botanical garden with stunning vistas.
+Evening: Dig into the flavors of traditional Tunisian cuisine at Restaurant Le Golf, known for its mouthwatering dishes and warm ambience.
+Night: Relax and rewind with a refreshing drink and live music at Jasmine, a cozy bar lounge.</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Podium is a highly-rated establishment in Jendouba, boasting an impressive 4.5 out of 5 rating with 6 positive reviews. Located at GQ4R+HM6 on the main road of Al Habib Bourguiba, this cafe offers an inviting ambiance and a welcoming atmosphere. While specific details of its offerings are not available, Cafe Podium is known for its quality beverages and a cozy ambiance that makes it a popular destination for locals and visitors alike.
+Welcome to Pizza Woods Lounge in Jendouba, Tunisia! We offer a comfortable and inviting atmosphere for you to relax with friends and family. Enjoy our delicious pizzas, crepes, and other breakfast, brunch, and lunch options. We also serve a variety of beverages, including coffee, tea, and juices. Our team is dedicated to providing exceptional service and creating a memorable dining experience for all our guests. Visit us today at our convenient location at Pizza woods Lounge Jendouba, P6, Jendouba, and indulge in the ultimate culinary and social experience. We are open 24 hours a day, so come in anytime!
+Restaurant Le Golf is a highly-rated restaurant located in Jendouba, Tunisia, with a rating of 4.7 out of 5 based on 3 reviews. It is known for its delicious food and excellent service, making it a popular destination for locals and tourists alike. The restaurant is conveniently located at latitude 36.5796825 and longitude 8.5201874, making it easy to find and visit.
+Bulla Regia, an archaeological site in Jendouba, Tunisia, boasts a 4.7-star rating with 300 reviews and exhibits impressive Roman ruins. At coordinates (36.55696, 8.74538), it features well-preserved mosaics, villas, and underground structures, making it a popular tourist attraction.
+JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.
+Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. 
+Restaurant Mio Mondo, located in Jendouba (coordinates: 36.4976753, 8.7777625), is a fast food restaurant that offers a wide variety of dishes to suit all tastes. Open from 9:00 AM to 10:00 PM, this establishment has received a rating of 5.0 out of 5 based on two reviews. In addition to its excellent ratings, Restaurant Mio Mondo is also praised for its delicious food and friendly staff. Whether you are looking for a quick bite to eat or a more leisurely dining experience, Restaurant Mio Mondo is sure to have something to satisfy your cravings.
+Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).
+Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.
+Located in Enour, Jendouba, Station Louages Jendouba-bBousalem offers reliable transportation services. It operates 24 hours a day, providing convenient travel options for locals and visitors alike. With its prime location and dedication to customer satisfaction, it has earned a 5.0 rating from its customers.
+**Gare Ferroviaire de Jendouba : A Railway Station in Jendouba, Tunisia**
+A vital transport hub located at the coordinates (36.5011879, 8.7780214) in Jendouba, Gare Ferroviaire de Jendouba is the primary railway station of the city. The station boasts 3.2 out of 5 stars as per user reviews.
+Station des Autobus #2 is a bus station located in Jendouba, Tunisia. It offers bus services to various destinations within Tunisia and neighboring countries. The station is conveniently located in the city center, making it easily accessible by foot or public transportation. It provides a comfortable waiting area for passengers, with amenities such as restrooms and a snack bar. Passengers can also find information about bus schedules and fares at the station's ticket counter. With its central location and convenient amenities, Station des Autobus #2 is a valuable resource for travelers in Jendouba.
+Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It is a central hub for public transportation in the city, offering connections to other cities and towns in the region. The station is conveniently located near the city center, making it easy for travelers to access. It features a variety of amenities, including a waiting area, ticket counters, and restrooms. The station is also wheelchair accessible.
+Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3903,14 +5332,59 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for something fun to do, check out ALMAS located at ALMAS, P6, Jendouba. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant, Salon de the to choose from. 
-With a rating of 4.2, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 36.4976753, 8.7777625. For more details, visit their website or call them at 24 888 838.</t>
+          <t>ALMAS is a restaurant and tea room located in Jendouba, Tunisia. It is open from 6:00 AM to midnight and has a rating of 4.2 out of 5 stars based on 29 reviews. The restaurant's featured image shows a photo of the exterior of the building.</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>Where in Jendouba can you indulge in Restaurant and Salon de the at a top-rated destination (rating of 4.2) open from 6:00 AM to 12:00 AM?</t>
+          <t>Day Plan:
+Morning: Exploring Bulla Regia, an ancient Roman city with well-preserved ruins
+Mid-Morning: Visiting the Gare Ferroviaire de Jendouba, a train station offering convenient transportation services
+Midday: Trying local cuisine at Pizzeria la Reine jendouba, offering Italian cuisine with a 4.0 rating
+Afternoon: Enjoying scenic views at JENDOUBA, an administrative center with a high rating and positive reviews
+Evening: Participating in a guided tour of the Gare 9 Avril Autobus, a bus stop with a 4.0 rating and popular among locals and tourists
+Night: Relaxing with a drink at the Jasmine bar lounge, offering a cozy ambiance and a variety of beverages</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Boujnene is a cafe located in Jendouba, Tunisia at coordinates (36.4976753, 8.7777625). It is open from 06:00-00:00 and has a rating of 4.0 based on 2 reviews.
+Pizza woods Lounge Jendouba is a popular hangout spot in Jendouba. It offers a wide range of food and drinks, including pizza, breakfast, brunch, coffee, crepes, shisha, cocktails, and more. The lounge is open 24 hours a day and is located at Pizza woods Lounge Jendouba, P6, Jendouba. It has received mostly positive reviews from customers, with an average rating of 4.5 out of 5 stars.
+Pizzeria la Reine jendouba is a restaurant located in jendouba (coordinates: (36.4976753, 8.7777625)) offering a 4.0 rating out of 4 reviews. It offers Italian cuisine and is open from 08:00-22:00.
+Bulla Regia is an ancient Roman city located in the Jendouba region of Tunisia. It is known for its well-preserved ruins, including an amphitheater, temples, and a subterranean market. The city is also home to several important mosaics and statues. Bulla Regia offers a glimpse into the Roman Empire's past and is a popular tourist destination.
+JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.
+Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. 
+ALI BRIKA is a renowned fast food restaurant in ALI BRIKA, Jendouba. It's conveniently located at coordinates (36.4976753, 8.7777625). With a perfect 5.0 rating based on 2 reviews, it has consistently satisfied its customers with its delectable cuisine.
+Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).
+Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.
+The Société de Transport Régionale Jendouba (STRJ) is a transport company located in Jendouba, Tunisia. The company offers a variety of transport services, including bus and taxi services. The STRJ is located at coordinates (36.4976753, 8.7777625) and has a rating of 3.8 out of 5 on Google Maps. The company's website is http://www.srtj.com.tn/.
+Gare Ferroviaire de Jendouba is a train station located in Jendouba, Tunisia. It offers train services to various destinations within Tunisia, providing convenient transportation for locals and visitors alike. It is situated at the coordinates (36.5011879, 8.7780214), making it easily accessible for travelers.
+Located in Jendouba, Station des Autobus #2 is a bus station that offers convenient transportation services. Its exact coordinates are (5.4744717, -3.8045517), making it easily accessible for commuters.
+Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It offers public transportation services to various destinations. The station is conveniently located at the coordinates (36.4976753, 8.7777625), making it easily accessible for travelers.
+Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4012,12 +5486,59 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>Head to La cabane in Jendouba for an excellent dining experience. This highly-rated restaurant is a top destination for food enthusiasts, offering a variety of culinary delights. With a rating of 4.3, you're sure to have a satisfying meal. La cabane is open from 12:00 PM to 11:00 PM, so visit during those hours for a fantastic culinary adventure. For more details, check out their website at https://www.google.com/maps/place/La+cabane/data=!4m7!3m6!1s0x12fb1329cce9753f:0x82948907b2cca7ca!8m2!3d36.5001426!4d8.793056!16s%2Fg%2F11p5mns9l9!19sChIJP3XpzCkT-xIRyqfMsgeJlII?authuser=0&amp;hl=fr&amp;rclk=1 or call them at [phone number].</t>
+          <t>La cabane is a top-rated restaurant located at GQ2V+363, Jendouba, Tunisia. It offers a cozy ambiance and a diverse menu specializing in [cuisine-type] dishes. Patrons rave about the delicious food, attentive service, and pleasant atmosphere. La cabane is open from 12:00 pm to 11:00 pm and reservations are recommended to secure a table.</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>Where can you enjoy a highly-rated dining experience in Jendouba, known for its culinary delights and open during specific hours?</t>
+          <t>Day Plan:
+Morning: Explore Bulla Regia, an archaeological site with well-preserved Roman ruins.
+Mid-Morning: Visit Gare Ferroviaire de Jendouba, a train station offering services to various destinations.
+Midday: Try local cuisine at Restaurant Mio Mondo, a fast food restaurant with a wide variety of dishes.
+Afternoon: Relax with a massage at a spa or hotel.
+Evening: Participate in an event or activity at the Société de Transport Régionale Jendouba (STRJ), a transport company that offers a variety of services.
+Night: Engage in cultural immersion at a museum or cultural site, such as La cabane, a top-rated restaurant with a cozy ambiance and a diverse menu.</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled in the heart of Jendouba, Cafe the time is an exceptional destination for coffee enthusiasts. Located at coordinates (36.4976753, 8.7777625), the cafe boasts a cozy ambiance and a wide selection of tantalizing beverages. Its featured image showcases a glimpse of its welcoming interior, inviting visitors to indulge in its aromatic creations.
+Welcome to Pizza Woods Lounge in Jendouba, Tunisia! We offer a comfortable and inviting atmosphere for you to relax with friends and family. Enjoy our delicious pizzas, crepes, and other breakfast, brunch, and lunch options. We also serve a variety of beverages, including coffee, tea, and juices. Our team is dedicated to providing exceptional service and creating a memorable dining experience for all our guests. Visit us today at our convenient location at Pizza woods Lounge Jendouba, P6, Jendouba, and indulge in the ultimate culinary and social experience. We are open 24 hours a day, so come in anytime!
+La cabane is a top-rated restaurant located at GQ2V+363, Jendouba, Tunisia. It offers a cozy ambiance and a diverse menu specializing in [cuisine-type] dishes. Patrons rave about the delicious food, attentive service, and pleasant atmosphere. La cabane is open from 12:00 pm to 11:00 pm and reservations are recommended to secure a table.
+Bulla Regia, an archaeological site in Jendouba, Tunisia, boasts a 4.7-star rating with 300 reviews and exhibits impressive Roman ruins. At coordinates (36.55696, 8.74538), it features well-preserved mosaics, villas, and underground structures, making it a popular tourist attraction.
+JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.
+Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. 
+Restaurant Mio Mondo, located in Jendouba (coordinates: 36.4976753, 8.7777625), is a fast food restaurant that offers a wide variety of dishes to suit all tastes. Open from 9:00 AM to 10:00 PM, this establishment has received a rating of 5.0 out of 5 based on two reviews. In addition to its excellent ratings, Restaurant Mio Mondo is also praised for its delicious food and friendly staff. Whether you are looking for a quick bite to eat or a more leisurely dining experience, Restaurant Mio Mondo is sure to have something to satisfy your cravings.
+Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).
+Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.
+The Société de Transport Régionale Jendouba (STRJ) is a transport company located in Jendouba, Tunisia. The company offers a variety of transport services, including bus and taxi services. The STRJ is located at coordinates (36.4976753, 8.7777625) and has a rating of 3.8 out of 5 on Google Maps. The company's website is http://www.srtj.com.tn/.
+Gare Ferroviaire de Jendouba is a train station located in Jendouba, Tunisia. It offers train services to various destinations within Tunisia, providing convenient transportation for locals and visitors alike. It is situated at the coordinates (36.5011879, 8.7780214), making it easily accessible for travelers.
+Station des Autobus #2 is a bus station located in Jendouba, Tunisia. It offers bus services to various destinations within Tunisia and neighboring countries. The station is conveniently located in the city center, making it easily accessible by foot or public transportation. It provides a comfortable waiting area for passengers, with amenities such as restrooms and a snack bar. Passengers can also find information about bus schedules and fares at the station's ticket counter. With its central location and convenient amenities, Station des Autobus #2 is a valuable resource for travelers in Jendouba.
+Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It offers public transportation services to various destinations. The station is conveniently located at the coordinates (36.4976753, 8.7777625), making it easily accessible for travelers.
+Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4119,12 +5640,66 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>If you're in Jendouba and looking for a great place to grab a coffee, check out Cafe Olympic located at GQ2J+RHJ cafe olympic, Enour, Jendouba. This top-rated destination is perfect for cafe lovers. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 07:00-22:00. To get there, use these GPS coordinates: 36.4976753, 8.7777625. For more details, visit their website at https://www.google.com/maps/place/cafe+olympic/data=!4m7!3m6!1s0x12fb13ad574ff357:0x9139f3f252be500b!8m2!3d36.5020841!4d8.7813874!16s%2Fg%2F11g6j86t7j!19sChIJV_NPV60T-xIRC1C-UvLzOZE?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Cafe Olympic is a cafe located in the city of Jendouba, Tunisia. It has a rating of 4.4 out of 5 stars based on 10 reviews and is open from 7:00 AM to 10:00 PM. Unfortunately, we do not have any information on its menu or special features at this time.</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>Where in Jendouba can you find Cafe Olympic, a top-rated destination for cafe enthusiasts with a rating of 4.4?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the archaeological ruins of **Bulla Regia**
+**Mid-Morning:**
+- Visit **Societe De Transport Regional Jendouba** for local transportation services
+**Midday:**
+- Try local cuisine at **Restaurant SIDI ASSAM**, famous for its family-friendly atmosphere
+**Afternoon:**
+- Discover the local flavors at **Cafe Boujnene**, known for its warm ambiance and delicious beverages
+**Evening:**
+- Catch a train at **Gare Ferroviaire de Jendouba** for a scenic ride and exploration
+**Night:**
+- Shop for local souvenirs at the **JENDOUBA** marketplace</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>Given these locations:
+At the heart of Jendouba, Cafe Boujnene is a local favorite with a warm and welcoming atmosphere. Located at (36.4976753, 8.7777625), this cafe offers an exquisite blend of beverages and delectable treats. With a 4-star rating and 2 positive reviews, Cafe Boujnene has earned a reputation for its cozy ambiance and exceptional service.
+Pizza Woods Lounge Jendouba is a well-rated (4.5) restaurant located in Jendouba, Tunisia (lon: 8.7777625, lat: 36.4976753), open 24/7 and offering a variety of services such as breakfast, brunch, a lounge bar, and takeaway options.
+Pizzeria la Reine jendouba is a restaurant located in jendouba (coordinates: (36.4976753, 8.7777625)) offering a 4.0 rating out of 4 reviews. It offers Italian cuisine and is open from 08:00-22:00.
+Bulla Regia, an archaeological site in Jendouba, Tunisia, boasts a 4.7-star rating with 300 reviews and exhibits impressive Roman ruins. At coordinates (36.55696, 8.74538), it features well-preserved mosaics, villas, and underground structures, making it a popular tourist attraction.
+JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.
+Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. 
+Restaurant Mio Mondo, located in Jendouba (coordinates: 36.4976753, 8.7777625), is a fast food restaurant that offers a wide variety of dishes to suit all tastes. Open from 9:00 AM to 10:00 PM, this establishment has received a rating of 5.0 out of 5 based on two reviews. In addition to its excellent ratings, Restaurant Mio Mondo is also praised for its delicious food and friendly staff. Whether you are looking for a quick bite to eat or a more leisurely dining experience, Restaurant Mio Mondo is sure to have something to satisfy your cravings.
+Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).
+Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.
+Societe De Transport Regional Jendouba is a transport service located in Jendouba, Tunisia. Its coordinates are (36.4976753, 8.7777625). They offer various transport services and can be contacted at 78 600 690.
+**Gare Ferroviaire de Jendouba : A Railway Station in Jendouba, Tunisia**
+A vital transport hub located at the coordinates (36.5011879, 8.7780214) in Jendouba, Gare Ferroviaire de Jendouba is the primary railway station of the city. The station boasts 3.2 out of 5 stars as per user reviews.
+Located in Jendouba, Station des Autobus #2 is a bus station that offers convenient transportation services. Its exact coordinates are (5.4744717, -3.8045517), making it easily accessible for commuters.
+Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It is a central hub for public transportation in the city, offering connections to other cities and towns in the region. The station is conveniently located near the city center, making it easy for travelers to access. It features a variety of amenities, including a waiting area, ticket counters, and restrooms. The station is also wheelchair accessible.
+Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4226,14 +5801,60 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for something fun to do, check out Pizzeria Matador located at FQRP+Q6X Pizzeria Matador, Av. Khmais Hajri, Jendouba. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.4976753, 8.7777625. For more details, visit their website at  or call them at 93 125 162.</t>
+          <t>Pizzeria Matador, located in Jendouba (lon: 8.7777625 ; lat: 36.4976753), is a restaurant offering a variety of dishes. With a rating of 4.0 based on 7 reviews, it has a featured image, a link to its website, and a phone number.</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>If you're looking for a highly-rated dining destination in Jendouba that caters specifically to Restaurant enthusiasts, where can you go?</t>
+          <t>Day Plan:
+Morning: Start your day by exploring the ruins of Bulla Regia, an ancient Roman city with well-preserved structures like an amphitheater and subterranean market.
+Mid-Morning: Visit the Cafe Restaurant in Jendouba for a cozy ambiance and delectable coffee and light bites.
+Midday: Try local cuisine at Restaurant mT`m slTn@, which offers a 4.5-star rating and an extensive menu.
+Afternoon: Enjoy scenic views at JENDOUBA, an administrative center with a high rating and user reviews.
+Evening: Head to Jasmine, a cozy 4.2-rated bar lounge, for drinks and snacks with a local vibe.
+Night: Indulge in delicious food and friendly service at Restaurant Mio Mondo, a fast food restaurant with a 5.0 rating and a wide variety of dishes.</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Restaurant in Jendouba offers a cozy ambiance and delectable food. Located at (36.4976753, 8.7777625), the cafe is a popular spot for locals and tourists alike. Open from 6 AM to 12 AM, it provides an extensive menu with a focus on coffee and light bites. The cafe's 5-star rating, based on positive customer reviews, is a testament to its exceptional service and offerings.
+Welcome to Pizza Woods Lounge in Jendouba, Tunisia! We offer a comfortable and inviting atmosphere for you to relax with friends and family. Enjoy our delicious pizzas, crepes, and other breakfast, brunch, and lunch options. We also serve a variety of beverages, including coffee, tea, and juices. Our team is dedicated to providing exceptional service and creating a memorable dining experience for all our guests. Visit us today at our convenient location at Pizza woods Lounge Jendouba, P6, Jendouba, and indulge in the ultimate culinary and social experience. We are open 24 hours a day, so come in anytime!
+**Restaurant mT`m slTn@**
+Nestled in Jendouba at the coordinates (36.4976753, 8.7777625), Restaurant mT`m slTn@ boasts a 4.5-star rating and features an extensive menu of delectable dishes. Whether you're seeking a casual meal or a special dining experience, Restaurant mT`m slTn@ has something to offer.
+Bulla Regia is an ancient Roman city located in the Jendouba region of Tunisia. It is known for its well-preserved ruins, including an amphitheater, temples, and a subterranean market. The city is also home to several important mosaics and statues. Bulla Regia offers a glimpse into the Roman Empire's past and is a popular tourist destination.
+JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.
+Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. 
+Restaurant Mio Mondo, located in Jendouba (coordinates: 36.4976753, 8.7777625), is a fast food restaurant that offers a wide variety of dishes to suit all tastes. Open from 9:00 AM to 10:00 PM, this establishment has received a rating of 5.0 out of 5 based on two reviews. In addition to its excellent ratings, Restaurant Mio Mondo is also praised for its delicious food and friendly staff. Whether you are looking for a quick bite to eat or a more leisurely dining experience, Restaurant Mio Mondo is sure to have something to satisfy your cravings.
+Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).
+Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.
+Station Louages Jendouba-bBousalem, situated in Jendouba, Tunisia (GPS:36.4976753, 8.7777625), is a transportation service provider.
+Gare Ferroviaire de Jendouba is a train station located in Jendouba, Tunisia. It offers train services to various destinations within Tunisia, providing convenient transportation for locals and visitors alike. It is situated at the coordinates (36.5011879, 8.7780214), making it easily accessible for travelers.
+Located in Jendouba, Station des Autobus #2 is a bus station that offers convenient transportation services. Its exact coordinates are (5.4744717, -3.8045517), making it easily accessible for commuters.
+Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It offers public transportation services to various destinations. The station is conveniently located at the coordinates (36.4976753, 8.7777625), making it easily accessible for travelers.
+Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4331,14 +5952,59 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for a top-rated Restaurant, check out Restaurant sidi bou said located at FQXH+MR9 Restaurant sidi bou said, Jendouba. 
-This Restaurant is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. 
-With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 36.4976753, 8.7777625. For more details, visit their website at https://www.google.com/maps/place/Restaurant+sidi+bou+said/data=!4m7!3m6!1s0x12fb137618c23a85:0xf583fc906dfe712d!8m2!3d36.4991514!4d8.779614!16s%2Fg%2F11mbpx33k3!19sChIJhTrCGHYT-xIRLXH-bZD8g_U?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 5436.</t>
+          <t>Restaurant Sidi Bou Said is a highly-rated restaurant located in the city of Jendouba, Tunisia, offering a delectable dining experience. Situated at coordinates (36.4976753, 8.7777625), the restaurant boasts a rating of 4.4 out of 5 based on 5 reviews. Although its website is unavailable, it offers a featured image to showcase its ambiance.</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Restaurant with a variety of options in Jendouba?</t>
+          <t>Day Plan:
+Morning: Explore the ancient ruins of Bulla Regia, a well-preserved Roman city with impressive amphitheaters, temples, and mosaics.
+Mid-Morning: Visit the scenic Jebel Abiod National Park, renowned for its stunning landscapes, abundant wildlife, and opportunities for hiking and birdwatching.
+Midday: Indulge in authentic Tunisian cuisine at Restaurant SIDI ASSAM, known for its exquisite family-style dining experience.
+Afternoon: Take a stroll through the bustling city center of Jendouba, visit the lively markets, and shop for local handicrafts and souvenirs.
+Evening: Experience the vibrant atmosphere of Pizza Woods Lounge Jendouba, a popular hangout spot offering delicious food, refreshing drinks, and exciting nightlife.
+Night: Relax and rejuvenate at the luxurious Hotel Dar Jendouba, known for its elegant accommodations, exceptional amenities, and personalized service.</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Ilyes in Jendouba is a highly rated cafe, open 24 hours a day, offering a welcoming atmosphere for locals and visitors alike. With a 5.0 rating based on 2 reviews, Cafe Ilyes has established itself as a popular destination for coffee lovers in the area. Located at GQ57+37P Cafe ilyes /mqh~ lys, Jendouba, the cafe's convenient location makes it easily accessible.
+Pizza woods Lounge Jendouba is a popular hangout spot in Jendouba. It offers a wide range of food and drinks, including pizza, breakfast, brunch, coffee, crepes, shisha, cocktails, and more. The lounge is open 24 hours a day and is located at Pizza woods Lounge Jendouba, P6, Jendouba. It has received mostly positive reviews from customers, with an average rating of 4.5 out of 5 stars.
+Nestled amidst the vibrant city of Jendouba, coordinates (36.4976753, 8.7777625), fD 'lf lyl@ w lyl@ boasts a delectable dining experience with an impressive rating of 4.4. Known for its mouthwatering dishes, fD 'lf lyl@ w lyl@ invites you to savor the flavors of authentic cuisine.
+Bulla Regia is an ancient Roman city located in the Jendouba region of Tunisia. It is known for its well-preserved ruins, including an amphitheater, temples, and a subterranean market. The city is also home to several important mosaics and statues. Bulla Regia offers a glimpse into the Roman Empire's past and is a popular tourist destination.
+JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.
+Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. 
+ALI BRIKA is a renowned fast food restaurant in ALI BRIKA, Jendouba. It's conveniently located at coordinates (36.4976753, 8.7777625). With a perfect 5.0 rating based on 2 reviews, it has consistently satisfied its customers with its delectable cuisine.
+Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).
+Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.
+Located in Enour, Jendouba, Station Louages Jendouba-bBousalem offers reliable transportation services. It operates 24 hours a day, providing convenient travel options for locals and visitors alike. With its prime location and dedication to customer satisfaction, it has earned a 5.0 rating from its customers.
+Gare Ferroviaire de Jendouba is a train station located in Jendouba, Tunisia. It offers train services to various destinations within Tunisia, providing convenient transportation for locals and visitors alike. It is situated at the coordinates (36.5011879, 8.7780214), making it easily accessible for travelers.
+Located in Jendouba, Station des Autobus #2 is a bus station that offers convenient transportation services. Its exact coordinates are (5.4744717, -3.8045517), making it easily accessible for commuters.
+Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It is a central hub for public transportation in the city, offering connections to other cities and towns in the region. The station is conveniently located near the city center, making it easy for travelers to access. It features a variety of amenities, including a waiting area, ticket counters, and restrooms. The station is also wheelchair accessible.
+Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4440,14 +6106,59 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>If you're in jendouba, check out fD 'lf lyl@ w lyl@ at GR63+WX4 fD 'lf lyl@ w lyl@, P6. 
-This top-rated destination is perfect for Restaurant lovers. 
-With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 36.4976753, 8.7777625. For more details, visit their website or call them at 25 163 833.</t>
+          <t>Nestled amidst the vibrant city of Jendouba, coordinates (36.4976753, 8.7777625), fD 'lf lyl@ w lyl@ boasts a delectable dining experience with an impressive rating of 4.4. Known for its mouthwatering dishes, fD 'lf lyl@ w lyl@ invites you to savor the flavors of authentic cuisine.</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>What highly-rated restaurant in Jendouba is a must-visit destination for food enthusiasts, located at GR63+WX4, with GPS coordinates 36.4976753, 8.7777625?</t>
+          <t>Day Plan:
+Morning: Explore Bulla Regia, an archaeological site showcasing impressive Roman ruins.
+Mid-Morning: Visit the Jendouba administrative center for a cultural immersion.
+Midday: Try local cuisine at Restaurant Sidi Bou Said for a delectable dining experience.
+Afternoon: Relax with a drink and snacks at the Jasmine bar lounge while enjoying the cozy ambiance.
+Evening: Engage in outdoor activities like hiking or biking at a nearby park or outdoor location.
+Night: Experience cultural immersion at the mqh~ l'hrm cafe while enjoying a traditional Tunisian meal.</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>Given these locations:
+mqh~ l'hrm is a cafe located in Jendouba, Tunisia. It offers a cozy ambiance with a rating of 4.0 stars. Its exact location is at the coordinates (36.4976753, 8.7777625), and the link to its Google Maps page is https://www.google.com/maps/place/%D9%85%D9%82%D9%87%D9%89+%D8%A7%D9%84%D8%A3%D9%87%D8%B1%D8%A7%D9%85%E2%80%AD/data=!4m7!3m6!1s0x12fb13314e54d88f:0x744723e3862ba044!8m2!3d36.5094914!4d8.7987429!16s%2Fg%2F11ghs512rx!19sChIJj9hUTjET-xIRRKArhuMjR3Q?authuser=0&amp;hl=fr&amp;rclk=1.
+Salon de the Jazz is a popular tea room in Jendouba, Tunisia, located at coordinates (36.4976753, 8.7777625). With a rating of 4.3 based on 15 reviews, it's a great place to relax and enjoy a cup of tea.
+Restaurant Sidi Bou Said is a highly-rated restaurant located in the city of Jendouba, Tunisia, offering a delectable dining experience. Situated at coordinates (36.4976753, 8.7777625), the restaurant boasts a rating of 4.4 out of 5 based on 5 reviews. Although its website is unavailable, it offers a featured image to showcase its ambiance.
+Bulla Regia, an archaeological site in Jendouba, Tunisia, boasts a 4.7-star rating with 300 reviews and exhibits impressive Roman ruins. At coordinates (36.55696, 8.74538), it features well-preserved mosaics, villas, and underground structures, making it a popular tourist attraction.
+JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.
+Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. 
+kskrwt kftjy ftHy/sandwich kaftaji is a fast food restaurant located in Jendouba, Tunisia. It is rated 5.0 stars out of 1 reviews on Google and is known for its sandwich kaftaji. The restaurant's coordinates are (36.4976753, 8.7777625).
+Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).
+Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.
+Societe De Transport Regional Jendouba is a transport service located in Jendouba, Tunisia. Its coordinates are (36.4976753, 8.7777625). They offer various transport services and can be contacted at 78 600 690.
+Gare Ferroviaire de Jendouba is a train station located in Jendouba, Tunisia. It offers train services to various destinations within Tunisia, providing convenient transportation for locals and visitors alike. It is situated at the coordinates (36.5011879, 8.7780214), making it easily accessible for travelers.
+Located in Jendouba, Station des Autobus #2 is a bus station that offers convenient transportation services. Its exact coordinates are (5.4744717, -3.8045517), making it easily accessible for commuters.
+Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It offers public transportation services to various destinations. The station is conveniently located at the coordinates (36.4976753, 8.7777625), making it easily accessible for travelers.
+Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4553,14 +6264,60 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for something fun to do, check out Le Baril - Restaurant located at GQ5Q+CP5 Le Baril - Restaurant, Jendouba. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:00-20:00. To get there, use these GPS coordinates: 36.4976753, 8.7777625. For more details, call them at 54 427 163.</t>
+          <t>Le Baril Restaurant, located in Jendouba, Tunisia, offers a delightful dining experience. Rated 5.0 with 4 reviews, it is known for its delectable cuisine and cozy atmosphere. Open daily from 09:00 to 20:00, the restaurant invites guests to savor its culinary creations and relax in its warm ambiance. Its approximate location is (36.4976753, 8.7777625).</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>What is the highly-rated restaurant destination located in Jendouba, renowned for its exceptional dining experiences and convenient hours of operation?</t>
+          <t>Day Plan:
+Morning: Explore the Roman ruins of Bulla Regia.
+Mid-Morning: Visit Le Baril Restaurant for a delightful lunch experience and savor the delectable cuisine.
+Midday: Engage in outdoor activities like hiking or biking at Besh Besh foods.
+Afternoon: Immerse in the local culture at Station Routierre de Transport en Commun de Jendouba.
+Evening: Enjoy scenic views at Restaurant Mio Mondo while indulging in delicious food and friendly service.
+Night: Participate in the vibrant nightlife at Gare 9 Avril Autobus, where you can socialize and experience the lively atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Ben Henda is a highly-rated cafe located in Jendouba, Tunisia. It offers a cozy ambiance with a rating of 4.6 out of 5 from 8 reviews. The cafe is conveniently situated at the coordinates (36.4976753, 8.7777625) on Ezghadiya Main Avenue.
+Welcome to Pizza Woods Lounge in Jendouba, Tunisia! We offer a comfortable and inviting atmosphere for you to relax with friends and family. Enjoy our delicious pizzas, crepes, and other breakfast, brunch, and lunch options. We also serve a variety of beverages, including coffee, tea, and juices. Our team is dedicated to providing exceptional service and creating a memorable dining experience for all our guests. Visit us today at our convenient location at Pizza woods Lounge Jendouba, P6, Jendouba, and indulge in the ultimate culinary and social experience. We are open 24 hours a day, so come in anytime!
+Le Baril Restaurant, located in Jendouba, Tunisia, offers a delightful dining experience. Rated 5.0 with 4 reviews, it is known for its delectable cuisine and cozy atmosphere. Open daily from 09:00 to 20:00, the restaurant invites guests to savor its culinary creations and relax in its warm ambiance. Its approximate location is (36.4976753, 8.7777625).
+Bulla Regia, an archaeological site in Jendouba, Tunisia, boasts a 4.7-star rating with 300 reviews and exhibits impressive Roman ruins. At coordinates (36.55696, 8.74538), it features well-preserved mosaics, villas, and underground structures, making it a popular tourist attraction.
+JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.
+Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. 
+Restaurant Mio Mondo, located in Jendouba (coordinates: 36.4976753, 8.7777625), is a fast food restaurant that offers a wide variety of dishes to suit all tastes. Open from 9:00 AM to 10:00 PM, this establishment has received a rating of 5.0 out of 5 based on two reviews. In addition to its excellent ratings, Restaurant Mio Mondo is also praised for its delicious food and friendly staff. Whether you are looking for a quick bite to eat or a more leisurely dining experience, Restaurant Mio Mondo is sure to have something to satisfy your cravings.
+Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).
+Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.
+Station Louages Jendouba-bBousalem, situated in Jendouba, Tunisia (GPS:36.4976753, 8.7777625), is a transportation service provider.
+**Gare Ferroviaire de Jendouba : A Railway Station in Jendouba, Tunisia**
+A vital transport hub located at the coordinates (36.5011879, 8.7780214) in Jendouba, Gare Ferroviaire de Jendouba is the primary railway station of the city. The station boasts 3.2 out of 5 stars as per user reviews.
+Station des Autobus #2 is a bus station located in Jendouba, Tunisia. It offers bus services to various destinations within Tunisia and neighboring countries. The station is conveniently located in the city center, making it easily accessible by foot or public transportation. It provides a comfortable waiting area for passengers, with amenities such as restrooms and a snack bar. Passengers can also find information about bus schedules and fares at the station's ticket counter. With its central location and convenient amenities, Station des Autobus #2 is a valuable resource for travelers in Jendouba.
+Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It offers public transportation services to various destinations. The station is conveniently located at the coordinates (36.4976753, 8.7777625), making it easily accessible for travelers.
+Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4662,12 +6419,66 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for a great place to eat, check out Pizzeria la Reine jendouba at GQ56+QWQ. This top-rated restaurant serves delicious food and offers a range of options to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 08:00-22:00, but closed on []. To get there, use these GPS coordinates: 36.4976753, 8.7777625. You can also call them at 53 169 171 for more details.</t>
+          <t>Pizzeria la Reine jendouba is a restaurant located in jendouba (coordinates: (36.4976753, 8.7777625)) offering a 4.0 rating out of 4 reviews. It offers Italian cuisine and is open from 08:00-22:00.</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated pizzeria in Jendouba with GPS coordinates of 36.4976753, 8.7777625, offering a wide menu and a rating of 4.0?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the impressive Roman ruins at Bulla Regia, a UNESCO World Heritage Site.
+**Mid-Morning:**
+- Visit the Jendouba Archaeological Museum to learn about the rich history of the region.
+**Midday:**
+- Savor local cuisine at the highly-rated Restaurant Mio Mondo, known for its delicious food and friendly staff.
+**Afternoon:**
+- Immerse yourself in the bustling atmosphere of the Jendouba Souk, where you can browse traditional crafts and souvenirs.
+**Evening:**
+- Enjoy a relaxing stroll through Parc du 17 Decembre, a local park with scenic views.
+**Night:**
+- Embark on a guided tour of **Gare Ferroviaire de Jendouba**, the city's historic railway station, offering insights into its architectural and historical significance.</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Podium is a highly-rated establishment in Jendouba, boasting an impressive 4.5 out of 5 rating with 6 positive reviews. Located at GQ4R+HM6 on the main road of Al Habib Bourguiba, this cafe offers an inviting ambiance and a welcoming atmosphere. While specific details of its offerings are not available, Cafe Podium is known for its quality beverages and a cozy ambiance that makes it a popular destination for locals and visitors alike.
+Pizza Woods Lounge Jendouba is a well-rated (4.5) restaurant located in Jendouba, Tunisia (lon: 8.7777625, lat: 36.4976753), open 24/7 and offering a variety of services such as breakfast, brunch, a lounge bar, and takeaway options.
+ALMAS is a restaurant located in Jendouba, Tunisia, offering a delightful dining experience with a 4.2-star rating from 29 reviews. The establishment is open daily from 06:00 to 00:00, except for holidays. ALMAS offers a cozy ambiance as a restaurant and salon de thé, making it a perfect spot for both casual dining and relaxing with friends. Its convenient location, at coordinates (36.4976753, 8.7777625), makes it easily accessible to visitors seeking a memorable culinary adventure in Jendouba.
+Bulla Regia, an archaeological site in Jendouba, Tunisia, boasts a 4.7-star rating with 300 reviews and exhibits impressive Roman ruins. At coordinates (36.55696, 8.74538), it features well-preserved mosaics, villas, and underground structures, making it a popular tourist attraction.
+JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.
+Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. 
+Restaurant Mio Mondo, located in Jendouba (coordinates: 36.4976753, 8.7777625), is a fast food restaurant that offers a wide variety of dishes to suit all tastes. Open from 9:00 AM to 10:00 PM, this establishment has received a rating of 5.0 out of 5 based on two reviews. In addition to its excellent ratings, Restaurant Mio Mondo is also praised for its delicious food and friendly staff. Whether you are looking for a quick bite to eat or a more leisurely dining experience, Restaurant Mio Mondo is sure to have something to satisfy your cravings.
+Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).
+Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.
+Station Louages Jendouba-bBousalem, situated in Jendouba, Tunisia (GPS:36.4976753, 8.7777625), is a transportation service provider.
+**Gare Ferroviaire de Jendouba : A Railway Station in Jendouba, Tunisia**
+A vital transport hub located at the coordinates (36.5011879, 8.7780214) in Jendouba, Gare Ferroviaire de Jendouba is the primary railway station of the city. The station boasts 3.2 out of 5 stars as per user reviews.
+Station des Autobus #2 is a bus station located in Jendouba, Tunisia. It offers bus services to various destinations within Tunisia and neighboring countries. The station is conveniently located in the city center, making it easily accessible by foot or public transportation. It provides a comfortable waiting area for passengers, with amenities such as restrooms and a snack bar. Passengers can also find information about bus schedules and fares at the station's ticket counter. With its central location and convenient amenities, Station des Autobus #2 is a valuable resource for travelers in Jendouba.
+Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It offers public transportation services to various destinations. The station is conveniently located at the coordinates (36.4976753, 8.7777625), making it easily accessible for travelers.
+Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4765,12 +6576,59 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for something fun to do, check out la tonelle located at GQ3P+7X6 la tonelle, rue les palmiers, Jendouba 8100. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:00-00:00, but closed on dimanche. To get there, use these GPS coordinates: 36.5796825, 8.5201874.</t>
+          <t>La Tonelle, a Restaurant located at GQ3P+7X6, rue les palmiers, Jendouba 8100, Tunisia, offers a delightful dining experience. With a 5.0 rating based on 4 reviews, La Tonelle has established itself as a top-rated establishment. It opens daily from 08:00-00:00, except on Sundays.</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>What is the name and location of the top-rated restaurant in Jendouba, known for its exceptional dining experience?</t>
+          <t>Day Plan:
+Morning: Visit Bulla Regia, an ancient Roman city with well-preserved ruins.
+Mid-Morning: Take a guided tour of Cafe Touerg, a highly-rated cafe known for its cozy ambiance and top-notch coffee.
+Midday: Try local cuisine at ALMAS, a restaurant and tea room with a 4.2-star rating.
+Afternoon: Enjoy scenic views at JENDOUBA, an administrative center with a 4.5-star rating.
+Evening: Participate in a cultural immersion experience at Salon de the Jazz, a tea room with a 4.3-star rating.
+Night: Relax with a drink and snacks at Jasmine, a 4.2-rated bar lounge.</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Touerg is a highly-rated cafe located in Jendouba, Tunisia. It holds a rating of 4.3 stars based on 21 reviews and is known for its cozy ambiance and top-notch coffee. Cafe Touerg opens early at 5 AM and stays open until midnight. The cafe offers a variety of coffee and tea options, as well as a selection of pastries and light snacks.
+Salon de the Jazz is a popular tea room in Jendouba, Tunisia, located at coordinates (36.4976753, 8.7777625). With a rating of 4.3 based on 15 reviews, it's a great place to relax and enjoy a cup of tea.
+ALMAS is a restaurant and tea room located in Jendouba, Tunisia. It is open from 6:00 AM to midnight and has a rating of 4.2 out of 5 stars based on 29 reviews. The restaurant's featured image shows a photo of the exterior of the building.
+Bulla Regia is an ancient Roman city located in the Jendouba region of Tunisia. It is known for its well-preserved ruins, including an amphitheater, temples, and a subterranean market. The city is also home to several important mosaics and statues. Bulla Regia offers a glimpse into the Roman Empire's past and is a popular tourist destination.
+JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.
+Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. 
+kskrwt kftjy ftHy/sandwich kaftaji is a fast food restaurant located in Jendouba, Tunisia. It is rated 5.0 stars out of 1 reviews on Google and is known for its sandwich kaftaji. The restaurant's coordinates are (36.4976753, 8.7777625).
+Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).
+Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.
+Located in Enour, Jendouba, Station Louages Jendouba-bBousalem offers reliable transportation services. It operates 24 hours a day, providing convenient travel options for locals and visitors alike. With its prime location and dedication to customer satisfaction, it has earned a 5.0 rating from its customers.
+Gare Ferroviaire de Jendouba is a train station located in Jendouba, Tunisia. It offers train services to various destinations within Tunisia, providing convenient transportation for locals and visitors alike. It is situated at the coordinates (36.5011879, 8.7780214), making it easily accessible for travelers.
+Station des Autobus #2 is a bus station located in Jendouba, Tunisia. It offers bus services to various destinations within Tunisia and neighboring countries. The station is conveniently located in the city center, making it easily accessible by foot or public transportation. It provides a comfortable waiting area for passengers, with amenities such as restrooms and a snack bar. Passengers can also find information about bus schedules and fares at the station's ticket counter. With its central location and convenient amenities, Station des Autobus #2 is a valuable resource for travelers in Jendouba.
+Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It offers public transportation services to various destinations. The station is conveniently located at the coordinates (36.4976753, 8.7777625), making it easily accessible for travelers.
+Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4876,12 +6734,59 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for a great place to eat, try Mayosa Cafe Resto at GQ37+VWC. This top-rated destination is perfect for restaurant lovers and offers a range of categories to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.4976753, 8.7777625. For more details, visit their website at https://www.facebook.com/Mayosa.resto/ or call them at 97 619 787.</t>
+          <t>Mayosa Cafe Resto is a restaurant located in Jendouba (Tunisia) with coordinates (36.4976753, 8.7777625) and a rating of 4.0.</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>Where can I find a highly rated restaurant with various dining options in Jendouba, Tunisia?</t>
+          <t>Day Plan:
+Morning: Exploring the ancient ruins of Bulla Regia to glimpse into the Roman Empire's legacy.
+Mid-Morning: Trying local cuisine at Restaurant SIDI ASSAM, renowned for its delicious food and family-friendly atmosphere.
+Midday: Visiting the JENDOUBA administrative center, appreciating its significance and learning about its significance.
+Afternoon: Taking a guided tour of Gare Ferroviaire de Jendouba, unraveling the transportation hub's importance in connecting Tunisia.
+Evening: Engaging in outdoor activities at Station des Autobus #2, experiencing the vibrant energy of locals and tourists.
+Night: Experiencing cultural immersion at JENDOUBA, immersing in the municipality's rich heritage and local traditions.</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe' kaies is a cafe located in cafe' kaies, P17, Jendouba, Tunisia, open 24 hours a day. It has a 4.8 rating with 4 reviews.
+Welcome to Pizza Woods Lounge in Jendouba, Tunisia! We offer a comfortable and inviting atmosphere for you to relax with friends and family. Enjoy our delicious pizzas, crepes, and other breakfast, brunch, and lunch options. We also serve a variety of beverages, including coffee, tea, and juices. Our team is dedicated to providing exceptional service and creating a memorable dining experience for all our guests. Visit us today at our convenient location at Pizza woods Lounge Jendouba, P6, Jendouba, and indulge in the ultimate culinary and social experience. We are open 24 hours a day, so come in anytime!
+Pizzeria la Reine jendouba is a restaurant located in jendouba (coordinates: (36.4976753, 8.7777625)) offering a 4.0 rating out of 4 reviews. It offers Italian cuisine and is open from 08:00-22:00.
+Bulla Regia is an ancient Roman city located in the Jendouba region of Tunisia. It is known for its well-preserved ruins, including an amphitheater, temples, and a subterranean market. The city is also home to several important mosaics and statues. Bulla Regia offers a glimpse into the Roman Empire's past and is a popular tourist destination.
+JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.
+Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. 
+Restaurant Mio Mondo, located in Jendouba (coordinates: 36.4976753, 8.7777625), is a fast food restaurant that offers a wide variety of dishes to suit all tastes. Open from 9:00 AM to 10:00 PM, this establishment has received a rating of 5.0 out of 5 based on two reviews. In addition to its excellent ratings, Restaurant Mio Mondo is also praised for its delicious food and friendly staff. Whether you are looking for a quick bite to eat or a more leisurely dining experience, Restaurant Mio Mondo is sure to have something to satisfy your cravings.
+Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).
+Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.
+The Société de Transport Régionale Jendouba (STRJ) is a transport company located in Jendouba, Tunisia. The company offers a variety of transport services, including bus and taxi services. The STRJ is located at coordinates (36.4976753, 8.7777625) and has a rating of 3.8 out of 5 on Google Maps. The company's website is http://www.srtj.com.tn/.
+Gare Ferroviaire de Jendouba is a train station located in Jendouba, Tunisia. It offers train services to various destinations within Tunisia, providing convenient transportation for locals and visitors alike. It is situated at the coordinates (36.5011879, 8.7780214), making it easily accessible for travelers.
+Located in Jendouba, Station des Autobus #2 is a bus station that offers convenient transportation services. Its exact coordinates are (5.4744717, -3.8045517), making it easily accessible for commuters.
+Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It is a central hub for public transportation in the city, offering connections to other cities and towns in the region. The station is conveniently located near the city center, making it easy for travelers to access. It features a variety of amenities, including a waiting area, ticket counters, and restrooms. The station is also wheelchair accessible.
+Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4987,13 +6892,59 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for a top-rated Restaurant, check out Le Sultan located at FQXF+4VX Le Sultan, P17, Jendouba. 
-With a rating of 5.0, it's a must-visit spot and offers a range of Restaurant categories to choose from. It's open during these hours: 06:00-23:00. To get there, use these GPS coordinates: 36.4976753, 8.7777625. For more details, visit their website at https://www.google.com/maps/place/Le+Sultan/data=!4m7!3m6!1s0x12fb13aefa51ebeb:0xe39630b6ce608df8!8m2!3d36.4978617!4d8.7747328!16s%2Fg%2F11j0byb6z3!19sChIJ6-tR-q4T-xIR-I1gzrYwluM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 90 707 888.</t>
+          <t>Le Sultan, a highly-rated restaurant located in Jendouba, Tunisia (36.4976753, 8.7777625), boasts a 5.0-star rating. It opens daily from 6:00 AM to 11:00 PM and is owned by "Le Sultan (proprietaire)". While the provided description is currently unavailable, the restaurant is known for its culinary offerings and has received positive reviews (3). More information can be found on its Google Maps page: https://www.google.com/maps/place/Le+Sultan/data=!4m7!3m6!1s0x12fb13aefa51ebeb:0xe39630b6ce608df8!8m2!3d36.4978617!4d8.7747328!16s%2Fg%2F11j0byb6z3!19sChIJ6-tR-q4T-xIR-I1gzrYwluM?authuser=0&amp;hl=fr&amp;rclk=1.</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>Which top-rated restaurant in Jendouba with a 5.0 rating offers a variety of dining options and is open from 6:00 AM to 11:00 PM?</t>
+          <t>Day Plan:
+Morning: Visit Bulla Regia, an archaeological site with impressive Roman ruins.
+Mid-Morning: Explore the Salon de thé Jazz, a popular tea room with a cozy atmosphere.
+Midday: Try local cuisine at fD 'lf lyl@ w lyl@, known for its authentic dishes.
+Afternoon: Relax at mqh~ lqrwy, a 4-star cafe offering a range of beverages, pastries, and sandwiches.
+Evening: Visit Gare Ferroviaire de Jendouba, a train station offering scenic views and convenient transportation.
+Night: Enjoy live music and a lively ambiance at Jasmine, a cozy bar lounge in the heart of Jendouba.</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>Given these locations:
+mqh~ lqrwy is a 4-star rated cafe located in Jendouba, Tunisia (GQ5P+VG5). Open 24 hours a day, it is conveniently situated just off the Jendouba-Tunis highway. The cafe offers a wide range of beverages, including coffee, tea, and juice, as well as pastries and sandwiches. It is a popular spot for locals and tourists alike to relax and enjoy a bite to eat.
+Salon de the Jazz is a popular tea room in Jendouba, Tunisia, located at coordinates (36.4976753, 8.7777625). With a rating of 4.3 based on 15 reviews, it's a great place to relax and enjoy a cup of tea.
+Nestled amidst the vibrant city of Jendouba, coordinates (36.4976753, 8.7777625), fD 'lf lyl@ w lyl@ boasts a delectable dining experience with an impressive rating of 4.4. Known for its mouthwatering dishes, fD 'lf lyl@ w lyl@ invites you to savor the flavors of authentic cuisine.
+Bulla Regia, an archaeological site in Jendouba, Tunisia, boasts a 4.7-star rating with 300 reviews and exhibits impressive Roman ruins. At coordinates (36.55696, 8.74538), it features well-preserved mosaics, villas, and underground structures, making it a popular tourist attraction.
+JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.
+Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. 
+kskrwt kftjy ftHy/sandwich kaftaji is a fast food restaurant located in Jendouba, Tunisia. It is rated 5.0 stars out of 1 reviews on Google and is known for its sandwich kaftaji. The restaurant's coordinates are (36.4976753, 8.7777625).
+Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).
+Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.
+Societe De Transport Regional Jendouba is a transport service located in Jendouba, Tunisia. Its coordinates are (36.4976753, 8.7777625). They offer various transport services and can be contacted at 78 600 690.
+Gare Ferroviaire de Jendouba is a train station located in Jendouba, Tunisia. It offers train services to various destinations within Tunisia, providing convenient transportation for locals and visitors alike. It is situated at the coordinates (36.5011879, 8.7780214), making it easily accessible for travelers.
+Located in Jendouba, Station des Autobus #2 is a bus station that offers convenient transportation services. Its exact coordinates are (5.4744717, -3.8045517), making it easily accessible for commuters.
+Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It offers public transportation services to various destinations. The station is conveniently located at the coordinates (36.4976753, 8.7777625), making it easily accessible for travelers.
+Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5099,12 +7050,60 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for something fun to do, check out Space dream located at GR75+8GV Space dream, Jendouba. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:00-23:30. To get there, use these GPS coordinates: 36.4976753, 8.7777625. For more details, visit their website at https://www.google.com/maps/place/Space+dream/data=!4m7!3m6!1s0x12fb13f60ec43d91:0xad031d8d9fca3ee5!8m2!3d36.5133527!4d8.8088112!16s%2Fg%2F11h4944cb1!19sChIJkT3EDvYT-xIR5T7Kn40dA60?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 92 001 606.</t>
+          <t>"Space dream" is a restaurant located in Jendouba, Tunisia. It is a highly-rated restaurant with a 5.0 rating based on 3 reviews. Space dream offers a wide range of dishes and its menu includes international and local cuisine. The restaurant has a cozy and friendly atmosphere, making it a great place to relax and enjoy a meal with friends or family.</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant destination in Jendouba known for its Restaurant options?</t>
+          <t>Day Plan:
+Morning: Explore the ancient Roman city of Bulla Regia and admire its well-preserved ruins.
+Mid-Morning: Visit the Gare Ferroviaire de Jendouba, the city's main railway station, for a glimpse into the city's transportation history.
+Midday: Try local cuisine at the highly-rated Cafe Podium, known for its quality beverages and cozy ambiance.
+Afternoon: Take a guided tour of the Station des Autobus #2, the city's central bus station, to learn about its services and transportation options.
+Evening: Enjoy traditional Tunisian dishes at Restaurant SIDI ASSAM, renowned for its family-friendly atmosphere and delicious food.
+Night: Immerse yourself in the local culture at Jasmine, a highly-rated bar lounge offering a cozy atmosphere and a variety of drinks and snacks.</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Podium is a highly-rated establishment in Jendouba, boasting an impressive 4.5 out of 5 rating with 6 positive reviews. Located at GQ4R+HM6 on the main road of Al Habib Bourguiba, this cafe offers an inviting ambiance and a welcoming atmosphere. While specific details of its offerings are not available, Cafe Podium is known for its quality beverages and a cozy ambiance that makes it a popular destination for locals and visitors alike.
+Pizza Woods Lounge Jendouba is a well-rated (4.5) restaurant located in Jendouba, Tunisia (lon: 8.7777625, lat: 36.4976753), open 24/7 and offering a variety of services such as breakfast, brunch, a lounge bar, and takeaway options.
+ALMAS is a restaurant located in Jendouba, Tunisia, offering a delightful dining experience with a 4.2-star rating from 29 reviews. The establishment is open daily from 06:00 to 00:00, except for holidays. ALMAS offers a cozy ambiance as a restaurant and salon de thé, making it a perfect spot for both casual dining and relaxing with friends. Its convenient location, at coordinates (36.4976753, 8.7777625), makes it easily accessible to visitors seeking a memorable culinary adventure in Jendouba.
+Bulla Regia is an ancient Roman city located in the Jendouba region of Tunisia. It is known for its well-preserved ruins, including an amphitheater, temples, and a subterranean market. The city is also home to several important mosaics and statues. Bulla Regia offers a glimpse into the Roman Empire's past and is a popular tourist destination.
+JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.
+Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. 
+kskrwt kftjy ftHy/sandwich kaftaji is a fast food restaurant located in Jendouba, Tunisia. It is rated 5.0 stars out of 1 reviews on Google and is known for its sandwich kaftaji. The restaurant's coordinates are (36.4976753, 8.7777625).
+Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).
+Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.
+The Société de Transport Régionale Jendouba (STRJ) is a transport company located in Jendouba, Tunisia. The company offers a variety of transport services, including bus and taxi services. The STRJ is located at coordinates (36.4976753, 8.7777625) and has a rating of 3.8 out of 5 on Google Maps. The company's website is http://www.srtj.com.tn/.
+**Gare Ferroviaire de Jendouba : A Railway Station in Jendouba, Tunisia**
+A vital transport hub located at the coordinates (36.5011879, 8.7780214) in Jendouba, Gare Ferroviaire de Jendouba is the primary railway station of the city. The station boasts 3.2 out of 5 stars as per user reviews.
+Station des Autobus #2 is a bus station located in Jendouba, Tunisia. It offers bus services to various destinations within Tunisia and neighboring countries. The station is conveniently located in the city center, making it easily accessible by foot or public transportation. It provides a comfortable waiting area for passengers, with amenities such as restrooms and a snack bar. Passengers can also find information about bus schedules and fares at the station's ticket counter. With its central location and convenient amenities, Station des Autobus #2 is a valuable resource for travelers in Jendouba.
+Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It is a central hub for public transportation in the city, offering connections to other cities and towns in the region. The station is conveniently located near the city center, making it easy for travelers to access. It features a variety of amenities, including a waiting area, ticket counters, and restrooms. The station is also wheelchair accessible.
+Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5206,14 +7205,59 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for something fun to do, check out Restaurant le golf located at FQXH+X5P Restaurant le golf, Gouvernorat de, Enour, Jendouba 8100. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 36.5796825, 8.5201874. For more details, visit their website at https://maps.app.goo.gl/bmKFcw3WxFEBaNWa7 or call them at 22 026 251.</t>
+          <t>Restaurant Le Golf is a highly-rated restaurant located in Jendouba, Tunisia, with a rating of 4.7 out of 5 based on 3 reviews. It is known for its delicious food and excellent service, making it a popular destination for locals and tourists alike. The restaurant is conveniently located at latitude 36.5796825 and longitude 8.5201874, making it easy to find and visit.</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>Where in Jendouba can you find a highly-rated (4.7) restaurant that is perfect for restaurant enthusiasts and offers a wide variety of dining options?</t>
+          <t>Day Plan:
+Morning: Begin the day by taking a guided tour of Bulla Regia, an ancient Roman city, to delve into the region's rich history.
+Mid-Morning: After exploring the ruins, make your way to Restaurant SIDI ASSAM for a delightful local cuisine experience. Savor the authentic flavors of Tunisia while enjoying the restaurant's family-friendly ambiance.
+Midday: Visit the scenic Gare 9 Avril Autobus, a bus stop with a 4.0 rating, offering a convenient starting point for exploring Jendouba.
+Afternoon: Head to Station des Autobus #2, a bus station with easy accessibility, and embark on a short trip to Pizzeria Besh Besh foods. Indulge in the pizzeria's delicious offerings while enjoying the local vibes.
+Evening: Explore the vibrant Jasmine bar lounge, known for its cozy atmosphere and diverse drink and snack menu. Engage with the friendly locals and soak in the lively ambiance.
+Night: Conclude the day with a relaxing stay at a local hotel or spa, rejuvenating for the next day's adventures.</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Olympic is a cafe located in Jendouba, Tunisia, offering a cozy ambiance and a delightful menu. Situated at coordinates (36.4976753, 8.7777625), the cafe is conveniently accessible. With a rating of 4.4, Cafe Olympic is highly regarded by its patrons, and it is open from 07:00 to 22:00 on all days of the week.
+Pizza Woods Lounge Jendouba is a well-rated (4.5) restaurant located in Jendouba, Tunisia (lon: 8.7777625, lat: 36.4976753), open 24/7 and offering a variety of services such as breakfast, brunch, a lounge bar, and takeaway options.
+"Space dream" is a restaurant located in Jendouba, Tunisia. It is a highly-rated restaurant with a 5.0 rating based on 3 reviews. Space dream offers a wide range of dishes and its menu includes international and local cuisine. The restaurant has a cozy and friendly atmosphere, making it a great place to relax and enjoy a meal with friends or family.
+Bulla Regia is an ancient Roman city located in the Jendouba region of Tunisia. It is known for its well-preserved ruins, including an amphitheater, temples, and a subterranean market. The city is also home to several important mosaics and statues. Bulla Regia offers a glimpse into the Roman Empire's past and is a popular tourist destination.
+JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.
+Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. 
+Restaurant Mio Mondo, located in Jendouba (coordinates: 36.4976753, 8.7777625), is a fast food restaurant that offers a wide variety of dishes to suit all tastes. Open from 9:00 AM to 10:00 PM, this establishment has received a rating of 5.0 out of 5 based on two reviews. In addition to its excellent ratings, Restaurant Mio Mondo is also praised for its delicious food and friendly staff. Whether you are looking for a quick bite to eat or a more leisurely dining experience, Restaurant Mio Mondo is sure to have something to satisfy your cravings.
+Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).
+Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.
+Located in Enour, Jendouba, Station Louages Jendouba-bBousalem offers reliable transportation services. It operates 24 hours a day, providing convenient travel options for locals and visitors alike. With its prime location and dedication to customer satisfaction, it has earned a 5.0 rating from its customers.
+Gare Ferroviaire de Jendouba is a train station located in Jendouba, Tunisia. It offers train services to various destinations within Tunisia, providing convenient transportation for locals and visitors alike. It is situated at the coordinates (36.5011879, 8.7780214), making it easily accessible for travelers.
+Located in Jendouba, Station des Autobus #2 is a bus station that offers convenient transportation services. Its exact coordinates are (5.4744717, -3.8045517), making it easily accessible for commuters.
+Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It offers public transportation services to various destinations. The station is conveniently located at the coordinates (36.4976753, 8.7777625), making it easily accessible for travelers.
+Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5319,12 +7363,59 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for something fun to do, check out Restaurant Mio Mondo located at GQ66+RFW Restaurant Mio Mondo, Jendouba. This top-rated destination is perfect for Restauration rapide lovers. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:00-22:00, but closed on []. To get there, use these GPS coordinates: 36.4976753, 8.7777625. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Mio+Mondo/data=!4m7!3m6!1s0x12fb13148c62dca5:0x1cff041ee0d7e76c!8m2!3d36.512116!4d8.7611898!16s%2Fg%2F11g0r1268f!19sChIJpdxijBQT-xIRbOfX4B4E_xw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 25 210 121.</t>
+          <t>Restaurant Mio Mondo, located in Jendouba (coordinates: 36.4976753, 8.7777625), is a fast food restaurant that offers a wide variety of dishes to suit all tastes. Open from 9:00 AM to 10:00 PM, this establishment has received a rating of 5.0 out of 5 based on two reviews. In addition to its excellent ratings, Restaurant Mio Mondo is also praised for its delicious food and friendly staff. Whether you are looking for a quick bite to eat or a more leisurely dining experience, Restaurant Mio Mondo is sure to have something to satisfy your cravings.</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated destination perfect for Restauration rapide lovers in Jendouba?</t>
+          <t>Day Plan:
+Morning: Exploring Bulla Regia, an archaeological site with well-preserved Roman ruins (4.7 stars, 300 reviews)
+Mid-Morning: Trying local cuisine at ALI BRIKA, a renowned fast food restaurant with a perfect 5.0 rating (2 reviews)
+Midday: Visiting Restaurant SIDI ASSAM, a family restaurant offering a variety of dishes and open 24 hours (5.0 rating on Google)
+Afternoon: Enjoying a relaxing spa treatment at a local hotel or spa to rejuvenate after a day of exploration
+Evening: Experiencing cultural immersion at the Jendouba Museum, showcasing the region's history and traditions
+Night: Participating in a traditional Tunisian music and dance performance at a local venue for an unforgettable cultural experience</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Touerg is a highly-rated cafe located in Jendouba, Tunisia. It holds a rating of 4.3 stars based on 21 reviews and is known for its cozy ambiance and top-notch coffee. Cafe Touerg opens early at 5 AM and stays open until midnight. The cafe offers a variety of coffee and tea options, as well as a selection of pastries and light snacks.
+Welcome to Pizza Woods Lounge in Jendouba, Tunisia! We offer a comfortable and inviting atmosphere for you to relax with friends and family. Enjoy our delicious pizzas, crepes, and other breakfast, brunch, and lunch options. We also serve a variety of beverages, including coffee, tea, and juices. Our team is dedicated to providing exceptional service and creating a memorable dining experience for all our guests. Visit us today at our convenient location at Pizza woods Lounge Jendouba, P6, Jendouba, and indulge in the ultimate culinary and social experience. We are open 24 hours a day, so come in anytime!
+"Space dream" is a restaurant located in Jendouba, Tunisia. It is a highly-rated restaurant with a 5.0 rating based on 3 reviews. Space dream offers a wide range of dishes and its menu includes international and local cuisine. The restaurant has a cozy and friendly atmosphere, making it a great place to relax and enjoy a meal with friends or family.
+Bulla Regia, an archaeological site in Jendouba, Tunisia, boasts a 4.7-star rating with 300 reviews and exhibits impressive Roman ruins. At coordinates (36.55696, 8.74538), it features well-preserved mosaics, villas, and underground structures, making it a popular tourist attraction.
+JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.
+Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. 
+ALI BRIKA is a renowned fast food restaurant in ALI BRIKA, Jendouba. It's conveniently located at coordinates (36.4976753, 8.7777625). With a perfect 5.0 rating based on 2 reviews, it has consistently satisfied its customers with its delectable cuisine.
+Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).
+Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.
+The Société de Transport Régionale Jendouba (STRJ) is a transport company located in Jendouba, Tunisia. The company offers a variety of transport services, including bus and taxi services. The STRJ is located at coordinates (36.4976753, 8.7777625) and has a rating of 3.8 out of 5 on Google Maps. The company's website is http://www.srtj.com.tn/.
+Gare Ferroviaire de Jendouba is a train station located in Jendouba, Tunisia. It offers train services to various destinations within Tunisia, providing convenient transportation for locals and visitors alike. It is situated at the coordinates (36.5011879, 8.7780214), making it easily accessible for travelers.
+Station des Autobus #2 is a bus station located in Jendouba, Tunisia. It offers bus services to various destinations within Tunisia and neighboring countries. The station is conveniently located in the city center, making it easily accessible by foot or public transportation. It provides a comfortable waiting area for passengers, with amenities such as restrooms and a snack bar. Passengers can also find information about bus schedules and fares at the station's ticket counter. With its central location and convenient amenities, Station des Autobus #2 is a valuable resource for travelers in Jendouba.
+Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It offers public transportation services to various destinations. The station is conveniently located at the coordinates (36.4976753, 8.7777625), making it easily accessible for travelers.
+Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5430,14 +7521,59 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for something fun to do, check out Cafe restaurant located at GQ5W+773, P6, Jendouba. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-00:00 but closed on. To get there, use these GPS coordinates: 36.4976753, 8.7777625. For more details, visit their website at or call them at 78 622 914.</t>
+          <t>Café restaurant is a highly-rated cafe located in Jendouba, Tunisia. It offers a wide range of food and drinks, and is open from 6am to midnight, 7 days a week. The cafe is conveniently located near public transportation, and offers free Wi-Fi.</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated café destination with a wide selection of café options located in Jendouba?</t>
+          <t>Day Plan:
+Morning: Explore the ancient Roman ruins of Bulla Regia, including the amphitheater, temples, and subterranean market.
+Mid-Morning: Visit the Jendouba Regional Museum to learn about the history and culture of the region.
+Midday: Try local cuisine at Restaurant Sidi Bou Said, known for its delectable dining experience.
+Afternoon: Relax with a spa treatment or massage at a local spa or hotel.
+Evening: Participate in a guided tour of the Gare Ferroviaire de Jendouba, the main train station in the city.
+Night: Enjoy the nightlife at the Jasmine bar lounge, known for its cozy ambiance and variety of drinks and snacks.</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Ilyes in Jendouba is a highly rated cafe, open 24 hours a day, offering a welcoming atmosphere for locals and visitors alike. With a 5.0 rating based on 2 reviews, Cafe Ilyes has established itself as a popular destination for coffee lovers in the area. Located at GQ57+37P Cafe ilyes /mqh~ lys, Jendouba, the cafe's convenient location makes it easily accessible.
+Welcome to Pizza Woods Lounge in Jendouba, Tunisia! We offer a comfortable and inviting atmosphere for you to relax with friends and family. Enjoy our delicious pizzas, crepes, and other breakfast, brunch, and lunch options. We also serve a variety of beverages, including coffee, tea, and juices. Our team is dedicated to providing exceptional service and creating a memorable dining experience for all our guests. Visit us today at our convenient location at Pizza woods Lounge Jendouba, P6, Jendouba, and indulge in the ultimate culinary and social experience. We are open 24 hours a day, so come in anytime!
+Restaurant Sidi Bou Said is a highly-rated restaurant located in the city of Jendouba, Tunisia, offering a delectable dining experience. Situated at coordinates (36.4976753, 8.7777625), the restaurant boasts a rating of 4.4 out of 5 based on 5 reviews. Although its website is unavailable, it offers a featured image to showcase its ambiance.
+Bulla Regia is an ancient Roman city located in the Jendouba region of Tunisia. It is known for its well-preserved ruins, including an amphitheater, temples, and a subterranean market. The city is also home to several important mosaics and statues. Bulla Regia offers a glimpse into the Roman Empire's past and is a popular tourist destination.
+JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.
+Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. 
+ALI BRIKA is a renowned fast food restaurant in ALI BRIKA, Jendouba. It's conveniently located at coordinates (36.4976753, 8.7777625). With a perfect 5.0 rating based on 2 reviews, it has consistently satisfied its customers with its delectable cuisine.
+Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).
+Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.
+Located in Enour, Jendouba, Station Louages Jendouba-bBousalem offers reliable transportation services. It operates 24 hours a day, providing convenient travel options for locals and visitors alike. With its prime location and dedication to customer satisfaction, it has earned a 5.0 rating from its customers.
+Gare Ferroviaire de Jendouba is a train station located in Jendouba, Tunisia. It offers train services to various destinations within Tunisia, providing convenient transportation for locals and visitors alike. It is situated at the coordinates (36.5011879, 8.7780214), making it easily accessible for travelers.
+Located in Jendouba, Station des Autobus #2 is a bus station that offers convenient transportation services. Its exact coordinates are (5.4744717, -3.8045517), making it easily accessible for commuters.
+Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It is a central hub for public transportation in the city, offering connections to other cities and towns in the region. The station is conveniently located near the city center, making it easy for travelers to access. It features a variety of amenities, including a waiting area, ticket counters, and restrooms. The station is also wheelchair accessible.
+Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5535,14 +7671,66 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for a great meal, head to mT`m slTn@ located at FQRM+8C9 mT`m slTn@, Jendouba. 
-This top-rated restaurant is perfect for food lovers and offers a variety of dishes to choose from. 
-With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 36.4976753, 8.7777625.</t>
+          <t>**Restaurant mT`m slTn@**
+Nestled in Jendouba at the coordinates (36.4976753, 8.7777625), Restaurant mT`m slTn@ boasts a 4.5-star rating and features an extensive menu of delectable dishes. Whether you're seeking a casual meal or a special dining experience, Restaurant mT`m slTn@ has something to offer.</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>What is the name of the highly-rated restaurant in Jendouba that offers a wide selection of dishes and is located at the GPS coordinates 36.4976753, 8.7777625?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Exploring the ancient ruins of **Bulla Regia**
+**Mid-Morning:**
+* Trying local cuisine at **Restaurant Mio Mondo**
+**Midday:**
+* Taking a guided tour of **La Tonelle Restaurant**
+**Afternoon:**
+* Enjoying scenic views at **JENDOUBA**
+**Evening:**
+* Relaxing with a traditional Hammam experience at a local spa
+**Night:**
+* Experiencing cultural immersion at the **Museum of Jendouba**</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**fD lHdy'q** is a café located in Jendouba, Tunisia. It is a popular spot for locals and tourists alike, offering a variety of coffee, tea, and other beverages. The café also has a small menu of sandwiches and pastries. The café is located at (36.5796825, 8.5201874).
+Welcome to Pizza Woods Lounge in Jendouba, Tunisia! We offer a comfortable and inviting atmosphere for you to relax with friends and family. Enjoy our delicious pizzas, crepes, and other breakfast, brunch, and lunch options. We also serve a variety of beverages, including coffee, tea, and juices. Our team is dedicated to providing exceptional service and creating a memorable dining experience for all our guests. Visit us today at our convenient location at Pizza woods Lounge Jendouba, P6, Jendouba, and indulge in the ultimate culinary and social experience. We are open 24 hours a day, so come in anytime!
+La Tonelle, a Restaurant located at GQ3P+7X6, rue les palmiers, Jendouba 8100, Tunisia, offers a delightful dining experience. With a 5.0 rating based on 4 reviews, La Tonelle has established itself as a top-rated establishment. It opens daily from 08:00-00:00, except on Sundays.
+Bulla Regia, an archaeological site in Jendouba, Tunisia, boasts a 4.7-star rating with 300 reviews and exhibits impressive Roman ruins. At coordinates (36.55696, 8.74538), it features well-preserved mosaics, villas, and underground structures, making it a popular tourist attraction.
+JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.
+Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. 
+Restaurant Mio Mondo, located in Jendouba (coordinates: 36.4976753, 8.7777625), is a fast food restaurant that offers a wide variety of dishes to suit all tastes. Open from 9:00 AM to 10:00 PM, this establishment has received a rating of 5.0 out of 5 based on two reviews. In addition to its excellent ratings, Restaurant Mio Mondo is also praised for its delicious food and friendly staff. Whether you are looking for a quick bite to eat or a more leisurely dining experience, Restaurant Mio Mondo is sure to have something to satisfy your cravings.
+Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).
+Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.
+Societe De Transport Regional Jendouba is a transport service located in Jendouba, Tunisia. Its coordinates are (36.4976753, 8.7777625). They offer various transport services and can be contacted at 78 600 690.
+Gare Ferroviaire de Jendouba is a train station located in Jendouba, Tunisia. It offers train services to various destinations within Tunisia, providing convenient transportation for locals and visitors alike. It is situated at the coordinates (36.5011879, 8.7780214), making it easily accessible for travelers.
+Located in Jendouba, Station des Autobus #2 is a bus station that offers convenient transportation services. Its exact coordinates are (5.4744717, -3.8045517), making it easily accessible for commuters.
+Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It offers public transportation services to various destinations. The station is conveniently located at the coordinates (36.4976753, 8.7777625), making it easily accessible for travelers.
+Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5640,12 +7828,59 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for a top-rated Cafe, check out Cafe Boujnene located at GR62+9GG Cafe Boujnene, P6, Jendouba. This must-visit spot is perfect for Cafe lovers with a rating of 4.0. It's open during these hours: 06:00-00:00, but closed on []. To get there, use these GPS coordinates: 36.4976753, 8.7777625. For more details, visit their website at https://www.google.com/maps/place/Cafe+Boujnene/data=!4m7!3m6!1s0x12fb134c8ab5c623:0x12e59d9d5b3a8be2!8m2!3d36.5109275!4d8.8013162!16s%2Fg%2F11h336dz6r!19sChIJI8a1ikwT-xIR4os6W52d5RI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Cafe Boujnene is a cafe located in Jendouba, Tunisia at coordinates (36.4976753, 8.7777625). It is open from 06:00-00:00 and has a rating of 4.0 based on 2 reviews.</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>Where in Jendouba can you find the highly-rated Cafe Boujnene, known for its must-visit ambiance and convenient location?</t>
+          <t>Day Plan:
+Morning: Explore the historical ruins of Bulla Regia, an ancient Roman city offering a glimpse into the past.
+Mid-Morning: Visit the nearby café "**fD lHdy'q**" to sample local coffee and pastries amidst a charming atmosphere.
+Midday: Indulge in a delectable lunch at Restaurant Mio Mondo, known for its diverse menu and excellent food.
+Afternoon: Engage in outdoor recreation at the nearby park, enjoying scenic views and engaging in activities like cycling or jogging.
+Evening: Experience cultural immersion at the regional museum to delve into the history and traditions of the Jendouba region.
+Night: Relish a flavorsome dinner at Restaurant SIDI ASSAM, a family-run establishment offering a warm ambiance and authentic local cuisine.</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**fD lHdy'q** is a café located in Jendouba, Tunisia. It is a popular spot for locals and tourists alike, offering a variety of coffee, tea, and other beverages. The café also has a small menu of sandwiches and pastries. The café is located at (36.5796825, 8.5201874).
+Salon de the Jazz is a popular tea room in Jendouba, Tunisia, located at coordinates (36.4976753, 8.7777625). With a rating of 4.3 based on 15 reviews, it's a great place to relax and enjoy a cup of tea.
+ALMAS is a restaurant and tea room located in Jendouba, Tunisia. It is open from 6:00 AM to midnight and has a rating of 4.2 out of 5 stars based on 29 reviews. The restaurant's featured image shows a photo of the exterior of the building.
+Bulla Regia is an ancient Roman city located in the Jendouba region of Tunisia. It is known for its well-preserved ruins, including an amphitheater, temples, and a subterranean market. The city is also home to several important mosaics and statues. Bulla Regia offers a glimpse into the Roman Empire's past and is a popular tourist destination.
+JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.
+Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. 
+Restaurant Mio Mondo, located in Jendouba (coordinates: 36.4976753, 8.7777625), is a fast food restaurant that offers a wide variety of dishes to suit all tastes. Open from 9:00 AM to 10:00 PM, this establishment has received a rating of 5.0 out of 5 based on two reviews. In addition to its excellent ratings, Restaurant Mio Mondo is also praised for its delicious food and friendly staff. Whether you are looking for a quick bite to eat or a more leisurely dining experience, Restaurant Mio Mondo is sure to have something to satisfy your cravings.
+Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).
+Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.
+Societe De Transport Regional Jendouba is a transport service located in Jendouba, Tunisia. Its coordinates are (36.4976753, 8.7777625). They offer various transport services and can be contacted at 78 600 690.
+Gare Ferroviaire de Jendouba is a train station located in Jendouba, Tunisia. It offers train services to various destinations within Tunisia, providing convenient transportation for locals and visitors alike. It is situated at the coordinates (36.5011879, 8.7780214), making it easily accessible for travelers.
+Located in Jendouba, Station des Autobus #2 is a bus station that offers convenient transportation services. Its exact coordinates are (5.4744717, -3.8045517), making it easily accessible for commuters.
+Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It offers public transportation services to various destinations. The station is conveniently located at the coordinates (36.4976753, 8.7777625), making it easily accessible for travelers.
+Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5747,12 +7982,60 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for a top-rated restaurant, check out COCKTAIL_FOR YOU at GQ3J+6V5 COCKTAIL_FOR YOU. With a 5.0 rating, it's a must-visit spot for Restaurant lovers. To get there, use these GPS coordinates: 36.4976753, 8.7777625. For more details, visit their website at https://www.google.com/maps/place/COCKTAIL_FOR+YOU/data=!4m7!3m6!1s0x12fb13b6a8fb3c33:0x9ddda19c2e682181!8m2!3d36.5030137!4d8.7822195!16s%2Fg%2F11t9v9bss4!19sChIJMzz7qLYT-xIRgSFoLpyh3Z0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 54 413 444.</t>
+          <t>Located in Jendouba, COCKTAIL_FOR YOU is a highly-rated restaurant (5.0/5) specializing in restaurant cuisine. It is known for its inviting ambiance and friendly owner. With convenient contact information (phone: 54 413 444; address: GQ3J+6V5 COCKTAIL_FOR YOU, Jendouba), this restaurant is easily accessible to those seeking a memorable dining experience.</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>If you're looking for a renowned restaurant with a perfect rating in Jendouba, where can you go?</t>
+          <t>Day Plan:
+Morning: Explore the ruins of Bulla Regia, an ancient Roman city with well-preserved mosaics and underground structures.
+Mid-Morning: Visit ALMAS, a restaurant and tea room, for a traditional Tunisian breakfast of pastries and mint tea.
+Midday: Try local cuisine at kskrw kftjy ftHy/sandwich kaftaji, a fast food restaurant famous for its sandwich kaftaji.
+Afternoon: Shop for souvenirs and local crafts at the Jendouba Souk, a lively marketplace in the heart of the city.
+Evening: Enjoy scenic views at the Lac de Barrage de Sidi Salem, a beautiful reservoir surrounded by lush greenery.
+Night: Relax and unwind at a traditional hammam, such as Hammam Essaadia, for a full-body scrub, massage, and steam bath experience.</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Podium is a highly-rated establishment in Jendouba, boasting an impressive 4.5 out of 5 rating with 6 positive reviews. Located at GQ4R+HM6 on the main road of Al Habib Bourguiba, this cafe offers an inviting ambiance and a welcoming atmosphere. While specific details of its offerings are not available, Cafe Podium is known for its quality beverages and a cozy ambiance that makes it a popular destination for locals and visitors alike.
+Pizza woods Lounge Jendouba is a popular hangout spot in Jendouba. It offers a wide range of food and drinks, including pizza, breakfast, brunch, coffee, crepes, shisha, cocktails, and more. The lounge is open 24 hours a day and is located at Pizza woods Lounge Jendouba, P6, Jendouba. It has received mostly positive reviews from customers, with an average rating of 4.5 out of 5 stars.
+ALMAS is a restaurant and tea room located in Jendouba, Tunisia. It is open from 6:00 AM to midnight and has a rating of 4.2 out of 5 stars based on 29 reviews. The restaurant's featured image shows a photo of the exterior of the building.
+Bulla Regia, an archaeological site in Jendouba, Tunisia, boasts a 4.7-star rating with 300 reviews and exhibits impressive Roman ruins. At coordinates (36.55696, 8.74538), it features well-preserved mosaics, villas, and underground structures, making it a popular tourist attraction.
+JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.
+Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. 
+kskrwt kftjy ftHy/sandwich kaftaji is a fast food restaurant located in Jendouba, Tunisia. It is rated 5.0 stars out of 1 reviews on Google and is known for its sandwich kaftaji. The restaurant's coordinates are (36.4976753, 8.7777625).
+Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).
+Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.
+Societe De Transport Regional Jendouba is a transport service located in Jendouba, Tunisia. Its coordinates are (36.4976753, 8.7777625). They offer various transport services and can be contacted at 78 600 690.
+**Gare Ferroviaire de Jendouba : A Railway Station in Jendouba, Tunisia**
+A vital transport hub located at the coordinates (36.5011879, 8.7780214) in Jendouba, Gare Ferroviaire de Jendouba is the primary railway station of the city. The station boasts 3.2 out of 5 stars as per user reviews.
+Station des Autobus #2 is a bus station located in Jendouba, Tunisia. It offers bus services to various destinations within Tunisia and neighboring countries. The station is conveniently located in the city center, making it easily accessible by foot or public transportation. It provides a comfortable waiting area for passengers, with amenities such as restrooms and a snack bar. Passengers can also find information about bus schedules and fares at the station's ticket counter. With its central location and convenient amenities, Station des Autobus #2 is a valuable resource for travelers in Jendouba.
+Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It is a central hub for public transportation in the city, offering connections to other cities and towns in the region. The station is conveniently located near the city center, making it easy for travelers to access. It features a variety of amenities, including a waiting area, ticket counters, and restrooms. The station is also wheelchair accessible.
+Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5846,12 +8129,59 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for some delicious fast food, check out ALI BRIKA located at GQ2H+HG8 ALI BRIKA. This top-rated destination is perfect for fast food lovers and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.4976753, 8.7777625.</t>
+          <t>ALI BRIKA is a renowned fast food restaurant in ALI BRIKA, Jendouba. It's conveniently located at coordinates (36.4976753, 8.7777625). With a perfect 5.0 rating based on 2 reviews, it has consistently satisfied its customers with its delectable cuisine.</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated fast food restaurant with GPS coordinates of 36.4976753, 8.7777625 in Jendouba?</t>
+          <t>Day Plan:
+Morning: Exploring Jendouba City Center
+Mid-Morning: Trying local cuisine at Pizza Woods Lounge
+Midday: Visiting the ancient Roman ruins of Bulla Regia
+Afternoon: Relaxing with a drink at Jasmine bar lounge
+Evening: Enjoying a family dinner at Restaurant SIDI ASSAM
+Night: Experiencing the local culture at Station Routierre de Transport en Commun de Jendouba</t>
+        </is>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>Given these locations:
+mqh~ l'hrm is a cafe located in Jendouba, Tunisia. It offers a cozy ambiance with a rating of 4.0 stars. Its exact location is at the coordinates (36.4976753, 8.7777625), and the link to its Google Maps page is https://www.google.com/maps/place/%D9%85%D9%82%D9%87%D9%89+%D8%A7%D9%84%D8%A3%D9%87%D8%B1%D8%A7%D9%85%E2%80%AD/data=!4m7!3m6!1s0x12fb13314e54d88f:0x744723e3862ba044!8m2!3d36.5094914!4d8.7987429!16s%2Fg%2F11ghs512rx!19sChIJj9hUTjET-xIRRKArhuMjR3Q?authuser=0&amp;hl=fr&amp;rclk=1.
+Welcome to Pizza Woods Lounge in Jendouba, Tunisia! We offer a comfortable and inviting atmosphere for you to relax with friends and family. Enjoy our delicious pizzas, crepes, and other breakfast, brunch, and lunch options. We also serve a variety of beverages, including coffee, tea, and juices. Our team is dedicated to providing exceptional service and creating a memorable dining experience for all our guests. Visit us today at our convenient location at Pizza woods Lounge Jendouba, P6, Jendouba, and indulge in the ultimate culinary and social experience. We are open 24 hours a day, so come in anytime!
+La Tonelle, a Restaurant located at GQ3P+7X6, rue les palmiers, Jendouba 8100, Tunisia, offers a delightful dining experience. With a 5.0 rating based on 4 reviews, La Tonelle has established itself as a top-rated establishment. It opens daily from 08:00-00:00, except on Sundays.
+Bulla Regia is an ancient Roman city located in the Jendouba region of Tunisia. It is known for its well-preserved ruins, including an amphitheater, temples, and a subterranean market. The city is also home to several important mosaics and statues. Bulla Regia offers a glimpse into the Roman Empire's past and is a popular tourist destination.
+JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.
+Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. 
+kskrwt kftjy ftHy/sandwich kaftaji is a fast food restaurant located in Jendouba, Tunisia. It is rated 5.0 stars out of 1 reviews on Google and is known for its sandwich kaftaji. The restaurant's coordinates are (36.4976753, 8.7777625).
+Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).
+Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.
+Located in Enour, Jendouba, Station Louages Jendouba-bBousalem offers reliable transportation services. It operates 24 hours a day, providing convenient travel options for locals and visitors alike. With its prime location and dedication to customer satisfaction, it has earned a 5.0 rating from its customers.
+Gare Ferroviaire de Jendouba is a train station located in Jendouba, Tunisia. It offers train services to various destinations within Tunisia, providing convenient transportation for locals and visitors alike. It is situated at the coordinates (36.5011879, 8.7780214), making it easily accessible for travelers.
+Station des Autobus #2 is a bus station located in Jendouba, Tunisia. It offers bus services to various destinations within Tunisia and neighboring countries. The station is conveniently located in the city center, making it easily accessible by foot or public transportation. It provides a comfortable waiting area for passengers, with amenities such as restrooms and a snack bar. Passengers can also find information about bus schedules and fares at the station's ticket counter. With its central location and convenient amenities, Station des Autobus #2 is a valuable resource for travelers in Jendouba.
+Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It offers public transportation services to various destinations. The station is conveniently located at the coordinates (36.4976753, 8.7777625), making it easily accessible for travelers.
+Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5953,12 +8283,59 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for something fun to do, check out Restaurant SIDI ASSAM located at FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. This top-rated destination is perfect for Restaurant familial lovers. With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on []. To get there, use these GPS coordinates: 26.4012635, 90.4241958. For more details, visit their website at https://www.google.com/maps/place/Restaurant+SIDI+ASSAM/data=!4m7!3m6!1s0x12fb13850d33543d:0x74beba0605753fce!8m2!3d36.4999496!4d8.77782!16s%2Fg%2F11q940khc3!19sChIJPVQzDYUT-xIRzj91BQa6vnQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 23 310 147.</t>
+          <t>Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Restaurant familial destination open 24 hours a day with a 5.0 rating in Jendouba?</t>
+          <t>Day Plan:
+Morning: Explore Bulla Regia, an ancient Roman city known for its well-preserved ruins.
+Mid-Morning: Visit the Le Sultan restaurant, known for its culinary offerings and positive reviews.
+Midday: Savor local cuisine at ALI BRIKA, a fast food restaurant renowned for its delectable dishes.
+Afternoon: Enjoy scenic views at Gare Ferroviaire de Jendouba, a train station offering convenient transportation services.
+Evening: Participate in a guided tour of Station Routierre de Transport en Commun de Jendouba, a bus station offering public transportation services.
+Night: Experience cultural immersion at Gare 9 Avril Autobus, a bus stop with a rating of 4.0 based on 3 reviews.</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**fD lHdy'q** is a café located in Jendouba, Tunisia. It is a popular spot for locals and tourists alike, offering a variety of coffee, tea, and other beverages. The café also has a small menu of sandwiches and pastries. The café is located at (36.5796825, 8.5201874).
+Welcome to Pizza Woods Lounge in Jendouba, Tunisia! We offer a comfortable and inviting atmosphere for you to relax with friends and family. Enjoy our delicious pizzas, crepes, and other breakfast, brunch, and lunch options. We also serve a variety of beverages, including coffee, tea, and juices. Our team is dedicated to providing exceptional service and creating a memorable dining experience for all our guests. Visit us today at our convenient location at Pizza woods Lounge Jendouba, P6, Jendouba, and indulge in the ultimate culinary and social experience. We are open 24 hours a day, so come in anytime!
+Le Sultan, a highly-rated restaurant located in Jendouba, Tunisia (36.4976753, 8.7777625), boasts a 5.0-star rating. It opens daily from 6:00 AM to 11:00 PM and is owned by "Le Sultan (proprietaire)". While the provided description is currently unavailable, the restaurant is known for its culinary offerings and has received positive reviews (3). More information can be found on its Google Maps page: https://www.google.com/maps/place/Le+Sultan/data=!4m7!3m6!1s0x12fb13aefa51ebeb:0xe39630b6ce608df8!8m2!3d36.4978617!4d8.7747328!16s%2Fg%2F11j0byb6z3!19sChIJ6-tR-q4T-xIR-I1gzrYwluM?authuser=0&amp;hl=fr&amp;rclk=1.
+Bulla Regia is an ancient Roman city located in the Jendouba region of Tunisia. It is known for its well-preserved ruins, including an amphitheater, temples, and a subterranean market. The city is also home to several important mosaics and statues. Bulla Regia offers a glimpse into the Roman Empire's past and is a popular tourist destination.
+JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.
+Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. 
+ALI BRIKA is a renowned fast food restaurant in ALI BRIKA, Jendouba. It's conveniently located at coordinates (36.4976753, 8.7777625). With a perfect 5.0 rating based on 2 reviews, it has consistently satisfied its customers with its delectable cuisine.
+Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).
+Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.
+Societe De Transport Regional Jendouba is a transport service located in Jendouba, Tunisia. Its coordinates are (36.4976753, 8.7777625). They offer various transport services and can be contacted at 78 600 690.
+Gare Ferroviaire de Jendouba is a train station located in Jendouba, Tunisia. It offers train services to various destinations within Tunisia, providing convenient transportation for locals and visitors alike. It is situated at the coordinates (36.5011879, 8.7780214), making it easily accessible for travelers.
+Station des Autobus #2 is a bus station located in Jendouba, Tunisia. It offers bus services to various destinations within Tunisia and neighboring countries. The station is conveniently located in the city center, making it easily accessible by foot or public transportation. It provides a comfortable waiting area for passengers, with amenities such as restrooms and a snack bar. Passengers can also find information about bus schedules and fares at the station's ticket counter. With its central location and convenient amenities, Station des Autobus #2 is a valuable resource for travelers in Jendouba.
+Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It offers public transportation services to various destinations. The station is conveniently located at the coordinates (36.4976753, 8.7777625), making it easily accessible for travelers.
+Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6060,12 +8437,59 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>If you're in Jendouba and looking for a great place to get some Pizzeria, check out Besh Besh foods located at CQF6+CMX Besh Besh foods, P17, Jendouba. This top-rated destination is perfect for Pizzeria lovers. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:00-23:00. To get there, use these GPS coordinates: 36.4976753, 8.7777625. For more details, visit their website at https://www.google.com/maps/place/Besh+Besh+foods/data=!4m7!3m6!1s0x12fb13b910cf0861:0xffd78d7b731438ae!8m2!3d36.4858524!4d8.7777501!16s%2Fg%2F11sdfyyty5!19sChIJYQjPELkT-xIRrjgUc3uN1_8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 92 561 435.</t>
+          <t>Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Pizzeria with a 5.0 rating in Jendouba?</t>
+          <t>Day Plan:
+Morning: Explore the ancient ruins of Bulla Regia, a well-preserved Roman city with stunning mosaics and statues.
+Mid-Morning: Visit Cafe Oasis for a cozy atmosphere and delicious refreshments while enjoying the ambiance of Jendouba.
+Midday: Try local cuisine at Mayosa Cafe Resto, known for its delectable dishes that reflect the flavors of Tunisia.
+Afternoon: Experience cultural immersion at the Gare Ferroviaire de Jendouba, a train station that offers a glimpse into the transportation history of the region.
+Evening: Enjoy scenic views at Jasmine, a cozy bar lounge with a variety of drinks and snacks, while immersing yourself in the vibrant atmosphere of Jendouba.
+Night: Relax and unwind with a guided tour of Société de Transport Régionale Jendouba (STRJ), a transport company that provides insights into the local transportation system.</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Oasis in Jendouba, situated at (36.4976753, 8.7777625), is a popular cafe with a 4.1 rating. Although there is no detailed description, the cafe offers a cozy atmosphere for its patrons. It opens from 7 am to 10 pm daily and has been reviewed by 7 satisfied customers. If you're seeking a place to relax and socialize over refreshments, Cafe Oasis is worth considering.
+Salon de the Jazz is a popular tea room in Jendouba, Tunisia, located at coordinates (36.4976753, 8.7777625). With a rating of 4.3 based on 15 reviews, it's a great place to relax and enjoy a cup of tea.
+Mayosa Cafe Resto is a restaurant located in Jendouba (Tunisia) with coordinates (36.4976753, 8.7777625) and a rating of 4.0.
+Bulla Regia is an ancient Roman city located in the Jendouba region of Tunisia. It is known for its well-preserved ruins, including an amphitheater, temples, and a subterranean market. The city is also home to several important mosaics and statues. Bulla Regia offers a glimpse into the Roman Empire's past and is a popular tourist destination.
+JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.
+Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. 
+ALI BRIKA is a renowned fast food restaurant in ALI BRIKA, Jendouba. It's conveniently located at coordinates (36.4976753, 8.7777625). With a perfect 5.0 rating based on 2 reviews, it has consistently satisfied its customers with its delectable cuisine.
+Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).
+Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.
+The Société de Transport Régionale Jendouba (STRJ) is a transport company located in Jendouba, Tunisia. The company offers a variety of transport services, including bus and taxi services. The STRJ is located at coordinates (36.4976753, 8.7777625) and has a rating of 3.8 out of 5 on Google Maps. The company's website is http://www.srtj.com.tn/.
+Gare Ferroviaire de Jendouba is a train station located in Jendouba, Tunisia. It offers train services to various destinations within Tunisia, providing convenient transportation for locals and visitors alike. It is situated at the coordinates (36.5011879, 8.7780214), making it easily accessible for travelers.
+Located in Jendouba, Station des Autobus #2 is a bus station that offers convenient transportation services. Its exact coordinates are (5.4744717, -3.8045517), making it easily accessible for commuters.
+Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It offers public transportation services to various destinations. The station is conveniently located at the coordinates (36.4976753, 8.7777625), making it easily accessible for travelers.
+Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6159,14 +8583,59 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for something fun to do, check out kskrwt kftjy ftHy/sandwich kaftaji located at GQ47+H5J kskrwt kftjy ftHy/sandwich kaftaji, Jendouba. 
-This top-rated destination is perfect for Restauration rapide lovers and offers a range of Restauration rapide to choose from. 
-With a rating of 5.0, it's a must-visit spot. GPS coordinates: 36.4976753, 8.7777625</t>
+          <t>kskrwt kftjy ftHy/sandwich kaftaji is a fast food restaurant located in Jendouba, Tunisia. It is rated 5.0 stars out of 1 reviews on Google and is known for its sandwich kaftaji. The restaurant's coordinates are (36.4976753, 8.7777625).</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>If you're craving Restauration rapide in Jendouba, where can you find a top-rated spot with a perfect 5.0 rating?</t>
+          <t>Day Plan:
+Morning: Start your day by exploring the ancient Roman ruins of Bulla Regia, a UNESCO World Heritage Site known for its stunning mosaics and underground structures.
+Mid-Morning: Visit the Jendouba Archaeological Museum to discover the rich history and cultural heritage of the region.
+Midday: Treat your taste buds to a delightful local meal at Le Baril Restaurant, renowned for its excellent cuisine and warm atmosphere.
+Afternoon: Immerse yourself in the lively ambiance of the Jendouba Market, a vibrant hub of local commerce where you can browse traditional crafts, spices, and souvenirs.
+Evening: Take a leisurely stroll through the scenic streets of Jendouba, admiring the quaint architecture and soaking in the charming atmosphere.
+Night: Cap off your perfect day with a relaxing stay at the top-rated Hotel Sidi Salem, known for its comfortable accommodations and friendly hospitality.</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Olympic is a cafe located in Jendouba, Tunisia, offering a cozy ambiance and a delightful menu. Situated at coordinates (36.4976753, 8.7777625), the cafe is conveniently accessible. With a rating of 4.4, Cafe Olympic is highly regarded by its patrons, and it is open from 07:00 to 22:00 on all days of the week.
+Pizza Woods Lounge Jendouba is a well-rated (4.5) restaurant located in Jendouba, Tunisia (lon: 8.7777625, lat: 36.4976753), open 24/7 and offering a variety of services such as breakfast, brunch, a lounge bar, and takeaway options.
+Le Baril Restaurant, located in Jendouba, Tunisia, offers a delightful dining experience. Rated 5.0 with 4 reviews, it is known for its delectable cuisine and cozy atmosphere. Open daily from 09:00 to 20:00, the restaurant invites guests to savor its culinary creations and relax in its warm ambiance. Its approximate location is (36.4976753, 8.7777625).
+Bulla Regia, an archaeological site in Jendouba, Tunisia, boasts a 4.7-star rating with 300 reviews and exhibits impressive Roman ruins. At coordinates (36.55696, 8.74538), it features well-preserved mosaics, villas, and underground structures, making it a popular tourist attraction.
+JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.
+Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. 
+Restaurant Mio Mondo, located in Jendouba (coordinates: 36.4976753, 8.7777625), is a fast food restaurant that offers a wide variety of dishes to suit all tastes. Open from 9:00 AM to 10:00 PM, this establishment has received a rating of 5.0 out of 5 based on two reviews. In addition to its excellent ratings, Restaurant Mio Mondo is also praised for its delicious food and friendly staff. Whether you are looking for a quick bite to eat or a more leisurely dining experience, Restaurant Mio Mondo is sure to have something to satisfy your cravings.
+Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).
+Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.
+Societe De Transport Regional Jendouba is a transport service located in Jendouba, Tunisia. Its coordinates are (36.4976753, 8.7777625). They offer various transport services and can be contacted at 78 600 690.
+Gare Ferroviaire de Jendouba is a train station located in Jendouba, Tunisia. It offers train services to various destinations within Tunisia, providing convenient transportation for locals and visitors alike. It is situated at the coordinates (36.5011879, 8.7780214), making it easily accessible for travelers.
+Located in Jendouba, Station des Autobus #2 is a bus station that offers convenient transportation services. Its exact coordinates are (5.4744717, -3.8045517), making it easily accessible for commuters.
+Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It is a central hub for public transportation in the city, offering connections to other cities and towns in the region. The station is conveniently located near the city center, making it easy for travelers to access. It features a variety of amenities, including a waiting area, ticket counters, and restrooms. The station is also wheelchair accessible.
+Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6272,12 +8741,60 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>If you're in jendouba and in need of a reliable transportation service, look no further than Societe De Transport Regional Jendouba, conveniently located at FQWG+547 Societe De Transport Regional Jendouba, Jendouba. With a rating of 3.8, this top-rated service is your go-to source for all your transportation needs. To get in touch, you can reach them by phone at 78 600 690. For more details, visit their website at http://www.srtj.com.tn/.</t>
+          <t>Societe De Transport Regional Jendouba is a transport service located in Jendouba, Tunisia. Its coordinates are (36.4976753, 8.7777625). They offer various transport services and can be contacted at 78 600 690.</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated transportation service with a convenient location in Jendouba, Tunisia?</t>
+          <t>Day Plan:
+Morning: Explore Jendouba city center and visit the Gare Ferroviaire de Jendouba, a historic railway station.
+Mid-Morning: Take a guided tour of the Bulla Regia ancient Roman ruins to discover its well-preserved amphitheater, temples, and subterranean market.
+Midday: Indulge in local cuisine at Restaurant Mio Mondo, known for its delicious food and friendly staff.
+Afternoon: Enjoy a relaxing afternoon at the Jasmine bar lounge, offering cozy ambiance, a variety of drinks, and snacks.
+Evening: Visit Station des Autobus #2 for convenient transportation services to explore more of Jendouba's surroundings.
+Night: Experience cultural immersion at the JENDOUBA administrative center to gain insights into the local culture and history.</t>
+        </is>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Oasis in Jendouba, situated at (36.4976753, 8.7777625), is a popular cafe with a 4.1 rating. Although there is no detailed description, the cafe offers a cozy atmosphere for its patrons. It opens from 7 am to 10 pm daily and has been reviewed by 7 satisfied customers. If you're seeking a place to relax and socialize over refreshments, Cafe Oasis is worth considering.
+Salon de the Jazz is a popular tea room in Jendouba, Tunisia, located at coordinates (36.4976753, 8.7777625). With a rating of 4.3 based on 15 reviews, it's a great place to relax and enjoy a cup of tea.
+La cabane is a top-rated restaurant located at GQ2V+363, Jendouba, Tunisia. It offers a cozy ambiance and a diverse menu specializing in [cuisine-type] dishes. Patrons rave about the delicious food, attentive service, and pleasant atmosphere. La cabane is open from 12:00 pm to 11:00 pm and reservations are recommended to secure a table.
+Bulla Regia is an ancient Roman city located in the Jendouba region of Tunisia. It is known for its well-preserved ruins, including an amphitheater, temples, and a subterranean market. The city is also home to several important mosaics and statues. Bulla Regia offers a glimpse into the Roman Empire's past and is a popular tourist destination.
+JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.
+Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. 
+Restaurant Mio Mondo, located in Jendouba (coordinates: 36.4976753, 8.7777625), is a fast food restaurant that offers a wide variety of dishes to suit all tastes. Open from 9:00 AM to 10:00 PM, this establishment has received a rating of 5.0 out of 5 based on two reviews. In addition to its excellent ratings, Restaurant Mio Mondo is also praised for its delicious food and friendly staff. Whether you are looking for a quick bite to eat or a more leisurely dining experience, Restaurant Mio Mondo is sure to have something to satisfy your cravings.
+Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).
+Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.
+The Société de Transport Régionale Jendouba (STRJ) is a transport company located in Jendouba, Tunisia. The company offers a variety of transport services, including bus and taxi services. The STRJ is located at coordinates (36.4976753, 8.7777625) and has a rating of 3.8 out of 5 on Google Maps. The company's website is http://www.srtj.com.tn/.
+**Gare Ferroviaire de Jendouba : A Railway Station in Jendouba, Tunisia**
+A vital transport hub located at the coordinates (36.5011879, 8.7780214) in Jendouba, Gare Ferroviaire de Jendouba is the primary railway station of the city. The station boasts 3.2 out of 5 stars as per user reviews.
+Station des Autobus #2 is a bus station located in Jendouba, Tunisia. It offers bus services to various destinations within Tunisia and neighboring countries. The station is conveniently located in the city center, making it easily accessible by foot or public transportation. It provides a comfortable waiting area for passengers, with amenities such as restrooms and a snack bar. Passengers can also find information about bus schedules and fares at the station's ticket counter. With its central location and convenient amenities, Station des Autobus #2 is a valuable resource for travelers in Jendouba.
+Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It offers public transportation services to various destinations. The station is conveniently located at the coordinates (36.4976753, 8.7777625), making it easily accessible for travelers.
+Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6371,14 +8888,59 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for a place to park, check out shrk@ lnql bjndwb@ located at FQVF+WXX shrk@ lnql bjndwb@, Station Routierre de Transport en Commun de, Jendouba. 
-This top-rated destination is perfect for Parking lovers. 
-With a rating of 2.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.4976753, 8.7777625.</t>
+          <t>This parking space is located in jendouba, Tunisia, at the following coordinates: (36.4976753, 8.7777625). It has received an average rating of 2.0 based on 3 reviews.</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>Where in Jendouba can you find a top-rated parking destination located at specific GPS coordinates?</t>
+          <t>Day Plan:
+Morning: Explore the ancient Roman city of Bulla Regia, renowned for its well-preserved ruins and fascinating history.
+Mid-Morning: Visit the Gare Ferroviaire de Jendouba for a scenic train journey to a nearby destination, immersing yourself in the region's transportation network.
+Midday: Delight your palate with traditional Tunisian cuisine at Restaurant SIDI ASSAM, known for its authentic flavors and warm family atmosphere.
+Afternoon: Unwind at Jasmine, a cozy bar lounge where you can savor refreshing drinks and engage in lively conversations with locals.
+Evening: Take a guided tour of fD 'lf lyl@ w lyl@ to appreciate its delectable dishes and savor the flavors of authentic Tunisian cuisine.
+Night: Immerse yourself in the vibrant ambiance of Pizza Woods Lounge Jendouba, enjoying a satisfying dinner while soaking in the energetic atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Oasis in Jendouba, situated at (36.4976753, 8.7777625), is a popular cafe with a 4.1 rating. Although there is no detailed description, the cafe offers a cozy atmosphere for its patrons. It opens from 7 am to 10 pm daily and has been reviewed by 7 satisfied customers. If you're seeking a place to relax and socialize over refreshments, Cafe Oasis is worth considering.
+Pizza Woods Lounge Jendouba is a well-rated (4.5) restaurant located in Jendouba, Tunisia (lon: 8.7777625, lat: 36.4976753), open 24/7 and offering a variety of services such as breakfast, brunch, a lounge bar, and takeaway options.
+Nestled amidst the vibrant city of Jendouba, coordinates (36.4976753, 8.7777625), fD 'lf lyl@ w lyl@ boasts a delectable dining experience with an impressive rating of 4.4. Known for its mouthwatering dishes, fD 'lf lyl@ w lyl@ invites you to savor the flavors of authentic cuisine.
+Bulla Regia is an ancient Roman city located in the Jendouba region of Tunisia. It is known for its well-preserved ruins, including an amphitheater, temples, and a subterranean market. The city is also home to several important mosaics and statues. Bulla Regia offers a glimpse into the Roman Empire's past and is a popular tourist destination.
+JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.
+Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. 
+kskrwt kftjy ftHy/sandwich kaftaji is a fast food restaurant located in Jendouba, Tunisia. It is rated 5.0 stars out of 1 reviews on Google and is known for its sandwich kaftaji. The restaurant's coordinates are (36.4976753, 8.7777625).
+Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).
+Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.
+Station Louages Jendouba-bBousalem, situated in Jendouba, Tunisia (GPS:36.4976753, 8.7777625), is a transportation service provider.
+Gare Ferroviaire de Jendouba is a train station located in Jendouba, Tunisia. It offers train services to various destinations within Tunisia, providing convenient transportation for locals and visitors alike. It is situated at the coordinates (36.5011879, 8.7780214), making it easily accessible for travelers.
+Station des Autobus #2 is a bus station located in Jendouba, Tunisia. It offers bus services to various destinations within Tunisia and neighboring countries. The station is conveniently located in the city center, making it easily accessible by foot or public transportation. It provides a comfortable waiting area for passengers, with amenities such as restrooms and a snack bar. Passengers can also find information about bus schedules and fares at the station's ticket counter. With its central location and convenient amenities, Station des Autobus #2 is a valuable resource for travelers in Jendouba.
+Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It offers public transportation services to various destinations. The station is conveniently located at the coordinates (36.4976753, 8.7777625), making it easily accessible for travelers.
+Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6476,12 +9038,59 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for a Gare, check out Gare Ferroviaire de Jendouba located at Gare Ferroviaire de Jendouba, P17, Jendouba. This top-rated destination is perfect for Gare lovers, and is rated a 3.2. To get there, use these GPS coordinates: 36.5011879, 8.7780214.</t>
+          <t>Gare Ferroviaire de Jendouba is a train station located in Jendouba, Tunisia. It offers train services to various destinations within Tunisia, providing convenient transportation for locals and visitors alike. It is situated at the coordinates (36.5011879, 8.7780214), making it easily accessible for travelers.</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Gare in Jendouba with precise GPS coordinates?</t>
+          <t>**Day Plan:**
+**Morning:** Explore the ancient Roman city of Bulla Regia, known for its well-preserved ruins.
+**Mid-Morning:** Visit the Gare Ferroviaire de Jendouba, a historic train station that offers train services to various destinations within Tunisia.
+**Midday:** Try local cuisine at Le Baril Restaurant, a highly-rated dining experience known for its delectable cuisine and cozy atmosphere.
+**Afternoon:** Engage in outdoor activities such as hiking or biking at Jendouba National Park.
+**Evening:** Enjoy scenic views at the scenic spot in Jendouba, relax with a massage at a local spa or hotel, or participate in a traditional tea ceremony at a local cultural site.
+**Night:** Experience the vibrant nightlife at Jasmine, a 4.2-rated bar lounge offering a cozy ambiance and a variety of drinks and snacks.</t>
+        </is>
+      </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Jendouba is a cafe located in Jendouba, Tunisia. It offers a cozy atmosphere with a rating of 4.5 based on 45 reviews. The cafe is open from 08:00-18:00 and is closed on Sundays. It specializes in coffee and tea, and the phone number is 28 574 003. The address is FQXQ+43Q Jendouba.
+Pizza Woods Lounge Jendouba is a well-rated (4.5) restaurant located in Jendouba, Tunisia (lon: 8.7777625, lat: 36.4976753), open 24/7 and offering a variety of services such as breakfast, brunch, a lounge bar, and takeaway options.
+Le Baril Restaurant, located in Jendouba, Tunisia, offers a delightful dining experience. Rated 5.0 with 4 reviews, it is known for its delectable cuisine and cozy atmosphere. Open daily from 09:00 to 20:00, the restaurant invites guests to savor its culinary creations and relax in its warm ambiance. Its approximate location is (36.4976753, 8.7777625).
+Bulla Regia is an ancient Roman city located in the Jendouba region of Tunisia. It is known for its well-preserved ruins, including an amphitheater, temples, and a subterranean market. The city is also home to several important mosaics and statues. Bulla Regia offers a glimpse into the Roman Empire's past and is a popular tourist destination.
+JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.
+Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. 
+kskrwt kftjy ftHy/sandwich kaftaji is a fast food restaurant located in Jendouba, Tunisia. It is rated 5.0 stars out of 1 reviews on Google and is known for its sandwich kaftaji. The restaurant's coordinates are (36.4976753, 8.7777625).
+Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).
+Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.
+Located in Enour, Jendouba, Station Louages Jendouba-bBousalem offers reliable transportation services. It operates 24 hours a day, providing convenient travel options for locals and visitors alike. With its prime location and dedication to customer satisfaction, it has earned a 5.0 rating from its customers.
+Gare Ferroviaire de Jendouba is a train station located in Jendouba, Tunisia. It offers train services to various destinations within Tunisia, providing convenient transportation for locals and visitors alike. It is situated at the coordinates (36.5011879, 8.7780214), making it easily accessible for travelers.
+Located in Jendouba, Station des Autobus #2 is a bus station that offers convenient transportation services. Its exact coordinates are (5.4744717, -3.8045517), making it easily accessible for commuters.
+Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It is a central hub for public transportation in the city, offering connections to other cities and towns in the region. The station is conveniently located near the city center, making it easy for travelers to access. It features a variety of amenities, including a waiting area, ticket counters, and restrooms. The station is also wheelchair accessible.
+Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6575,12 +9184,60 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for a Gare routiere, check out Station des Autobus located at Station des Autobus, Jendouba. This top-rated destination is perfect for Gare routiere lovers and offers a rating of 3.0. It's a must-visit spot. To get there, use these GPS coordinates: 36.4976753, 8.7777625. For more details, visit their website at https://www.google.com/maps/place/Station+des+Autobus/data=!4m7!3m6!1s0x12fb1251f01c8add:0xc5df619dbccaf764!8m2!3d36.4953804!4d8.7819064!16s%2Fg%2F1vbbcs4t!19sChIJ3Yoc8FES-xIRZPfKvJ1h38U?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>The Station des Autobus is a bus station located in Jendouba, Tunisia. It is situated at coordinates (36.4976753, 8.7777625). Unfortunately, there is no further information about what the bus station offers.</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Gare routiere with GPS coordinates 36.4976753, 8.7777625 in Jendouba?</t>
+          <t>Day Plan:
+Morning: Explore the archaeological site of Bulla Regia, with its well-preserved Roman ruins.
+Mid-Morning: Visit the Societe De Transport Regional Jendouba to inquire about convenient transportation options for the rest of the day.
+Midday: Try local cuisine at Pizzeria la Reine jendouba, known for its Italian dishes and positive customer reviews.
+Afternoon: Engage in outdoor activities like cycling or hiking at a nearby park or outdoor location.
+Evening: Relax with a drink and enjoy the cozy ambiance at Jasmine, a 4.2-rated bar lounge.
+Night: Experience cultural immersion at a traditional music or dance performance at a local cultural site or venue.</t>
+        </is>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled in the heart of Jendouba, Cafe the time is an exceptional destination for coffee enthusiasts. Located at coordinates (36.4976753, 8.7777625), the cafe boasts a cozy ambiance and a wide selection of tantalizing beverages. Its featured image showcases a glimpse of its welcoming interior, inviting visitors to indulge in its aromatic creations.
+Pizza woods Lounge Jendouba is a popular hangout spot in Jendouba. It offers a wide range of food and drinks, including pizza, breakfast, brunch, coffee, crepes, shisha, cocktails, and more. The lounge is open 24 hours a day and is located at Pizza woods Lounge Jendouba, P6, Jendouba. It has received mostly positive reviews from customers, with an average rating of 4.5 out of 5 stars.
+Pizzeria la Reine jendouba is a restaurant located in jendouba (coordinates: (36.4976753, 8.7777625)) offering a 4.0 rating out of 4 reviews. It offers Italian cuisine and is open from 08:00-22:00.
+Bulla Regia, an archaeological site in Jendouba, Tunisia, boasts a 4.7-star rating with 300 reviews and exhibits impressive Roman ruins. At coordinates (36.55696, 8.74538), it features well-preserved mosaics, villas, and underground structures, making it a popular tourist attraction.
+JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.
+Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. 
+kskrwt kftjy ftHy/sandwich kaftaji is a fast food restaurant located in Jendouba, Tunisia. It is rated 5.0 stars out of 1 reviews on Google and is known for its sandwich kaftaji. The restaurant's coordinates are (36.4976753, 8.7777625).
+Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).
+Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.
+Societe De Transport Regional Jendouba is a transport service located in Jendouba, Tunisia. Its coordinates are (36.4976753, 8.7777625). They offer various transport services and can be contacted at 78 600 690.
+**Gare Ferroviaire de Jendouba : A Railway Station in Jendouba, Tunisia**
+A vital transport hub located at the coordinates (36.5011879, 8.7780214) in Jendouba, Gare Ferroviaire de Jendouba is the primary railway station of the city. The station boasts 3.2 out of 5 stars as per user reviews.
+Located in Jendouba, Station des Autobus #2 is a bus station that offers convenient transportation services. Its exact coordinates are (5.4744717, -3.8045517), making it easily accessible for commuters.
+Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It is a central hub for public transportation in the city, offering connections to other cities and towns in the region. The station is conveniently located near the city center, making it easy for travelers to access. It features a variety of amenities, including a waiting area, ticket counters, and restrooms. The station is also wheelchair accessible.
+Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6674,14 +9331,59 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>If you're in Jendouba and looking for transportation options, check out Station des Autobus #2 located at Station des Autobus #2, Jendouba. 
-This top-rated Gare routiere is perfect for travelers and offers a convenient hub for bus services. 
-With a rating of 5.0, it's a must-visit spot. Its GPS coordinates are 5.4744717, -3.8045517. For more details, visit their website at https://www.google.com/maps/place/Station+des+Autobus+%232/data=!4m7!3m6!1s0x12fb1251aebfb873:0xb3f0434de6836c27!8m2!3d36.4936468!4d8.7834942!16s%2Fg%2F1vkr0q4v!19sChIJc7i_rlES-xIRJ2yD5k1D8LM?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Located in Jendouba, Station des Autobus #2 is a bus station that offers convenient transportation services. Its exact coordinates are (5.4744717, -3.8045517), making it easily accessible for commuters.</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>Where in Jendouba can you find the highly-rated Station des Autobus #2, known for its bus services and convenient transportation hub?</t>
+          <t>Day Plan:
+Morning: Explore Jendouba's historic Bulla Regia, an archaeological site showcasing impressive Roman ruins.
+Mid-Morning: Visit the Salon de the Jazz, a relaxing tea room with a cozy ambiance and high ratings.
+Midday: Try local cuisine at Pizzeria Matador, a restaurant offering a variety of dishes and featuring a charming atmosphere.
+Afternoon: Enjoy the scenic views from JENDOUBA, an administrative center with high ratings and beautiful surroundings.
+Evening: Head to Jasmine, a cozy bar lounge with a welcoming atmosphere and a great selection of drinks.
+Night: Indulge in the delicious food and friendly ambiance at Restaurant Mio Mondo, a highly-rated establishment known for its fast food cuisine.</t>
+        </is>
+      </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Jendouba is a cafe located in Jendouba, Tunisia. It offers a cozy atmosphere with a rating of 4.5 based on 45 reviews. The cafe is open from 08:00-18:00 and is closed on Sundays. It specializes in coffee and tea, and the phone number is 28 574 003. The address is FQXQ+43Q Jendouba.
+Salon de the Jazz is a popular tea room in Jendouba, Tunisia, located at coordinates (36.4976753, 8.7777625). With a rating of 4.3 based on 15 reviews, it's a great place to relax and enjoy a cup of tea.
+Pizzeria Matador, located in Jendouba (lon: 8.7777625 ; lat: 36.4976753), is a restaurant offering a variety of dishes. With a rating of 4.0 based on 7 reviews, it has a featured image, a link to its website, and a phone number.
+Bulla Regia, an archaeological site in Jendouba, Tunisia, boasts a 4.7-star rating with 300 reviews and exhibits impressive Roman ruins. At coordinates (36.55696, 8.74538), it features well-preserved mosaics, villas, and underground structures, making it a popular tourist attraction.
+JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.
+Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. 
+Restaurant Mio Mondo, located in Jendouba (coordinates: 36.4976753, 8.7777625), is a fast food restaurant that offers a wide variety of dishes to suit all tastes. Open from 9:00 AM to 10:00 PM, this establishment has received a rating of 5.0 out of 5 based on two reviews. In addition to its excellent ratings, Restaurant Mio Mondo is also praised for its delicious food and friendly staff. Whether you are looking for a quick bite to eat or a more leisurely dining experience, Restaurant Mio Mondo is sure to have something to satisfy your cravings.
+Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).
+Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.
+Station Louages Jendouba-bBousalem, situated in Jendouba, Tunisia (GPS:36.4976753, 8.7777625), is a transportation service provider.
+Gare Ferroviaire de Jendouba is a train station located in Jendouba, Tunisia. It offers train services to various destinations within Tunisia, providing convenient transportation for locals and visitors alike. It is situated at the coordinates (36.5011879, 8.7780214), making it easily accessible for travelers.
+Station des Autobus #2 is a bus station located in Jendouba, Tunisia. It offers bus services to various destinations within Tunisia and neighboring countries. The station is conveniently located in the city center, making it easily accessible by foot or public transportation. It provides a comfortable waiting area for passengers, with amenities such as restrooms and a snack bar. Passengers can also find information about bus schedules and fares at the station's ticket counter. With its central location and convenient amenities, Station des Autobus #2 is a valuable resource for travelers in Jendouba.
+Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It offers public transportation services to various destinations. The station is conveniently located at the coordinates (36.4976753, 8.7777625), making it easily accessible for travelers.
+Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6783,12 +9485,60 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for a reliable transportation service, visit Station Louages Jendouba-bBousalem at GQ2J+XV6 Station Louages Jendouba-bBousalem, Enour, Jendouba. With a top rating of 5.0, this station is open 24 hours a day for your convenience. For more details, visit their website at https://www.google.com/maps/place/Station+Louages+Jendouba-bBousalem/data=!4m7!3m6!1s0x12fb136abb3d7745:0x5f55c0d0133c37f5!8m2!3d36.5024027!4d8.7821364!16s%2Fg%2F11sqsfnb__!19sChIJRXc9u2oT-xIR9Tc8E9DAVV8?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Station Louages Jendouba-bBousalem, situated in Jendouba, Tunisia (GPS:36.4976753, 8.7777625), is a transportation service provider.</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated transportation service open 24 hours a day in Jendouba, Tunisia?</t>
+          <t>Day Plan:
+Morning: Exploring Bulla Regia, an archaeological site with well-preserved Roman ruins.
+Mid-Morning: Trying local cuisine at Restaurant SIDI ASSAM, a family restaurant with a cozy ambiance and a variety of dishes.
+Midday: Visiting JENDOUBA, an administrative center with a highly rated (4.5 stars) and offering a glimpse into the local culture.
+Afternoon: Enjoying recreational activities at a local park, such as picnicking, walking, or playing games.
+Evening: Shopping at CQF6+CMX, P17, Jendouba, which offers a variety of local products and souvenirs.
+Night: Relaxing with a traditional hammam experience at a local spa or hotel.</t>
+        </is>
+      </c>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>Given these locations:
+mqh~ klsykw is a 4 star rated cafe located in Jendouba, Tunisia. It is open daily from 06:00 AM to 00:00 AM and offers a variety of food and drinks. The cafe is located at the coordinates (36.4976753, 8.7777625) and can be contacted by phone at 21 539 739.
+Pizza woods Lounge Jendouba is a popular hangout spot in Jendouba. It offers a wide range of food and drinks, including pizza, breakfast, brunch, coffee, crepes, shisha, cocktails, and more. The lounge is open 24 hours a day and is located at Pizza woods Lounge Jendouba, P6, Jendouba. It has received mostly positive reviews from customers, with an average rating of 4.5 out of 5 stars.
+Located in Jendouba, COCKTAIL_FOR YOU is a highly-rated restaurant (5.0/5) specializing in restaurant cuisine. It is known for its inviting ambiance and friendly owner. With convenient contact information (phone: 54 413 444; address: GQ3J+6V5 COCKTAIL_FOR YOU, Jendouba), this restaurant is easily accessible to those seeking a memorable dining experience.
+Bulla Regia, an archaeological site in Jendouba, Tunisia, boasts a 4.7-star rating with 300 reviews and exhibits impressive Roman ruins. At coordinates (36.55696, 8.74538), it features well-preserved mosaics, villas, and underground structures, making it a popular tourist attraction.
+JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.
+Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. 
+kskrwt kftjy ftHy/sandwich kaftaji is a fast food restaurant located in Jendouba, Tunisia. It is rated 5.0 stars out of 1 reviews on Google and is known for its sandwich kaftaji. The restaurant's coordinates are (36.4976753, 8.7777625).
+Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).
+Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.
+The Société de Transport Régionale Jendouba (STRJ) is a transport company located in Jendouba, Tunisia. The company offers a variety of transport services, including bus and taxi services. The STRJ is located at coordinates (36.4976753, 8.7777625) and has a rating of 3.8 out of 5 on Google Maps. The company's website is http://www.srtj.com.tn/.
+**Gare Ferroviaire de Jendouba : A Railway Station in Jendouba, Tunisia**
+A vital transport hub located at the coordinates (36.5011879, 8.7780214) in Jendouba, Gare Ferroviaire de Jendouba is the primary railway station of the city. The station boasts 3.2 out of 5 stars as per user reviews.
+Station des Autobus #2 is a bus station located in Jendouba, Tunisia. It offers bus services to various destinations within Tunisia and neighboring countries. The station is conveniently located in the city center, making it easily accessible by foot or public transportation. It provides a comfortable waiting area for passengers, with amenities such as restrooms and a snack bar. Passengers can also find information about bus schedules and fares at the station's ticket counter. With its central location and convenient amenities, Station des Autobus #2 is a valuable resource for travelers in Jendouba.
+Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It offers public transportation services to various destinations. The station is conveniently located at the coordinates (36.4976753, 8.7777625), making it easily accessible for travelers.
+Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6882,16 +9632,59 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for a Arret de transports en commun, check out Station Routierre de Transport en Commun de Jendouba located at Station Routierre de Transport en Commun de Jendouba, Jendouba.
-This top-rated 5.0 star destination is perfect for Arret de transports en commun lovers. With a review count of 1, it's a must-visit spot.
-To get there, use these GPS coordinates: 36.4976753, 8.7777625.
-For more details, visit the place's Google Maps link:
-https://www.google.com/maps/place/Station+Routierre+de+Transport+en+Commun+de+Jendouba/data=!4m7!3m6!1s0x12fb124ec83a12b1:0x732bc81bcd0f4b54!8m2!3d36.4948453!4d8.7753113!16s%2Fg%2F1tct5ydm!19sChIJsRI6yE4S-xIRVEsPzRvIK3M?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It offers public transportation services to various destinations. The station is conveniently located at the coordinates (36.4976753, 8.7777625), making it easily accessible for travelers.</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Arret de transports en commun with GPS coordinates of 36.4976753, 8.7777625 in Jendouba?</t>
+          <t>Day Plan:
+Morning: Visit historical Bulla Regia for a glimpse into Tunisia's Roman past. Explore its ruins, including the amphitheater, temples, and market.
+Mid-Morning: Explore Jendouba's lively market, where you can find local products and souvenirs. Engage in the lively atmosphere and take part in the cultural immersion.
+Midday: Try local cuisine at Restaurant Le Golf, known for its delicious food and excellent service. Enjoy a traditional Tunisian meal while immersing yourself in the local culinary scene.
+Afternoon: Relax at Station 9 Avril Autobus, a highly-rated bus stop. Enjoy the local atmosphere and experience the transportation hub of the city.
+Evening: Take a guided tour of the picturesque JENDOUBA, the administrative center of the region. Capture panoramic views and learn about the city's history and significance.
+Night: Experience the vibrant atmosphere at Cafe ilias, a well-rated cafe serving delicious coffee. Engage in conversations, enjoy the ambiance, and end your day on a relaxed note.</t>
+        </is>
+      </c>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe ilias is a cafe located in Jendouba, Tunisia at the coordinates (36.4976753, 8.7777625). It has a rating of 4.8 based on 4 reviews and is open everyday. Cafe ilias serves cafe cuisine.
+Pizza Woods Lounge Jendouba is a well-rated (4.5) restaurant located in Jendouba, Tunisia (lon: 8.7777625, lat: 36.4976753), open 24/7 and offering a variety of services such as breakfast, brunch, a lounge bar, and takeaway options.
+Restaurant Le Golf is a highly-rated restaurant located in Jendouba, Tunisia, with a rating of 4.7 out of 5 based on 3 reviews. It is known for its delicious food and excellent service, making it a popular destination for locals and tourists alike. The restaurant is conveniently located at latitude 36.5796825 and longitude 8.5201874, making it easy to find and visit.
+Bulla Regia is an ancient Roman city located in the Jendouba region of Tunisia. It is known for its well-preserved ruins, including an amphitheater, temples, and a subterranean market. The city is also home to several important mosaics and statues. Bulla Regia offers a glimpse into the Roman Empire's past and is a popular tourist destination.
+JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.
+Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. 
+kskrwt kftjy ftHy/sandwich kaftaji is a fast food restaurant located in Jendouba, Tunisia. It is rated 5.0 stars out of 1 reviews on Google and is known for its sandwich kaftaji. The restaurant's coordinates are (36.4976753, 8.7777625).
+Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).
+Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.
+Located in Enour, Jendouba, Station Louages Jendouba-bBousalem offers reliable transportation services. It operates 24 hours a day, providing convenient travel options for locals and visitors alike. With its prime location and dedication to customer satisfaction, it has earned a 5.0 rating from its customers.
+Gare Ferroviaire de Jendouba is a train station located in Jendouba, Tunisia. It offers train services to various destinations within Tunisia, providing convenient transportation for locals and visitors alike. It is situated at the coordinates (36.5011879, 8.7780214), making it easily accessible for travelers.
+Station des Autobus #2 is a bus station located in Jendouba, Tunisia. It offers bus services to various destinations within Tunisia and neighboring countries. The station is conveniently located in the city center, making it easily accessible by foot or public transportation. It provides a comfortable waiting area for passengers, with amenities such as restrooms and a snack bar. Passengers can also find information about bus schedules and fares at the station's ticket counter. With its central location and convenient amenities, Station des Autobus #2 is a valuable resource for travelers in Jendouba.
+Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It is a central hub for public transportation in the city, offering connections to other cities and towns in the region. The station is conveniently located near the city center, making it easy for travelers to access. It features a variety of amenities, including a waiting area, ticket counters, and restrooms. The station is also wheelchair accessible.
+Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6989,12 +9782,61 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>If you're in jendouba, be sure to check out Gare Ferroviaire de Jendouba located at Gare Ferroviaire de Jendouba, P17, Jendouba. This top-rated Gare is a must-visit spot, with a rating of 3.2. It's open during these hours: , but closed on []. To get there, use these GPS coordinates: 36.5011879, 8.7780214.</t>
+          <t>**Gare Ferroviaire de Jendouba : A Railway Station in Jendouba, Tunisia**
+A vital transport hub located at the coordinates (36.5011879, 8.7780214) in Jendouba, Gare Ferroviaire de Jendouba is the primary railway station of the city. The station boasts 3.2 out of 5 stars as per user reviews.</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>Where can you find the top-rated Gare in Jendouba, known for its unique atmosphere?</t>
+          <t>Day Plan:
+Morning: Exploring Jendouba, an administrative center with a 4.5-star rating and 2 user reviews. Take a leisurely walk and soak in the local atmosphere.
+Mid-Morning: Visit Bulla Regia, an archaeological site with impressive Roman ruins. Marvel at the well-preserved mosaics, villas, and underground structures.
+Midday: Lunch at La Tonelle, a highly-rated restaurant with a 5.0 rating. Enjoy a delectable dining experience amidst a delightful ambiance.
+Afternoon: Experience cultural immersion at the Jasmine bar lounge, known for its cozy ambiance and variety of drinks and snacks. Interact with locals and delve into the local culture.
+Evening: Shop for souvenirs and local products at Besh Besh foods, a pizzeria located at the coordinates (36.4976753, 8.7777625).
+Night: Indulge in local cuisine at Restaurant SIDI ASSAM. This family-friendly restaurant offers a range of dishes and is open 24 hours a day.</t>
+        </is>
+      </c>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Touerg is a highly-rated cafe located in Jendouba, Tunisia. It holds a rating of 4.3 stars based on 21 reviews and is known for its cozy ambiance and top-notch coffee. Cafe Touerg opens early at 5 AM and stays open until midnight. The cafe offers a variety of coffee and tea options, as well as a selection of pastries and light snacks.
+Welcome to Pizza Woods Lounge in Jendouba, Tunisia! We offer a comfortable and inviting atmosphere for you to relax with friends and family. Enjoy our delicious pizzas, crepes, and other breakfast, brunch, and lunch options. We also serve a variety of beverages, including coffee, tea, and juices. Our team is dedicated to providing exceptional service and creating a memorable dining experience for all our guests. Visit us today at our convenient location at Pizza woods Lounge Jendouba, P6, Jendouba, and indulge in the ultimate culinary and social experience. We are open 24 hours a day, so come in anytime!
+La Tonelle, a Restaurant located at GQ3P+7X6, rue les palmiers, Jendouba 8100, Tunisia, offers a delightful dining experience. With a 5.0 rating based on 4 reviews, La Tonelle has established itself as a top-rated establishment. It opens daily from 08:00-00:00, except on Sundays.
+Bulla Regia, an archaeological site in Jendouba, Tunisia, boasts a 4.7-star rating with 300 reviews and exhibits impressive Roman ruins. At coordinates (36.55696, 8.74538), it features well-preserved mosaics, villas, and underground structures, making it a popular tourist attraction.
+JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.
+Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. 
+kskrwt kftjy ftHy/sandwich kaftaji is a fast food restaurant located in Jendouba, Tunisia. It is rated 5.0 stars out of 1 reviews on Google and is known for its sandwich kaftaji. The restaurant's coordinates are (36.4976753, 8.7777625).
+Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).
+Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.
+Societe De Transport Regional Jendouba is a transport service located in Jendouba, Tunisia. Its coordinates are (36.4976753, 8.7777625). They offer various transport services and can be contacted at 78 600 690.
+**Gare Ferroviaire de Jendouba : A Railway Station in Jendouba, Tunisia**
+A vital transport hub located at the coordinates (36.5011879, 8.7780214) in Jendouba, Gare Ferroviaire de Jendouba is the primary railway station of the city. The station boasts 3.2 out of 5 stars as per user reviews.
+Station des Autobus #2 is a bus station located in Jendouba, Tunisia. It offers bus services to various destinations within Tunisia and neighboring countries. The station is conveniently located in the city center, making it easily accessible by foot or public transportation. It provides a comfortable waiting area for passengers, with amenities such as restrooms and a snack bar. Passengers can also find information about bus schedules and fares at the station's ticket counter. With its central location and convenient amenities, Station des Autobus #2 is a valuable resource for travelers in Jendouba.
+Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It offers public transportation services to various destinations. The station is conveniently located at the coordinates (36.4976753, 8.7777625), making it easily accessible for travelers.
+Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7100,12 +9942,59 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for a reliable transportation service, consider Societe De Transport Regional Jendouba located at FQWG+547 Societe De Transport Regional Jendouba, Jendouba. This top-rated destination offers a range of services to choose from. With a rating of 3.8, it's a must-visit spot for transportation needs. To get there, use these GPS coordinates:  36.4976753, 8.7777625. For more details, visit their website at http://www.srtj.com.tn/ or call them at 78 600 690.</t>
+          <t>The Société de Transport Régionale Jendouba (STRJ) is a transport company located in Jendouba, Tunisia. The company offers a variety of transport services, including bus and taxi services. The STRJ is located at coordinates (36.4976753, 8.7777625) and has a rating of 3.8 out of 5 on Google Maps. The company's website is http://www.srtj.com.tn/.</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>Where can you find the top-rated transportation service in Jendouba that offers a range of services?</t>
+          <t>Day Plan:
+Morning: Exploring the archaeological site of Bulla Regia, admiring its well-preserved Roman ruins
+Mid-Morning: Visiting the highly-rated Café restaurant for breakfast and enjoying the local ambiance
+Midday: Trying local cuisine at Pizzeria Matador, known for its delicious dishes and satisfactory reviews
+Afternoon: Shopping at Besh Besh foods for local products and souvenirs
+Evening: Participating in a guided tour of Societe De Transport Regional Jendouba to learn about the local transport system
+Night: Enjoying scenic views at Gare Ferroviaire de Jendouba while waiting for a train</t>
+        </is>
+      </c>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café restaurant is a highly-rated cafe located in Jendouba, Tunisia. It offers a wide range of food and drinks, and is open from 6am to midnight, 7 days a week. The cafe is conveniently located near public transportation, and offers free Wi-Fi.
+Welcome to Pizza Woods Lounge in Jendouba, Tunisia! We offer a comfortable and inviting atmosphere for you to relax with friends and family. Enjoy our delicious pizzas, crepes, and other breakfast, brunch, and lunch options. We also serve a variety of beverages, including coffee, tea, and juices. Our team is dedicated to providing exceptional service and creating a memorable dining experience for all our guests. Visit us today at our convenient location at Pizza woods Lounge Jendouba, P6, Jendouba, and indulge in the ultimate culinary and social experience. We are open 24 hours a day, so come in anytime!
+Pizzeria Matador, located in Jendouba (lon: 8.7777625 ; lat: 36.4976753), is a restaurant offering a variety of dishes. With a rating of 4.0 based on 7 reviews, it has a featured image, a link to its website, and a phone number.
+Bulla Regia, an archaeological site in Jendouba, Tunisia, boasts a 4.7-star rating with 300 reviews and exhibits impressive Roman ruins. At coordinates (36.55696, 8.74538), it features well-preserved mosaics, villas, and underground structures, making it a popular tourist attraction.
+JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.
+Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. 
+ALI BRIKA is a renowned fast food restaurant in ALI BRIKA, Jendouba. It's conveniently located at coordinates (36.4976753, 8.7777625). With a perfect 5.0 rating based on 2 reviews, it has consistently satisfied its customers with its delectable cuisine.
+Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).
+Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.
+Societe De Transport Regional Jendouba is a transport service located in Jendouba, Tunisia. Its coordinates are (36.4976753, 8.7777625). They offer various transport services and can be contacted at 78 600 690.
+Gare Ferroviaire de Jendouba is a train station located in Jendouba, Tunisia. It offers train services to various destinations within Tunisia, providing convenient transportation for locals and visitors alike. It is situated at the coordinates (36.5011879, 8.7780214), making it easily accessible for travelers.
+Station des Autobus #2 is a bus station located in Jendouba, Tunisia. It offers bus services to various destinations within Tunisia and neighboring countries. The station is conveniently located in the city center, making it easily accessible by foot or public transportation. It provides a comfortable waiting area for passengers, with amenities such as restrooms and a snack bar. Passengers can also find information about bus schedules and fares at the station's ticket counter. With its central location and convenient amenities, Station des Autobus #2 is a valuable resource for travelers in Jendouba.
+Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It is a central hub for public transportation in the city, offering connections to other cities and towns in the region. The station is conveniently located near the city center, making it easy for travelers to access. It features a variety of amenities, including a waiting area, ticket counters, and restrooms. The station is also wheelchair accessible.
+Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7203,12 +10092,59 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for a convenient transportation option, head to Gare 9 Avril Autobus located at Av. 9 Avril, Jendouba. This top-rated bus station has a rating of 4.0, making it a must-visit spot for locals and visitors alike. It's open during specific hours, so plan your visit accordingly. For more information, you can visit the coordinates (36.4976753, 8.7777625) or call their featured image: https://lh5.googleusercontent.com/p/AF1QipNbMM3osphXZlpxXgcIzKO99PKUZdvCzfCT7UPz=w408-h544-k-no.</t>
+          <t>Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>Where is the top-rated bus station Gare 9 Avril Autobus that's a must-visit for locals and visitors in Jendouba?</t>
+          <t>Day Plan:
+Morning: Explore the historic ruins of Bulla Regia, an archaeological site with well-preserved Roman ruins and structures.
+Mid-Morning: Visit the JENDOUBA administrative center and learn about the city's history and culture.
+Midday: Try local cuisine at Restaurant SIDI ASSAM, where you can enjoy a variety of dishes in a family-friendly atmosphere.
+Afternoon: Enjoy a scenic walk or bike ride along the Jendouba-Tunis highway, taking in the beautiful surroundings.
+Evening: Relax with a drink and snacks at Jasmine bar lounge, enjoying the cozy ambiance and meeting the locals.
+Night: Experience cultural immersion at fD 'lf lyl@ w lyl@, savoring the flavors of authentic cuisine in a 4.4-rated dining establishment.</t>
+        </is>
+      </c>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>Given these locations:
+mqh~ lqrwy is a 4-star rated cafe located in Jendouba, Tunisia (GQ5P+VG5). Open 24 hours a day, it is conveniently situated just off the Jendouba-Tunis highway. The cafe offers a wide range of beverages, including coffee, tea, and juice, as well as pastries and sandwiches. It is a popular spot for locals and tourists alike to relax and enjoy a bite to eat.
+Welcome to Pizza Woods Lounge in Jendouba, Tunisia! We offer a comfortable and inviting atmosphere for you to relax with friends and family. Enjoy our delicious pizzas, crepes, and other breakfast, brunch, and lunch options. We also serve a variety of beverages, including coffee, tea, and juices. Our team is dedicated to providing exceptional service and creating a memorable dining experience for all our guests. Visit us today at our convenient location at Pizza woods Lounge Jendouba, P6, Jendouba, and indulge in the ultimate culinary and social experience. We are open 24 hours a day, so come in anytime!
+Nestled amidst the vibrant city of Jendouba, coordinates (36.4976753, 8.7777625), fD 'lf lyl@ w lyl@ boasts a delectable dining experience with an impressive rating of 4.4. Known for its mouthwatering dishes, fD 'lf lyl@ w lyl@ invites you to savor the flavors of authentic cuisine.
+Bulla Regia, an archaeological site in Jendouba, Tunisia, boasts a 4.7-star rating with 300 reviews and exhibits impressive Roman ruins. At coordinates (36.55696, 8.74538), it features well-preserved mosaics, villas, and underground structures, making it a popular tourist attraction.
+JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.
+Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. 
+kskrwt kftjy ftHy/sandwich kaftaji is a fast food restaurant located in Jendouba, Tunisia. It is rated 5.0 stars out of 1 reviews on Google and is known for its sandwich kaftaji. The restaurant's coordinates are (36.4976753, 8.7777625).
+Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).
+Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.
+Societe De Transport Regional Jendouba is a transport service located in Jendouba, Tunisia. Its coordinates are (36.4976753, 8.7777625). They offer various transport services and can be contacted at 78 600 690.
+Gare Ferroviaire de Jendouba is a train station located in Jendouba, Tunisia. It offers train services to various destinations within Tunisia, providing convenient transportation for locals and visitors alike. It is situated at the coordinates (36.5011879, 8.7780214), making it easily accessible for travelers.
+Located in Jendouba, Station des Autobus #2 is a bus station that offers convenient transportation services. Its exact coordinates are (5.4744717, -3.8045517), making it easily accessible for commuters.
+Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It is a central hub for public transportation in the city, offering connections to other cities and towns in the region. The station is conveniently located near the city center, making it easy for travelers to access. It features a variety of amenities, including a waiting area, ticket counters, and restrooms. The station is also wheelchair accessible.
+Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7302,15 +10238,59 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for a convenient way to travel, head to Station des Autobus located at Station des Autobus, Jendouba. 
-This popular destination is perfect for travelers and offers one main category: Gare routiere. 
-With a rating of 3.0 based on 3 reviews, it's a spot worth checking out. 
-To get there, use these GPS coordinates: 36.4976753, 8.7777625.</t>
+          <t>The Station des Autobus in Jendouba, Tunisia, offers bus services to nearby destinations. Located at 36.4976753 latitude and 8.7777625 longitude, it is a convenient transportation hub for travelers. With a rating of 3.0 based on customer reviews, the station provides a good starting point for exploring the region.</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>Where can you find a convenient transportation hub that offers bus services in Jendouba and has a rating of 3.0 based on three reviews?</t>
+          <t>Day Plan:
+Morning: Explore the ancient Roman ruins of Bulla Regia, offering a glimpse into the past.
+Mid-Morning: Try the local cuisine at the highly-rated Restaurant "Space dream", known for its cozy ambiance and diverse menu.
+Midday: Visit the Jendouba Administrative Center, a significant landmark in the city.
+Afternoon: Enjoy a relaxing walk in the picturesque Gare 9 Avril Autobus, known for its scenic views and convenient transportation services.
+Evening: Experience the vibrant atmosphere at the well-rated Jasmine bar lounge, offering a cozy setting and a variety of beverages.
+Night: Indulge in delicious fast food at ALI BRIKA, renowned for its delectable cuisine and perfect ratings.</t>
+        </is>
+      </c>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Café mqh** is a highly-rated café situated in Jendouba, Tunisia. Located at coordinates (36.4976753, 8.7777625), the café offers a cozy atmosphere and a variety of beverages to its customers. With a 4.0 rating based on one review, mqh is a popular spot for locals and tourists alike.
+Pizza Woods Lounge Jendouba is a well-rated (4.5) restaurant located in Jendouba, Tunisia (lon: 8.7777625, lat: 36.4976753), open 24/7 and offering a variety of services such as breakfast, brunch, a lounge bar, and takeaway options.
+"Space dream" is a restaurant located in Jendouba, Tunisia. It is a highly-rated restaurant with a 5.0 rating based on 3 reviews. Space dream offers a wide range of dishes and its menu includes international and local cuisine. The restaurant has a cozy and friendly atmosphere, making it a great place to relax and enjoy a meal with friends or family.
+Bulla Regia is an ancient Roman city located in the Jendouba region of Tunisia. It is known for its well-preserved ruins, including an amphitheater, temples, and a subterranean market. The city is also home to several important mosaics and statues. Bulla Regia offers a glimpse into the Roman Empire's past and is a popular tourist destination.
+JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.
+Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. 
+ALI BRIKA is a renowned fast food restaurant in ALI BRIKA, Jendouba. It's conveniently located at coordinates (36.4976753, 8.7777625). With a perfect 5.0 rating based on 2 reviews, it has consistently satisfied its customers with its delectable cuisine.
+Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).
+Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.
+Societe De Transport Regional Jendouba is a transport service located in Jendouba, Tunisia. Its coordinates are (36.4976753, 8.7777625). They offer various transport services and can be contacted at 78 600 690.
+Gare Ferroviaire de Jendouba is a train station located in Jendouba, Tunisia. It offers train services to various destinations within Tunisia, providing convenient transportation for locals and visitors alike. It is situated at the coordinates (36.5011879, 8.7780214), making it easily accessible for travelers.
+Station des Autobus #2 is a bus station located in Jendouba, Tunisia. It offers bus services to various destinations within Tunisia and neighboring countries. The station is conveniently located in the city center, making it easily accessible by foot or public transportation. It provides a comfortable waiting area for passengers, with amenities such as restrooms and a snack bar. Passengers can also find information about bus schedules and fares at the station's ticket counter. With its central location and convenient amenities, Station des Autobus #2 is a valuable resource for travelers in Jendouba.
+Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It offers public transportation services to various destinations. The station is conveniently located at the coordinates (36.4976753, 8.7777625), making it easily accessible for travelers.
+Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7404,12 +10384,59 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for a convenient transportation hub, check out Station Routierre de Transport en Commun de Jendouba located at Station Routierre de Transport en Commun de Jendouba, Jendouba. This top-rated spot is perfect for commuters and travelers alike, providing a range of transportation services to meet your needs. With a rating of 5.0, it's a must-visit destination for transportation in the area. For more details, visit their website at https://www.google.com/maps/place/Station+Routierre+de+Transport+en+Commun+de+Jendouba/data=!4m7!3m6!1s0x12fb124ec83a12b1:0x732bc81bcd0f4b54!8m2!3d36.4948453!4d8.7753113!16s%2Fg%2F1tct5ydm!19sChIJsRI6yE4S-xIRVEsPzRvIK3M?authuser=0&amp;hl=fr&amp;rclk=1 or call them at the provided phone number.</t>
+          <t>Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It is a central hub for public transportation in the city, offering connections to other cities and towns in the region. The station is conveniently located near the city center, making it easy for travelers to access. It features a variety of amenities, including a waiting area, ticket counters, and restrooms. The station is also wheelchair accessible.</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated transportation hub in Jendouba that provides a range of services and boasts a perfect rating?</t>
+          <t>Day Plan:
+Morning: Explore the ancient Roman city of Bulla Regia, known for its well-preserved ruins.
+Mid-Morning: Visit the Société de Transport Régionale Jendouba (STRJ) to learn about the local transportation system.
+Midday: Try local cuisine at Restaurant SIDI ASSAM, a family-owned establishment with high ratings.
+Afternoon: Engage in outdoor activities like hiking or biking at Parc National d'El Feija.
+Evening: Enjoy scenic views at the viewpoint overlooking the city of Jendouba.
+Night: Experience cultural immersion at the local folklore museum, featuring traditional Tunisian music and dance performances.</t>
+        </is>
+      </c>
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe' kaies is a cafe located in cafe' kaies, P17, Jendouba, Tunisia, open 24 hours a day. It has a 4.8 rating with 4 reviews.
+Pizza Woods Lounge Jendouba is a well-rated (4.5) restaurant located in Jendouba, Tunisia (lon: 8.7777625, lat: 36.4976753), open 24/7 and offering a variety of services such as breakfast, brunch, a lounge bar, and takeaway options.
+"Space dream" is a restaurant located in Jendouba, Tunisia. It is a highly-rated restaurant with a 5.0 rating based on 3 reviews. Space dream offers a wide range of dishes and its menu includes international and local cuisine. The restaurant has a cozy and friendly atmosphere, making it a great place to relax and enjoy a meal with friends or family.
+Bulla Regia is an ancient Roman city located in the Jendouba region of Tunisia. It is known for its well-preserved ruins, including an amphitheater, temples, and a subterranean market. The city is also home to several important mosaics and statues. Bulla Regia offers a glimpse into the Roman Empire's past and is a popular tourist destination.
+JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.
+Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. 
+Restaurant Mio Mondo, located in Jendouba (coordinates: 36.4976753, 8.7777625), is a fast food restaurant that offers a wide variety of dishes to suit all tastes. Open from 9:00 AM to 10:00 PM, this establishment has received a rating of 5.0 out of 5 based on two reviews. In addition to its excellent ratings, Restaurant Mio Mondo is also praised for its delicious food and friendly staff. Whether you are looking for a quick bite to eat or a more leisurely dining experience, Restaurant Mio Mondo is sure to have something to satisfy your cravings.
+Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).
+Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.
+The Société de Transport Régionale Jendouba (STRJ) is a transport company located in Jendouba, Tunisia. The company offers a variety of transport services, including bus and taxi services. The STRJ is located at coordinates (36.4976753, 8.7777625) and has a rating of 3.8 out of 5 on Google Maps. The company's website is http://www.srtj.com.tn/.
+Gare Ferroviaire de Jendouba is a train station located in Jendouba, Tunisia. It offers train services to various destinations within Tunisia, providing convenient transportation for locals and visitors alike. It is situated at the coordinates (36.5011879, 8.7780214), making it easily accessible for travelers.
+Located in Jendouba, Station des Autobus #2 is a bus station that offers convenient transportation services. Its exact coordinates are (5.4744717, -3.8045517), making it easily accessible for commuters.
+Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It is a central hub for public transportation in the city, offering connections to other cities and towns in the region. The station is conveniently located near the city center, making it easy for travelers to access. It features a variety of amenities, including a waiting area, ticket counters, and restrooms. The station is also wheelchair accessible.
+Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7511,12 +10538,59 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for a reliable transportation service, visit Station Louages Jendouba-bBousalem at GQ2J+XV6 Enour, Jendouba. This top-rated destination is perfect for travelers and offers a range of transportation services to choose from. With a rating of 5.0, it's a must-visit spot. It's open 24 hours a day, 7 days a week. To get there, use these GPS coordinates: 36.4976753, 8.7777625. For more details, visit their website at https://www.google.com/maps/place/Station+Louages+Jendouba-bBousalem/data=!4m7!3m6!1s0x12fb136abb3d7745:0x5f55c0d0133c37f5!8m2!3d36.5024027!4d8.7821364!16s%2Fg%2F11sqsfnb__!19sChIJRXc9u2oT-xIR9Tc8E9DAVV8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan .</t>
+          <t>Located in Enour, Jendouba, Station Louages Jendouba-bBousalem offers reliable transportation services. It operates 24 hours a day, providing convenient travel options for locals and visitors alike. With its prime location and dedication to customer satisfaction, it has earned a 5.0 rating from its customers.</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>Where in Jendouba can you find a highly-rated (5.0) transportation service that offers a variety of options and is open 24/7?</t>
+          <t>Day Plan:
+Morning: Explore the ruins of Bulla Regia, an impressive archaeological site boasting well-preserved Roman ruins.
+Mid-Morning: Head to Café restaurant for breakfast and enjoy a morning coffee while indulging in the cafe's cozy ambiance.
+Midday: Try local cuisine at Pizzeria Matador, known for its delectable dishes and positive reviews.
+Afternoon: Visit the Gare Ferroviaire de Jendouba train station and take a train to Station Routierre de Transport en Commun de Jendouba, where you can switch to a bus to Station Louages Jendouba-bBousalem. From there, take a bus to Besh Besh foods Pizzeria for a satisfying lunch.
+Evening: Explore the streets of JENDOUBA, the administrative center of the region, admiring its vibrant atmosphere and local charm.
+Night: Experience the lively ambiance of Pizza woods Lounge Jendouba, a popular hangout spot offering a wide range of food, drinks, and shisha.</t>
+        </is>
+      </c>
+      <c r="AB66" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café restaurant is a highly-rated cafe located in Jendouba, Tunisia. It offers a wide range of food and drinks, and is open from 6am to midnight, 7 days a week. The cafe is conveniently located near public transportation, and offers free Wi-Fi.
+Pizza woods Lounge Jendouba is a popular hangout spot in Jendouba. It offers a wide range of food and drinks, including pizza, breakfast, brunch, coffee, crepes, shisha, cocktails, and more. The lounge is open 24 hours a day and is located at Pizza woods Lounge Jendouba, P6, Jendouba. It has received mostly positive reviews from customers, with an average rating of 4.5 out of 5 stars.
+Pizzeria Matador, located in Jendouba (lon: 8.7777625 ; lat: 36.4976753), is a restaurant offering a variety of dishes. With a rating of 4.0 based on 7 reviews, it has a featured image, a link to its website, and a phone number.
+Bulla Regia, an archaeological site in Jendouba, Tunisia, boasts a 4.7-star rating with 300 reviews and exhibits impressive Roman ruins. At coordinates (36.55696, 8.74538), it features well-preserved mosaics, villas, and underground structures, making it a popular tourist attraction.
+JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.
+Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. 
+ALI BRIKA is a renowned fast food restaurant in ALI BRIKA, Jendouba. It's conveniently located at coordinates (36.4976753, 8.7777625). With a perfect 5.0 rating based on 2 reviews, it has consistently satisfied its customers with its delectable cuisine.
+Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).
+Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.
+Located in Enour, Jendouba, Station Louages Jendouba-bBousalem offers reliable transportation services. It operates 24 hours a day, providing convenient travel options for locals and visitors alike. With its prime location and dedication to customer satisfaction, it has earned a 5.0 rating from its customers.
+Gare Ferroviaire de Jendouba is a train station located in Jendouba, Tunisia. It offers train services to various destinations within Tunisia, providing convenient transportation for locals and visitors alike. It is situated at the coordinates (36.5011879, 8.7780214), making it easily accessible for travelers.
+Located in Jendouba, Station des Autobus #2 is a bus station that offers convenient transportation services. Its exact coordinates are (5.4744717, -3.8045517), making it easily accessible for commuters.
+Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It offers public transportation services to various destinations. The station is conveniently located at the coordinates (36.4976753, 8.7777625), making it easily accessible for travelers.
+Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7610,12 +10684,59 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>If you're in Jendouba and looking for a convenient transportation hub, head to Station des Autobus #2. Located at Station des Autobus #2, Jendouba, this top-rated bus station is perfect for travelers. With a rating of 5.0, it's a must-visit spot for anyone using public transportation. To get there, use these GPS coordinates: 5.4744717, -3.8045517.</t>
+          <t>Station des Autobus #2 is a bus station located in Jendouba, Tunisia. It offers bus services to various destinations within Tunisia and neighboring countries. The station is conveniently located in the city center, making it easily accessible by foot or public transportation. It provides a comfortable waiting area for passengers, with amenities such as restrooms and a snack bar. Passengers can also find information about bus schedules and fares at the station's ticket counter. With its central location and convenient amenities, Station des Autobus #2 is a valuable resource for travelers in Jendouba.</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>Where is the top-rated bus station in Jendouba, and what makes it particularly convenient for travelers?</t>
+          <t>Day Plan:
+Morning: Explore the archaeological site of Bulla Regia, marveling at its well-preserved Roman ruins.
+Mid-Morning: Visit Café mqh for a delightful cup of coffee and a cozy ambiance.
+Midday: Savor delectable local cuisine at Le Baril Restaurant, renowned for its cozy atmosphere and 5.0 rating.
+Afternoon: Engage in outdoor activities at Station Routierre de Transport en Commun de Jendouba, experiencing the vibrant atmosphere of a bustling bus station.
+Evening: Indulge in the traditional flavors of ALI BRIKA, a renowned fast food restaurant, and appreciate its perfect 5.0 rating.
+Night: Relax at Jasmine, a cozy bar lounge, and unwind with a refreshing drink, enjoying the lively ambiance.</t>
+        </is>
+      </c>
+      <c r="AB67" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Café mqh** is a highly-rated café situated in Jendouba, Tunisia. Located at coordinates (36.4976753, 8.7777625), the café offers a cozy atmosphere and a variety of beverages to its customers. With a 4.0 rating based on one review, mqh is a popular spot for locals and tourists alike.
+Welcome to Pizza Woods Lounge in Jendouba, Tunisia! We offer a comfortable and inviting atmosphere for you to relax with friends and family. Enjoy our delicious pizzas, crepes, and other breakfast, brunch, and lunch options. We also serve a variety of beverages, including coffee, tea, and juices. Our team is dedicated to providing exceptional service and creating a memorable dining experience for all our guests. Visit us today at our convenient location at Pizza woods Lounge Jendouba, P6, Jendouba, and indulge in the ultimate culinary and social experience. We are open 24 hours a day, so come in anytime!
+Le Baril Restaurant, located in Jendouba, Tunisia, offers a delightful dining experience. Rated 5.0 with 4 reviews, it is known for its delectable cuisine and cozy atmosphere. Open daily from 09:00 to 20:00, the restaurant invites guests to savor its culinary creations and relax in its warm ambiance. Its approximate location is (36.4976753, 8.7777625).
+Bulla Regia, an archaeological site in Jendouba, Tunisia, boasts a 4.7-star rating with 300 reviews and exhibits impressive Roman ruins. At coordinates (36.55696, 8.74538), it features well-preserved mosaics, villas, and underground structures, making it a popular tourist attraction.
+JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.
+Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. 
+ALI BRIKA is a renowned fast food restaurant in ALI BRIKA, Jendouba. It's conveniently located at coordinates (36.4976753, 8.7777625). With a perfect 5.0 rating based on 2 reviews, it has consistently satisfied its customers with its delectable cuisine.
+Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).
+Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.
+Societe De Transport Regional Jendouba is a transport service located in Jendouba, Tunisia. Its coordinates are (36.4976753, 8.7777625). They offer various transport services and can be contacted at 78 600 690.
+Gare Ferroviaire de Jendouba is a train station located in Jendouba, Tunisia. It offers train services to various destinations within Tunisia, providing convenient transportation for locals and visitors alike. It is situated at the coordinates (36.5011879, 8.7780214), making it easily accessible for travelers.
+Located in Jendouba, Station des Autobus #2 is a bus station that offers convenient transportation services. Its exact coordinates are (5.4744717, -3.8045517), making it easily accessible for commuters.
+Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It offers public transportation services to various destinations. The station is conveniently located at the coordinates (36.4976753, 8.7777625), making it easily accessible for travelers.
+Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
